--- a/Analysis/SAM_00 summary.xlsx
+++ b/Analysis/SAM_00 summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdeline\Documents\Python Scripts\2022_Bifacial_irradiance_paper\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5D740-73ED-4FA2-9E86-06786FEB817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD3042B-2C88-4E6E-8E14-74552E684D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6360" windowWidth="29040" windowHeight="15840" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="4" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="37">
   <si>
     <t>Column1</t>
   </si>
@@ -197,12 +197,15 @@
   <si>
     <t>&lt;- Mono baseline</t>
   </si>
+  <si>
+    <t>***  NEED TO UPDATE RAW DATA AND PLOTS ***</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +225,19 @@
       <u/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -247,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,6 +271,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -25908,8 +25926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F8C243-CD6D-4F25-B152-197695A0DCE2}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25961,35 +25979,41 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>-0.83</v>
-      </c>
-      <c r="E3">
-        <v>1.22</v>
-      </c>
-      <c r="I3">
+      <c r="D3" s="6">
+        <v>-0.03</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3">
-        <v>-0.69</v>
-      </c>
-      <c r="M3">
-        <v>1.27</v>
+      <c r="L3" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1.28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -26002,11 +26026,11 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>-0.51</v>
-      </c>
-      <c r="E4">
-        <v>1.33</v>
+      <c r="D4" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.07</v>
       </c>
       <c r="I4">
         <v>8</v>
@@ -26017,49 +26041,43 @@
       <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4">
-        <v>-0.44</v>
-      </c>
-      <c r="M4">
-        <v>2.0299999999999998</v>
+      <c r="L4" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="M4" s="5">
+        <v>11.8</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
-        <v>-0.38</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="D5" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="I5" s="7">
         <v>8</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
+      <c r="L5" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1.51</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -26072,11 +26090,11 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="E6">
-        <v>1.52</v>
+      <c r="D6" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.61</v>
       </c>
       <c r="I6">
         <v>8</v>
@@ -26088,10 +26106,10 @@
         <v>13</v>
       </c>
       <c r="L6" s="5">
-        <v>-0.24</v>
+        <v>11.94</v>
       </c>
       <c r="M6" s="5">
-        <v>1.98</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -26104,11 +26122,11 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2.2999999999999998</v>
+      <c r="D7" s="5">
+        <v>2.83</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.34</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -26123,10 +26141,10 @@
         <v>12</v>
       </c>
       <c r="L7" s="5">
-        <v>3.09</v>
+        <v>3.94</v>
       </c>
       <c r="M7" s="5">
-        <v>3.47</v>
+        <v>3.6</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -26142,11 +26160,11 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>1.83</v>
-      </c>
-      <c r="E8">
-        <v>1.66</v>
+      <c r="D8" s="5">
+        <v>6.16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.07</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -26158,10 +26176,10 @@
         <v>13</v>
       </c>
       <c r="L8" s="5">
-        <v>3.13</v>
+        <v>14.08</v>
       </c>
       <c r="M8" s="5">
-        <v>3.28</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -26174,11 +26192,11 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
-        <v>1.89</v>
-      </c>
-      <c r="E9">
-        <v>1.86</v>
+      <c r="D9" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.64</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -26189,6 +26207,8 @@
       <c r="K9" t="s">
         <v>12</v>
       </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -26200,11 +26220,11 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>-0.12</v>
-      </c>
-      <c r="E10">
-        <v>1.26</v>
+      <c r="D10" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.27</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
@@ -26218,11 +26238,11 @@
       <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="L10">
-        <v>0.25</v>
-      </c>
-      <c r="M10">
-        <v>1.54</v>
+      <c r="L10" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1.59</v>
       </c>
       <c r="N10" t="s">
         <v>27</v>
@@ -26238,11 +26258,11 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>0.16</v>
-      </c>
-      <c r="E11">
-        <v>1.43</v>
+      <c r="D11" s="5">
+        <v>6.39</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.92</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
@@ -26256,11 +26276,11 @@
       <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11">
-        <v>0.44</v>
-      </c>
-      <c r="M11">
-        <v>1.39</v>
+      <c r="L11" s="5">
+        <v>13.54</v>
+      </c>
+      <c r="M11" s="5">
+        <v>12.88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -26273,11 +26293,11 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
-        <v>-4.7699999999999996</v>
-      </c>
-      <c r="E12">
-        <v>0.64</v>
+      <c r="D12" s="5">
+        <v>-1.76</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.75</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
@@ -26291,6 +26311,8 @@
       <c r="K12" t="s">
         <v>12</v>
       </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -26302,11 +26324,11 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13">
-        <v>-7.94</v>
-      </c>
-      <c r="E13">
-        <v>3.46</v>
+      <c r="D13" s="5">
+        <v>-7.25</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.5</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -26320,6 +26342,8 @@
       <c r="K13" t="s">
         <v>12</v>
       </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -26331,22 +26355,32 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>-2.5499999999999998</v>
-      </c>
-      <c r="E14">
-        <v>0.74</v>
-      </c>
+      <c r="D14" s="5">
+        <v>-3.31</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>22</v>
       </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>23</v>
       </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -26358,11 +26392,11 @@
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17">
-        <v>-1.48</v>
-      </c>
-      <c r="E17">
-        <v>1.58</v>
+      <c r="D17" s="5">
+        <v>-0.68</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.59</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
@@ -26376,11 +26410,11 @@
       <c r="K17" t="s">
         <v>12</v>
       </c>
-      <c r="L17">
-        <v>-0.81</v>
-      </c>
-      <c r="M17">
-        <v>2.62</v>
+      <c r="L17" s="5">
+        <v>-0.01</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2.64</v>
       </c>
       <c r="N17" t="s">
         <v>26</v>
@@ -26396,11 +26430,11 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18">
-        <v>-2.4</v>
-      </c>
-      <c r="E18">
-        <v>1.02</v>
+      <c r="D18" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2.76</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -26411,11 +26445,11 @@
       <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="L18">
-        <v>-1.37</v>
-      </c>
-      <c r="M18">
-        <v>2.62</v>
+      <c r="L18" s="5">
+        <v>10.24</v>
+      </c>
+      <c r="M18" s="5">
+        <v>10.41</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -26428,11 +26462,11 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D19">
-        <v>-2.36</v>
-      </c>
-      <c r="E19">
-        <v>1.1100000000000001</v>
+      <c r="D19" s="5">
+        <v>-1.3</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.17</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -26443,6 +26477,8 @@
       <c r="K19" t="s">
         <v>12</v>
       </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -26454,11 +26490,11 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="D20">
-        <v>-3.8</v>
-      </c>
-      <c r="E20">
-        <v>1.02</v>
+      <c r="D20" s="5">
+        <v>-3.02</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.03</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
@@ -26472,11 +26508,11 @@
       <c r="K20" t="s">
         <v>12</v>
       </c>
-      <c r="L20">
-        <v>-4.12</v>
-      </c>
-      <c r="M20">
-        <v>1.3</v>
+      <c r="L20" s="5">
+        <v>-3.34</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1.31</v>
       </c>
       <c r="N20" t="s">
         <v>27</v>
@@ -26492,11 +26528,11 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
-        <v>-4.37</v>
-      </c>
-      <c r="E21">
-        <v>1.0900000000000001</v>
+      <c r="D21" s="5">
+        <v>1.81</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3.48</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -26507,11 +26543,11 @@
       <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="L21">
-        <v>-4.26</v>
-      </c>
-      <c r="M21">
-        <v>1.27</v>
+      <c r="L21" s="5">
+        <v>8.36</v>
+      </c>
+      <c r="M21" s="5">
+        <v>12.07</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -26524,11 +26560,11 @@
       <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D22">
-        <v>-8.1300000000000008</v>
-      </c>
-      <c r="E22">
-        <v>1.1100000000000001</v>
+      <c r="D22" s="5">
+        <v>-7.29</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.3</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -26544,11 +26580,16 @@
       <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="D23">
-        <v>-7.08</v>
-      </c>
-      <c r="E23">
-        <v>0.85</v>
+      <c r="D23" s="5">
+        <v>-6.33</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">

--- a/Analysis/SAM_00 summary.xlsx
+++ b/Analysis/SAM_00 summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdeline\Documents\Python Scripts\2022_Bifacial_irradiance_paper\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5996E9CD-477E-4A48-9857-AF01CBC3AC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F9A745-EA2B-4080-A200-056500ED7986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6360" windowWidth="29040" windowHeight="15840" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="4" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="140">
   <si>
     <t>Column1</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>***: field is bifacial power vs Method4 reference.</t>
-  </si>
-  <si>
-    <t>Refmod is 3.5% higher than Gtotal</t>
   </si>
   <si>
     <t>Method3</t>
@@ -503,6 +500,12 @@
   </si>
   <si>
     <t>DATE FROM ISO</t>
+  </si>
+  <si>
+    <t>NEW Refmod is 2.3% lower than Gtotal based on back covered field comparison.</t>
+  </si>
+  <si>
+    <t>OLD Refmod is 3.5% higher than Gtotal based on Spire point</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +2648,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> MBE -4.0% RMSE 0.65%</a:t>
+              <a:t> MBE +1.3% RMSE 0.70%</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3588,157 +3591,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0.95740059718648496</c:v>
+                  <c:v>1.0128824789911</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95965496023845698</c:v>
+                  <c:v>1.01142608646306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95829751383663897</c:v>
+                  <c:v>1.01502175972414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95836946630569497</c:v>
+                  <c:v>1.01100938428063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96292306626546098</c:v>
+                  <c:v>1.01449705916666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97030963048966201</c:v>
+                  <c:v>1.0245137304168801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95064269700197601</c:v>
+                  <c:v>1.0022489304906701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95681369640570102</c:v>
+                  <c:v>1.0104913986242099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96134465106941902</c:v>
+                  <c:v>1.0157650510831899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95890228299803104</c:v>
+                  <c:v>1.0105297916998901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96211355207724902</c:v>
+                  <c:v>1.0157677297774601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94934878329883698</c:v>
+                  <c:v>1.0005554705844999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96255535339682297</c:v>
+                  <c:v>1.01566923640389</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.958608253524877</c:v>
+                  <c:v>1.0086709788042201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95704946730459395</c:v>
+                  <c:v>1.00841235919066</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95892429816068203</c:v>
+                  <c:v>1.0082549227450499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96051784780606597</c:v>
+                  <c:v>1.01162234076674</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95812955463959604</c:v>
+                  <c:v>1.00817659913081</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96601157275651395</c:v>
+                  <c:v>1.0188957571739401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95524043981295803</c:v>
+                  <c:v>1.0068830281510599</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96427146937334896</c:v>
+                  <c:v>1.01645427455558</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.95056413512751703</c:v>
+                  <c:v>1.0054066518142</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.95771118921754705</c:v>
+                  <c:v>1.01311549487152</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95277021132560302</c:v>
+                  <c:v>1.0086711329696301</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95040213965884501</c:v>
+                  <c:v>1.0043868410488299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.94798427423903298</c:v>
+                  <c:v>1.0021635425388999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.96136821373307002</c:v>
+                  <c:v>1.0169594448813899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95433351482978002</c:v>
+                  <c:v>1.0098872483691701</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94766597029590904</c:v>
+                  <c:v>1.0030499403259401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.96250922783609005</c:v>
+                  <c:v>1.0174281835069601</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.96483721741712103</c:v>
+                  <c:v>1.0185295408388799</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95014985687549802</c:v>
+                  <c:v>1.00481222550418</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95419600585940401</c:v>
+                  <c:v>1.00811032390973</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.96355622978623401</c:v>
+                  <c:v>1.0181870693736701</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.95286032555800804</c:v>
+                  <c:v>1.0056929200575899</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.96056835805093699</c:v>
+                  <c:v>1.0137172897956399</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.96441364679891695</c:v>
+                  <c:v>1.01815287940314</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95835966522185601</c:v>
+                  <c:v>1.0103876247558601</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95870901193417901</c:v>
+                  <c:v>1.0099923462141001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.97174838216884796</c:v>
+                  <c:v>1.0226403539870601</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.96392873773050602</c:v>
+                  <c:v>1.01690134750518</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.97568943289671095</c:v>
+                  <c:v>1.03133381332566</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.96510205590424802</c:v>
+                  <c:v>1.0199860757085799</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.97331369956117397</c:v>
+                  <c:v>1.0300763867060501</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.96706481727704696</c:v>
+                  <c:v>1.02192531553766</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.95932839858830499</c:v>
+                  <c:v>1.0125657039937199</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.95986460769547899</c:v>
+                  <c:v>1.0134827200313099</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.96902095171721903</c:v>
+                  <c:v>1.0230364318993901</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.95992695345213896</c:v>
+                  <c:v>1.0106860023142801</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.96440342433354997</c:v>
+                  <c:v>1.01742812453321</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.971769113024609</c:v>
+                  <c:v>1.0279712460646999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5106,157 +5109,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0.95740059718648496</c:v>
+                  <c:v>1.0128824789911</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95965496023845698</c:v>
+                  <c:v>1.01142608646306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95829751383663897</c:v>
+                  <c:v>1.01502175972414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95836946630569497</c:v>
+                  <c:v>1.01100938428063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96292306626546098</c:v>
+                  <c:v>1.01449705916666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97030963048966201</c:v>
+                  <c:v>1.0245137304168801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95064269700197601</c:v>
+                  <c:v>1.0022489304906701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95681369640570102</c:v>
+                  <c:v>1.0104913986242099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96134465106941902</c:v>
+                  <c:v>1.0157650510831899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95890228299803104</c:v>
+                  <c:v>1.0105297916998901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96211355207724902</c:v>
+                  <c:v>1.0157677297774601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94934878329883698</c:v>
+                  <c:v>1.0005554705844999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96255535339682297</c:v>
+                  <c:v>1.01566923640389</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.958608253524877</c:v>
+                  <c:v>1.0086709788042201</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95704946730459395</c:v>
+                  <c:v>1.00841235919066</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95892429816068203</c:v>
+                  <c:v>1.0082549227450499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.96051784780606597</c:v>
+                  <c:v>1.01162234076674</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.95812955463959604</c:v>
+                  <c:v>1.00817659913081</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96601157275651395</c:v>
+                  <c:v>1.0188957571739401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95524043981295803</c:v>
+                  <c:v>1.0068830281510599</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.96427146937334896</c:v>
+                  <c:v>1.01645427455558</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.95056413512751703</c:v>
+                  <c:v>1.0054066518142</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.95771118921754705</c:v>
+                  <c:v>1.01311549487152</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95277021132560302</c:v>
+                  <c:v>1.0086711329696301</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95040213965884501</c:v>
+                  <c:v>1.0043868410488299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.94798427423903298</c:v>
+                  <c:v>1.0021635425388999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.96136821373307002</c:v>
+                  <c:v>1.0169594448813899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95433351482978002</c:v>
+                  <c:v>1.0098872483691701</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94766597029590904</c:v>
+                  <c:v>1.0030499403259401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.96250922783609005</c:v>
+                  <c:v>1.0174281835069601</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.96483721741712103</c:v>
+                  <c:v>1.0185295408388799</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95014985687549802</c:v>
+                  <c:v>1.00481222550418</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95419600585940401</c:v>
+                  <c:v>1.00811032390973</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.96355622978623401</c:v>
+                  <c:v>1.0181870693736701</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.95286032555800804</c:v>
+                  <c:v>1.0056929200575899</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.96056835805093699</c:v>
+                  <c:v>1.0137172897956399</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.96441364679891695</c:v>
+                  <c:v>1.01815287940314</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95835966522185601</c:v>
+                  <c:v>1.0103876247558601</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95870901193417901</c:v>
+                  <c:v>1.0099923462141001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.97174838216884796</c:v>
+                  <c:v>1.0226403539870601</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.96392873773050602</c:v>
+                  <c:v>1.01690134750518</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.97568943289671095</c:v>
+                  <c:v>1.03133381332566</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.96510205590424802</c:v>
+                  <c:v>1.0199860757085799</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.97331369956117397</c:v>
+                  <c:v>1.0300763867060501</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.96706481727704696</c:v>
+                  <c:v>1.02192531553766</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.95932839858830499</c:v>
+                  <c:v>1.0125657039937199</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.95986460769547899</c:v>
+                  <c:v>1.0134827200313099</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.96902095171721903</c:v>
+                  <c:v>1.0230364318993901</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.95992695345213896</c:v>
+                  <c:v>1.0106860023142801</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.96440342433354997</c:v>
+                  <c:v>1.01742812453321</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.971769113024609</c:v>
+                  <c:v>1.0279712460646999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5900,7 +5903,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Hybrid method. Row8 POA vs Row2 refmod</a:t>
+              <a:t>Hybrid method. Row8 POA vs Row4 refmod</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -5909,7 +5912,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>MBE -3.3% RMSE 0.77%</a:t>
+              <a:t>MBE +3.7% RMSE 0.79%</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6852,157 +6855,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0.985600905010662</c:v>
+                  <c:v>1.04281930897054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99025012666502499</c:v>
+                  <c:v>1.04251370153326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98968865131939299</c:v>
+                  <c:v>1.0480376801361699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98031891718097597</c:v>
+                  <c:v>1.03540600577172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99044298571337896</c:v>
+                  <c:v>1.0441867903384601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0014786285263899</c:v>
+                  <c:v>1.0584236530757301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97543209308331902</c:v>
+                  <c:v>1.0284213785116201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98610833183216096</c:v>
+                  <c:v>1.0409724092339601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98872266312562196</c:v>
+                  <c:v>1.0438985147428199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98503141540400296</c:v>
+                  <c:v>1.03840832230036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98801922732913605</c:v>
+                  <c:v>1.04155180281301</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97753134009850395</c:v>
+                  <c:v>1.03057789069897</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99188823383773606</c:v>
+                  <c:v>1.0465182420975501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.98066323315510395</c:v>
+                  <c:v>1.0319444204481101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.977112558627237</c:v>
+                  <c:v>1.0289802994653701</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97905522183039395</c:v>
+                  <c:v>1.0298266733239601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.983592517531656</c:v>
+                  <c:v>1.0362927543676399</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97992077736600203</c:v>
+                  <c:v>1.0319789073730401</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.98261135405229405</c:v>
+                  <c:v>1.03582222776837</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.975906820094122</c:v>
+                  <c:v>1.0291379031235099</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98327254779617601</c:v>
+                  <c:v>1.0378706784854499</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97199812676324004</c:v>
+                  <c:v>1.02819143454426</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97592512077156801</c:v>
+                  <c:v>1.0323800533586001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97366532119372295</c:v>
+                  <c:v>1.0308518790914201</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.97488288953870605</c:v>
+                  <c:v>1.0302275391893001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97207507318949904</c:v>
+                  <c:v>1.0280461277269799</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97751286701867801</c:v>
+                  <c:v>1.03571017775887</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.97444314126242704</c:v>
+                  <c:v>1.03128177777508</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97027604033932402</c:v>
+                  <c:v>1.0270821615586401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.97993394877584405</c:v>
+                  <c:v>1.0369952918871399</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.98327161934720597</c:v>
+                  <c:v>1.0378950674607601</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.97192650335239905</c:v>
+                  <c:v>1.0288716407592899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97471962702797899</c:v>
+                  <c:v>1.02981411253001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.97987311326922599</c:v>
+                  <c:v>1.0355841624245601</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.96900236363588599</c:v>
+                  <c:v>1.02516053340309</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.98085920579143204</c:v>
+                  <c:v>1.035095063282</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.98522206473806795</c:v>
+                  <c:v>1.04021665664024</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.97893176640943302</c:v>
+                  <c:v>1.0324181710811799</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.97710716959719102</c:v>
+                  <c:v>1.0304526047517599</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.98516790343823302</c:v>
+                  <c:v>1.03695040193299</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.97677028905919405</c:v>
+                  <c:v>1.0277380588832801</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.994489550852934</c:v>
+                  <c:v>1.0489904708592901</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.98604817395765598</c:v>
+                  <c:v>1.0418537917274899</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.99567359307051995</c:v>
+                  <c:v>1.0523865823006699</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.98545274372228997</c:v>
+                  <c:v>1.0416255875384901</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.98731685304170902</c:v>
+                  <c:v>1.0392263071523899</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.98263639795504398</c:v>
+                  <c:v>1.0373861169014</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99426220937618603</c:v>
+                  <c:v>1.0501415626887201</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.981257534563861</c:v>
+                  <c:v>1.0326978189604501</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.98751307753601303</c:v>
+                  <c:v>1.0419350098160001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0009627800343599</c:v>
+                  <c:v>1.05888116792786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8728,157 +8731,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0.94663327456533997</c:v>
+                  <c:v>1.0021015101913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95670794508863999</c:v>
+                  <c:v>1.00603857951495</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94227565799631097</c:v>
+                  <c:v>0.99896711199251198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93918937266715097</c:v>
+                  <c:v>0.99060864515193903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95002929050402896</c:v>
+                  <c:v>1.0011154706534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95697585852880696</c:v>
+                  <c:v>1.0123050737903301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93737693737101602</c:v>
+                  <c:v>0.98784072208128104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94308204252302696</c:v>
+                  <c:v>0.99525483757014199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94299175831183002</c:v>
+                  <c:v>0.99496627869333898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93944426747071297</c:v>
+                  <c:v>0.99048560689970799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94294226665078296</c:v>
+                  <c:v>0.99493228795148303</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93191832063293101</c:v>
+                  <c:v>0.983116378756408</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.943750527084526</c:v>
+                  <c:v>0.99589359349733697</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93566539220919698</c:v>
+                  <c:v>0.98295314012679802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92581917103677502</c:v>
+                  <c:v>0.97529558213585299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93089552241442797</c:v>
+                  <c:v>0.97906211973422497</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.935764281285692</c:v>
+                  <c:v>0.98627342260168405</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.932867531523775</c:v>
+                  <c:v>0.98369495999668599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93810021386214404</c:v>
+                  <c:v>0.98924164704492101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.93523441442662802</c:v>
+                  <c:v>0.98598925589500797</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94591018423609396</c:v>
+                  <c:v>0.99688951554226701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92921447694688597</c:v>
+                  <c:v>0.98344657079735298</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.93282493077000705</c:v>
+                  <c:v>0.98612936842920496</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93183689984046303</c:v>
+                  <c:v>0.98470702605004701</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.92786828447476</c:v>
+                  <c:v>0.97999779282029598</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.92845584354354105</c:v>
+                  <c:v>0.97959995157517699</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.92469610243609901</c:v>
+                  <c:v>0.98033097513672895</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.924230431860805</c:v>
+                  <c:v>0.97691598272379199</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.92422483033910496</c:v>
+                  <c:v>0.97637645223083502</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92881299832318098</c:v>
+                  <c:v>0.98254281816317202</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.91832994219991104</c:v>
+                  <c:v>0.96934465344471599</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92613457105841801</c:v>
+                  <c:v>0.97920208075723703</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.93173999144376796</c:v>
+                  <c:v>0.98326485716941003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92307219827797204</c:v>
+                  <c:v>0.97355607082492601</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.93010263617595901</c:v>
+                  <c:v>0.98445547130189204</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93843257132767199</c:v>
+                  <c:v>0.98901615213716199</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.93418341329979804</c:v>
+                  <c:v>0.98733880172975497</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.94588453488889701</c:v>
+                  <c:v>0.99552987542279203</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.94102131663300403</c:v>
+                  <c:v>0.99239796286585502</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.92321549896905497</c:v>
+                  <c:v>0.97257101220485598</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.93856468634690304</c:v>
+                  <c:v>0.98649008833306495</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.94783718673523898</c:v>
+                  <c:v>1.0008358277320699</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.94307507358314502</c:v>
+                  <c:v>0.99516249394397704</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.94122815653330805</c:v>
+                  <c:v>0.99966893315762695</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.93852539896912601</c:v>
+                  <c:v>0.99187918792998597</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.94244463662558298</c:v>
+                  <c:v>0.990208307936979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.93793588420611695</c:v>
+                  <c:v>0.99031052021916899</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.94601749427575499</c:v>
+                  <c:v>0.99933202738122295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.93754107171581302</c:v>
+                  <c:v>0.98577443039474899</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.93425016704672603</c:v>
+                  <c:v>0.98606350603031601</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.94753791931368703</c:v>
+                  <c:v>1.0036541278426501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11527,7 +11530,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> MBE -7.3% RMSE 1.3%</a:t>
+              <a:t> MBE -2.3% RMSE 1.3%</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -12470,157 +12473,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0.93287473765074302</c:v>
+                  <c:v>0.98765838368299097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94759835534043602</c:v>
+                  <c:v>0.99897019553292898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92350699779258705</c:v>
+                  <c:v>0.97835705929580596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92720539815626102</c:v>
+                  <c:v>0.978079395188859</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94382438841032601</c:v>
+                  <c:v>0.993607855070191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94360720055160296</c:v>
+                  <c:v>0.994977552761247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93579580564091902</c:v>
+                  <c:v>0.98561003266318203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93267139684436595</c:v>
+                  <c:v>0.98478190248972897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93429106838363796</c:v>
+                  <c:v>0.985844812244418</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.930166605247564</c:v>
+                  <c:v>0.98276580025645899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93145272644575905</c:v>
+                  <c:v>0.98447644390557698</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92722901489002396</c:v>
+                  <c:v>0.97805499572346399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93106952061404302</c:v>
+                  <c:v>0.98270498770116399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93974845203655299</c:v>
+                  <c:v>0.98709820067687004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92669650063901798</c:v>
+                  <c:v>0.97734762001584297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93459025525169104</c:v>
+                  <c:v>0.98244388928978099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93415568559228801</c:v>
+                  <c:v>0.98438800655371805</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93427483593400995</c:v>
+                  <c:v>0.98378611288978601</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93354267627741605</c:v>
+                  <c:v>0.98428012893630001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.93111734895339904</c:v>
+                  <c:v>0.98121362659492395</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.93531671627699797</c:v>
+                  <c:v>0.98568684238173698</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.923483267437605</c:v>
+                  <c:v>0.97689399566297996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91880411938756401</c:v>
+                  <c:v>0.97134737908044499</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91653030290107995</c:v>
+                  <c:v>0.96850252584542496</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91217235252704498</c:v>
+                  <c:v>0.96333648434517005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91221274700125998</c:v>
+                  <c:v>0.962541773016095</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.90683175921358505</c:v>
+                  <c:v>0.95932426715368302</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90718134378269999</c:v>
+                  <c:v>0.95892001762149903</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90509232195844802</c:v>
+                  <c:v>0.95671807201645498</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.90777833183469703</c:v>
+                  <c:v>0.95924092946021999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.90100674818256399</c:v>
+                  <c:v>0.95287006288502196</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.90952106104461505</c:v>
+                  <c:v>0.96160722701420398</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.91844607835697101</c:v>
+                  <c:v>0.96893905234966704</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.91072683773468699</c:v>
+                  <c:v>0.96024311271769802</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.92534848856753305</c:v>
+                  <c:v>0.97609143673361998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92639508485609101</c:v>
+                  <c:v>0.97562526159955298</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92218900395925196</c:v>
+                  <c:v>0.97354883422948901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.94011199106135301</c:v>
+                  <c:v>0.98891877542998297</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.94082786023183995</c:v>
+                  <c:v>0.99120337312195095</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.90776918725275202</c:v>
+                  <c:v>0.95889656390624101</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.93886468105826204</c:v>
+                  <c:v>0.98615723118083698</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.93099833028664203</c:v>
+                  <c:v>0.98311134265094402</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.92839698219807398</c:v>
+                  <c:v>0.98135197776486405</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.92841743347314498</c:v>
+                  <c:v>0.98030293747581898</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.92192176406312298</c:v>
+                  <c:v>0.97443689051379201</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.91881200790653605</c:v>
+                  <c:v>0.97506641054842103</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.92719520892001805</c:v>
+                  <c:v>0.97878026019685105</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.93165048036044795</c:v>
+                  <c:v>0.98385560676538997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.93444416688050602</c:v>
+                  <c:v>0.98330866283756801</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.92484389863624195</c:v>
+                  <c:v>0.97672123471391403</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.92519615374686204</c:v>
+                  <c:v>0.97802098848452101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19545,16 +19548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>268024</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>421004</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>168421</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>439474</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>73503</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19584,8 +19587,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9997440" y="295275"/>
-          <a:ext cx="5663565" cy="1867681"/>
+          <a:off x="14497546" y="753966"/>
+          <a:ext cx="5674332" cy="1870580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19868,6 +19871,128 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>517332</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>208390</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB28533B-93D9-C6D5-8243-2CD5DFA97C36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9843549" y="584781"/>
+          <a:ext cx="4603888" cy="1530694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>98727</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>135504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BD1605-761D-DC00-F484-141109A7F1BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10071651" y="2459442"/>
+          <a:ext cx="3636065" cy="2406094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21348,12 +21473,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.21915</cdr:x>
-      <cdr:y>0.27225</cdr:y>
+      <cdr:x>0.11919</cdr:x>
+      <cdr:y>0.59457</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.54925</cdr:x>
-      <cdr:y>0.43861</cdr:y>
+      <cdr:x>0.44929</cdr:x>
+      <cdr:y>0.76093</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -21368,8 +21493,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="920545" y="663381"/>
-          <a:ext cx="1386598" cy="405367"/>
+          <a:off x="503632" y="1420900"/>
+          <a:ext cx="1394878" cy="397564"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -21726,12 +21851,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.36454</cdr:x>
-      <cdr:y>0.76896</cdr:y>
+      <cdr:x>0.26458</cdr:x>
+      <cdr:y>0.14164</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68107</cdr:x>
-      <cdr:y>0.93532</cdr:y>
+      <cdr:x>0.5776</cdr:x>
+      <cdr:y>0.31127</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -21746,8 +21871,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1531260" y="1873694"/>
-          <a:ext cx="1329595" cy="405367"/>
+          <a:off x="1117995" y="338495"/>
+          <a:ext cx="1322734" cy="405367"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -21881,7 +22006,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>MBE -2% RMSE 0.75%</a:t>
+            <a:t>MBE 1.3% RMSE 0.7%</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000" baseline="-25000">
             <a:solidFill>
@@ -25999,10 +26124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F8C243-CD6D-4F25-B152-197695A0DCE2}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26010,15 +26135,15 @@
     <col min="3" max="3" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -26050,10 +26175,13 @@
         <v>7</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>138</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -26070,7 +26198,7 @@
         <v>1.23</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1">
         <v>8</v>
@@ -26088,10 +26216,10 @@
         <v>1.28</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>8</v>
       </c>
@@ -26123,7 +26251,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>8</v>
       </c>
@@ -26155,7 +26283,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>8</v>
       </c>
@@ -26187,7 +26315,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>4</v>
       </c>
@@ -26204,7 +26332,7 @@
         <v>2.34</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -26222,10 +26350,10 @@
         <v>3.6</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>4</v>
       </c>
@@ -26257,12 +26385,12 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -26277,7 +26405,7 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -26285,7 +26413,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>4</v>
       </c>
@@ -26302,7 +26430,7 @@
         <v>1.27</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -26320,10 +26448,10 @@
         <v>1.59</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>4</v>
       </c>
@@ -26340,7 +26468,7 @@
         <v>2.92</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -26358,7 +26486,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>4</v>
       </c>
@@ -26369,13 +26497,13 @@
         <v>12</v>
       </c>
       <c r="D12" s="8">
-        <v>-4</v>
+        <v>1.34</v>
       </c>
       <c r="E12" s="4">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -26389,12 +26517,12 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -26406,13 +26534,13 @@
         <v>3.5</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -26420,7 +26548,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:26">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -26431,24 +26559,23 @@
         <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>-3.31</v>
+        <v>3.71</v>
       </c>
       <c r="E14" s="4">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:26">
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:26">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -26474,7 +26601,7 @@
         <v>1.59</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -26492,7 +26619,7 @@
         <v>2.64</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -26532,7 +26659,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -26547,7 +26674,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
@@ -26572,7 +26699,7 @@
         <v>1.03</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -26590,7 +26717,7 @@
         <v>1.31</v>
       </c>
       <c r="N20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -26636,13 +26763,13 @@
         <v>12</v>
       </c>
       <c r="D22" s="4">
-        <v>-7.38</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="E22" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -26656,15 +26783,15 @@
         <v>12</v>
       </c>
       <c r="D23" s="4">
-        <v>-6.33</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="E23" s="4">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="23.4">
       <c r="J27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="10:10" ht="23.4">
@@ -26695,7 +26822,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -26719,7 +26846,7 @@
         <v>44354.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0.59466973262064604</v>
@@ -26740,7 +26867,7 @@
         <v>44361.53125</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0.58110482913524997</v>
@@ -26761,7 +26888,7 @@
         <v>44368.302083333336</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0.52157463185069097</v>
@@ -26782,7 +26909,7 @@
         <v>44376.958333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0.58809529353359402</v>
@@ -26803,7 +26930,7 @@
         <v>44384.885416666664</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0.63822552371653496</v>
@@ -26824,7 +26951,7 @@
         <v>44391.645833333336</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.62921529938986798</v>
@@ -26845,7 +26972,7 @@
         <v>44398.416666666664</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.66946371338500099</v>
@@ -26866,7 +26993,7 @@
         <v>44406.010416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.59304856049436505</v>
@@ -26887,7 +27014,7 @@
         <v>44412.78125</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0.59506610436290197</v>
@@ -26908,7 +27035,7 @@
         <v>44419.552083333336</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0.68968855919762595</v>
@@ -26929,7 +27056,7 @@
         <v>44426.46875</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.71809135005199798</v>
@@ -26950,7 +27077,7 @@
         <v>44433.239583333336</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.73277127782153695</v>
@@ -26971,7 +27098,7 @@
         <v>44440</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0.61231234686222402</v>
@@ -26992,7 +27119,7 @@
         <v>44446.770833333336</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.76400210184591499</v>
@@ -27013,7 +27140,7 @@
         <v>44453.541666666664</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0.75129311123457998</v>
@@ -27034,7 +27161,7 @@
         <v>44460.3125</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.78953268621190198</v>
@@ -27055,7 +27182,7 @@
         <v>44468.010416666664</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0.73018381162182699</v>
@@ -27076,7 +27203,7 @@
         <v>44474.78125</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0.73075672602819597</v>
@@ -27097,7 +27224,7 @@
         <v>44481.552083333336</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0.77305339852584498</v>
@@ -27118,7 +27245,7 @@
         <v>44488.3125</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0.71730545311581995</v>
@@ -27139,7 +27266,7 @@
         <v>44497.864583333336</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0.68009270689541002</v>
@@ -27160,7 +27287,7 @@
         <v>44504.625</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.65866519195296502</v>
@@ -27181,7 +27308,7 @@
         <v>44511.395833333336</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.62844593550044403</v>
@@ -27202,7 +27329,7 @@
         <v>44518.15625</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0.57319596428754205</v>
@@ -27223,7 +27350,7 @@
         <v>44524.947916666664</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.566180698854855</v>
@@ -27244,7 +27371,7 @@
         <v>44531.708333333336</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0.56640880686629402</v>
@@ -27265,7 +27392,7 @@
         <v>44538.479166666664</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>0.48394702635222803</v>
@@ -27286,7 +27413,7 @@
         <v>44545.25</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0.54182400060927605</v>
@@ -27307,7 +27434,7 @@
         <v>44552.03125</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0.518654560522396</v>
@@ -27328,7 +27455,7 @@
         <v>44558.802083333336</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0.54574558579343202</v>
@@ -27349,7 +27476,7 @@
         <v>44565.5625</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0.58049932205187404</v>
@@ -27370,7 +27497,7 @@
         <v>44572.333333333336</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0.48348953617115198</v>
@@ -27391,7 +27518,7 @@
         <v>44579.09375</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>0.59094904828290995</v>
@@ -27412,7 +27539,7 @@
         <v>44585.864583333336</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>0.65151783545103503</v>
@@ -27433,7 +27560,7 @@
         <v>44592.635416666664</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0.67931967116901504</v>
@@ -27454,7 +27581,7 @@
         <v>44599.395833333336</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.69999300559466604</v>
@@ -27475,7 +27602,7 @@
         <v>44606.177083333336</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0.665926120246077</v>
@@ -27496,7 +27623,7 @@
         <v>44612.9375</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>0.74590253954014396</v>
@@ -27517,7 +27644,7 @@
         <v>44622.552083333336</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>0.74816821259002197</v>
@@ -27538,7 +27665,7 @@
         <v>44629.416666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>0.73533937777111902</v>
@@ -27559,7 +27686,7 @@
         <v>44636.1875</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>0.80737479749546004</v>
@@ -27580,7 +27707,7 @@
         <v>44642.947916666664</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0.75906520101646402</v>
@@ -27601,7 +27728,7 @@
         <v>44649.71875</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>0.65766579624904897</v>
@@ -27622,7 +27749,7 @@
         <v>44656.489583333336</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45">
         <v>0.55832535385058701</v>
@@ -27643,7 +27770,7 @@
         <v>44665.614583333336</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>0.70965157541524904</v>
@@ -27664,7 +27791,7 @@
         <v>44672.385416666664</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.77131602072549399</v>
@@ -27685,7 +27812,7 @@
         <v>44679.15625</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.62751597772327905</v>
@@ -27706,7 +27833,7 @@
         <v>44685.927083333336</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>0.64864142859181995</v>
@@ -27727,7 +27854,7 @@
         <v>44692.6875</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0.69038085639644498</v>
@@ -27748,7 +27875,7 @@
         <v>44699.458333333336</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>0.67314758356473803</v>
@@ -27769,7 +27896,7 @@
         <v>44706.239583333336</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52">
         <v>0.52607123769464703</v>
@@ -27808,7 +27935,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -27832,7 +27959,7 @@
         <v>44354.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0.48395295377025499</v>
@@ -27853,7 +27980,7 @@
         <v>44361.53125</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0.58805670195383597</v>
@@ -27874,7 +28001,7 @@
         <v>44368.302083333336</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0.42160456570997101</v>
@@ -27895,7 +28022,7 @@
         <v>44376.958333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0.51157731600367096</v>
@@ -27916,7 +28043,7 @@
         <v>44384.885416666664</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0.621736908411751</v>
@@ -27937,7 +28064,7 @@
         <v>44391.645833333336</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.50474203324501299</v>
@@ -27958,7 +28085,7 @@
         <v>44398.416666666664</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.66107349551967898</v>
@@ -27979,7 +28106,7 @@
         <v>44406.010416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.54405406260347999</v>
@@ -28000,7 +28127,7 @@
         <v>44412.78125</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0.59510621208840198</v>
@@ -28021,7 +28148,7 @@
         <v>44419.552083333336</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0.56636213820921</v>
@@ -28042,7 +28169,7 @@
         <v>44426.46875</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.54763569177941795</v>
@@ -28063,7 +28190,7 @@
         <v>44433.239583333336</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.68642196902885599</v>
@@ -28084,7 +28211,7 @@
         <v>44440</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0.52418840115125398</v>
@@ -28105,7 +28232,7 @@
         <v>44446.770833333336</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.74388465128147696</v>
@@ -28126,7 +28253,7 @@
         <v>44453.541666666664</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0.687480458632174</v>
@@ -28147,7 +28274,7 @@
         <v>44460.3125</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.78059808302966105</v>
@@ -28168,7 +28295,7 @@
         <v>44468.010416666664</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0.72638458104869796</v>
@@ -28189,7 +28316,7 @@
         <v>44474.78125</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0.73181247336243804</v>
@@ -28210,7 +28337,7 @@
         <v>44481.552083333336</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0.76604078180393498</v>
@@ -28231,7 +28358,7 @@
         <v>44488.3125</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0.71796422168109697</v>
@@ -28252,7 +28379,7 @@
         <v>44497.864583333336</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0.68301079451263902</v>
@@ -28273,7 +28400,7 @@
         <v>44504.625</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.64713942098837796</v>
@@ -28294,7 +28421,7 @@
         <v>44511.395833333336</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.60120053107469995</v>
@@ -28315,7 +28442,7 @@
         <v>44518.15625</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0.53766667586121797</v>
@@ -28336,7 +28463,7 @@
         <v>44524.947916666664</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.55819145592819897</v>
@@ -28357,7 +28484,7 @@
         <v>44531.708333333336</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0.53303683278537894</v>
@@ -28378,7 +28505,7 @@
         <v>44538.479166666664</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>0.47708326932693401</v>
@@ -28399,7 +28526,7 @@
         <v>44545.25</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0.52167962519456901</v>
@@ -28420,7 +28547,7 @@
         <v>44552.03125</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0.52086325701650804</v>
@@ -28441,7 +28568,7 @@
         <v>44558.802083333336</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0.51646452141986599</v>
@@ -28462,7 +28589,7 @@
         <v>44565.5625</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0.58259001311154301</v>
@@ -28483,7 +28610,7 @@
         <v>44572.333333333336</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0.53881654123420297</v>
@@ -28504,7 +28631,7 @@
         <v>44579.09375</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>0.61623613125043497</v>
@@ -28525,7 +28652,7 @@
         <v>44585.864583333336</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>0.65484153080861995</v>
@@ -28546,7 +28673,7 @@
         <v>44592.635416666664</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0.72505992951731901</v>
@@ -28567,7 +28694,7 @@
         <v>44599.395833333336</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.72266291441590003</v>
@@ -28588,7 +28715,7 @@
         <v>44606.177083333336</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0.67393278505343801</v>
@@ -28609,7 +28736,7 @@
         <v>44612.9375</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>0.77899187464654096</v>
@@ -28630,7 +28757,7 @@
         <v>44622.552083333336</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>0.74016334151015895</v>
@@ -28651,7 +28778,7 @@
         <v>44629.416666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>0.76824708892381999</v>
@@ -28672,7 +28799,7 @@
         <v>44636.1875</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>0.803510897468665</v>
@@ -28693,7 +28820,7 @@
         <v>44642.947916666664</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0.60759436624280905</v>
@@ -28714,7 +28841,7 @@
         <v>44649.71875</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>0.58500221666464602</v>
@@ -28735,7 +28862,7 @@
         <v>44656.489583333336</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45">
         <v>0.56243792454609098</v>
@@ -28756,7 +28883,7 @@
         <v>44665.614583333336</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>0.54617489280186704</v>
@@ -28777,7 +28904,7 @@
         <v>44672.385416666664</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.582071779464994</v>
@@ -28798,7 +28925,7 @@
         <v>44679.15625</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.62360709798176595</v>
@@ -28819,7 +28946,7 @@
         <v>44685.927083333336</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>0.57514309105436601</v>
@@ -28840,7 +28967,7 @@
         <v>44692.6875</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0.72890762142588905</v>
@@ -28861,7 +28988,7 @@
         <v>44699.458333333336</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>0.56916662097640702</v>
@@ -28882,7 +29009,7 @@
         <v>44706.239583333336</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52">
         <v>0.43566046650200302</v>
@@ -28921,7 +29048,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -28942,16 +29069,16 @@
         <v>44354.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0.48395295377025499</v>
       </c>
       <c r="D2">
-        <v>0.451467484783729</v>
+        <v>0.47798019209934001</v>
       </c>
       <c r="E2">
-        <v>0.93287473765074302</v>
+        <v>0.98765838368299097</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -28960,16 +29087,16 @@
         <v>44361.53125</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0.58805670195383597</v>
       </c>
       <c r="D3">
-        <v>0.55724156361837596</v>
+        <v>0.58745111853527299</v>
       </c>
       <c r="E3">
-        <v>0.94759835534043602</v>
+        <v>0.99897019553292898</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -28978,16 +29105,16 @@
         <v>44368.302083333336</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0.42160456570997101</v>
       </c>
       <c r="D4">
-        <v>0.38935476673446301</v>
+        <v>0.41247980309369298</v>
       </c>
       <c r="E4">
-        <v>0.92350699779258705</v>
+        <v>0.97835705929580596</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -28996,16 +29123,16 @@
         <v>44376.958333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0.51157731600367096</v>
       </c>
       <c r="D5">
-        <v>0.47433724897289498</v>
+        <v>0.50036323182921105</v>
       </c>
       <c r="E5">
-        <v>0.92720539815626102</v>
+        <v>0.978079395188859</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -29014,16 +29141,16 @@
         <v>44384.885416666664</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0.621736908411751</v>
       </c>
       <c r="D6">
-        <v>0.58681045733384796</v>
+        <v>0.61776267598497203</v>
       </c>
       <c r="E6">
-        <v>0.94382438841032601</v>
+        <v>0.993607855070191</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -29032,16 +29159,16 @@
         <v>44391.645833333336</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.50474203324501299</v>
       </c>
       <c r="D7">
-        <v>0.476278216991051</v>
+        <v>0.50220699301385896</v>
       </c>
       <c r="E7">
-        <v>0.94360720055160296</v>
+        <v>0.994977552761247</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -29050,16 +29177,16 @@
         <v>44398.416666666664</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.66107349551967898</v>
       </c>
       <c r="D8">
-        <v>0.61862980432769599</v>
+        <v>0.65156066951191505</v>
       </c>
       <c r="E8">
-        <v>0.93579580564091902</v>
+        <v>0.98561003266318203</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -29068,16 +29195,16 @@
         <v>44406.010416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.54405406260347999</v>
       </c>
       <c r="D9">
-        <v>0.50742366252724003</v>
+        <v>0.535774594827921</v>
       </c>
       <c r="E9">
-        <v>0.93267139684436595</v>
+        <v>0.98478190248972897</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -29086,16 +29213,16 @@
         <v>44412.78125</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0.59510621208840198</v>
       </c>
       <c r="D10">
-        <v>0.55600241869381295</v>
+        <v>0.58668237192177697</v>
       </c>
       <c r="E10">
-        <v>0.93429106838363796</v>
+        <v>0.985844812244418</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -29104,16 +29231,16 @@
         <v>44419.552083333336</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0.56636213820921</v>
       </c>
       <c r="D11">
-        <v>0.52681114743881297</v>
+        <v>0.55660133999213401</v>
       </c>
       <c r="E11">
-        <v>0.930166605247564</v>
+        <v>0.98276580025645899</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -29122,16 +29249,16 @@
         <v>44426.46875</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.54763569177941795</v>
       </c>
       <c r="D12">
-        <v>0.510096758206948</v>
+        <v>0.53913443839877295</v>
       </c>
       <c r="E12">
-        <v>0.93145272644575905</v>
+        <v>0.98447644390557698</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -29140,16 +29267,16 @@
         <v>44433.239583333336</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.68642196902885599</v>
       </c>
       <c r="D13">
-        <v>0.63647036614149699</v>
+        <v>0.67135843598301004</v>
       </c>
       <c r="E13">
-        <v>0.92722901489002396</v>
+        <v>0.97805499572346399</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -29158,16 +29285,16 @@
         <v>44440</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0.52418840115125398</v>
       </c>
       <c r="D14">
-        <v>0.48805584337134</v>
+        <v>0.515122556306436</v>
       </c>
       <c r="E14">
-        <v>0.93106952061404302</v>
+        <v>0.98270498770116399</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -29176,16 +29303,16 @@
         <v>44446.770833333336</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.74388465128147696</v>
       </c>
       <c r="D15">
-        <v>0.69906444953551905</v>
+        <v>0.734287200791087</v>
       </c>
       <c r="E15">
-        <v>0.93974845203655299</v>
+        <v>0.98709820067687004</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -29194,16 +29321,16 @@
         <v>44453.541666666664</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0.687480458632174</v>
       </c>
       <c r="D16">
-        <v>0.63708573527214296</v>
+        <v>0.67190739005155597</v>
       </c>
       <c r="E16">
-        <v>0.92669650063901798</v>
+        <v>0.97734762001584297</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -29212,16 +29339,16 @@
         <v>44460.3125</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.78059808302966105</v>
       </c>
       <c r="D17">
-        <v>0.72953936166767197</v>
+        <v>0.76689381666380796</v>
       </c>
       <c r="E17">
-        <v>0.93459025525169104</v>
+        <v>0.98244388928978099</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -29230,16 +29357,16 @@
         <v>44468.010416666664</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0.72638458104869796</v>
       </c>
       <c r="D18">
-        <v>0.67855628631321296</v>
+        <v>0.715044269729885</v>
       </c>
       <c r="E18">
-        <v>0.93415568559228801</v>
+        <v>0.98438800655371805</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -29248,16 +29375,16 @@
         <v>44474.78125</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0.73181247336243804</v>
       </c>
       <c r="D19">
-        <v>0.68371397848515403</v>
+        <v>0.71994694853349295</v>
       </c>
       <c r="E19">
-        <v>0.93427483593400995</v>
+        <v>0.98378611288978601</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -29266,16 +29393,16 @@
         <v>44481.552083333336</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0.76604078180393498</v>
       </c>
       <c r="D20">
-        <v>0.71513176158288905</v>
+        <v>0.75399871948444097</v>
       </c>
       <c r="E20">
-        <v>0.93354267627741605</v>
+        <v>0.98428012893630001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -29284,16 +29411,16 @@
         <v>44488.3125</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0.71796422168109697</v>
       </c>
       <c r="D21">
-        <v>0.66850894273509398</v>
+        <v>0.70447627772111199</v>
       </c>
       <c r="E21">
-        <v>0.93111734895339904</v>
+        <v>0.98121362659492395</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -29302,16 +29429,16 @@
         <v>44497.864583333336</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0.68301079451263902</v>
       </c>
       <c r="D22">
-        <v>0.63883141350530503</v>
+        <v>0.67323475335580496</v>
       </c>
       <c r="E22">
-        <v>0.93531671627699797</v>
+        <v>0.98568684238173698</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -29320,16 +29447,16 @@
         <v>44504.625</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.64713942098837796</v>
       </c>
       <c r="D23">
-        <v>0.59762242698202706</v>
+        <v>0.63218661472036497</v>
       </c>
       <c r="E23">
-        <v>0.923483267437605</v>
+        <v>0.97689399566297996</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -29338,16 +29465,16 @@
         <v>44511.395833333336</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.60120053107469995</v>
       </c>
       <c r="D24">
-        <v>0.55238552452942602</v>
+        <v>0.58397456016118199</v>
       </c>
       <c r="E24">
-        <v>0.91880411938756401</v>
+        <v>0.97134737908044499</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -29356,16 +29483,16 @@
         <v>44518.15625</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0.53766667586121797</v>
       </c>
       <c r="D25">
-        <v>0.49278780128689897</v>
+        <v>0.52073153363450297</v>
       </c>
       <c r="E25">
-        <v>0.91653030290107995</v>
+        <v>0.96850252584542496</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -29374,16 +29501,16 @@
         <v>44524.947916666664</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.55819145592819897</v>
       </c>
       <c r="D26">
-        <v>0.50916681351452198</v>
+        <v>0.53772619474538297</v>
       </c>
       <c r="E26">
-        <v>0.91217235252704498</v>
+        <v>0.96333648434517005</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -29392,16 +29519,16 @@
         <v>44531.708333333336</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0.53303683278537894</v>
       </c>
       <c r="D27">
-        <v>0.48624299348800198</v>
+        <v>0.51307021811212195</v>
       </c>
       <c r="E27">
-        <v>0.91221274700125998</v>
+        <v>0.962541773016095</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -29410,16 +29537,16 @@
         <v>44538.479166666664</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>0.47708326932693401</v>
       </c>
       <c r="D28">
-        <v>0.43263426041511199</v>
+        <v>0.45767755771834401</v>
       </c>
       <c r="E28">
-        <v>0.90683175921358505</v>
+        <v>0.95932426715368302</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -29428,16 +29555,16 @@
         <v>44545.25</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0.52167962519456901</v>
       </c>
       <c r="D29">
-        <v>0.473258023408065</v>
+        <v>0.50024903538435295</v>
       </c>
       <c r="E29">
-        <v>0.90718134378269999</v>
+        <v>0.95892001762149903</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -29446,16 +29573,16 @@
         <v>44552.03125</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0.52086325701650804</v>
       </c>
       <c r="D30">
-        <v>0.47142933471591097</v>
+        <v>0.49831929103704498</v>
       </c>
       <c r="E30">
-        <v>0.90509232195844802</v>
+        <v>0.95671807201645498</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -29464,16 +29591,16 @@
         <v>44558.802083333336</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0.51646452141986599</v>
       </c>
       <c r="D31">
-        <v>0.46883530170633098</v>
+        <v>0.49541390756002002</v>
       </c>
       <c r="E31">
-        <v>0.90777833183469703</v>
+        <v>0.95924092946021999</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -29482,16 +29609,16 @@
         <v>44565.5625</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0.58259001311154301</v>
       </c>
       <c r="D32">
-        <v>0.52491753323726897</v>
+        <v>0.55513258242978203</v>
       </c>
       <c r="E32">
-        <v>0.90100674818256399</v>
+        <v>0.95287006288502196</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -29500,16 +29627,16 @@
         <v>44572.333333333336</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0.53881654123420297</v>
       </c>
       <c r="D33">
-        <v>0.49006499229172201</v>
+        <v>0.51812988008560701</v>
       </c>
       <c r="E33">
-        <v>0.90952106104461505</v>
+        <v>0.96160722701420398</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -29518,16 +29645,16 @@
         <v>44579.09375</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>0.61623613125043497</v>
       </c>
       <c r="D34">
-        <v>0.56597965808883399</v>
+        <v>0.59709525303742095</v>
       </c>
       <c r="E34">
-        <v>0.91844607835697101</v>
+        <v>0.96893905234966704</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -29536,16 +29663,16 @@
         <v>44585.864583333336</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>0.65484153080861995</v>
       </c>
       <c r="D35">
-        <v>0.59638175657067605</v>
+        <v>0.62880706988049195</v>
       </c>
       <c r="E35">
-        <v>0.91072683773468699</v>
+        <v>0.96024311271769802</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -29554,16 +29681,16 @@
         <v>44592.635416666664</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0.72505992951731901</v>
       </c>
       <c r="D36">
-        <v>0.67093310989973298</v>
+        <v>0.70772478832053698</v>
       </c>
       <c r="E36">
-        <v>0.92534848856753305</v>
+        <v>0.97609143673361998</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -29572,16 +29699,16 @@
         <v>44599.395833333336</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.72266291441590003</v>
       </c>
       <c r="D37">
-        <v>0.66947137192266803</v>
+        <v>0.70504819492530801</v>
       </c>
       <c r="E37">
-        <v>0.92639508485609101</v>
+        <v>0.97562526159955298</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -29590,16 +29717,16 @@
         <v>44606.177083333336</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0.67393278505343801</v>
       </c>
       <c r="D38">
-        <v>0.62149340378391504</v>
+        <v>0.65610647723780802</v>
       </c>
       <c r="E38">
-        <v>0.92218900395925196</v>
+        <v>0.97354883422948901</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -29608,16 +29735,16 @@
         <v>44612.9375</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>0.77899187464654096</v>
       </c>
       <c r="D39">
-        <v>0.73233960229457595</v>
+        <v>0.77035969074536503</v>
       </c>
       <c r="E39">
-        <v>0.94011199106135301</v>
+        <v>0.98891877542998297</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -29626,16 +29753,16 @@
         <v>44622.552083333336</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>0.74016334151015895</v>
       </c>
       <c r="D40">
-        <v>0.69636629281505202</v>
+        <v>0.73365240076608496</v>
       </c>
       <c r="E40">
-        <v>0.94082786023183995</v>
+        <v>0.99120337312195095</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -29644,16 +29771,16 @@
         <v>44629.416666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>0.76824708892381999</v>
       </c>
       <c r="D41">
-        <v>0.69739103552166903</v>
+        <v>0.736669493800024</v>
       </c>
       <c r="E41">
-        <v>0.90776918725275202</v>
+        <v>0.95889656390624101</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -29662,16 +29789,16 @@
         <v>44636.1875</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>0.803510897468665</v>
       </c>
       <c r="D42">
-        <v>0.75438800247875604</v>
+        <v>0.79238808187132903</v>
       </c>
       <c r="E42">
-        <v>0.93886468105826204</v>
+        <v>0.98615723118083698</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -29680,16 +29807,16 @@
         <v>44642.947916666664</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0.60759436624280905</v>
       </c>
       <c r="D43">
-        <v>0.56566934046362605</v>
+        <v>0.59733291318411796</v>
       </c>
       <c r="E43">
-        <v>0.93099833028664203</v>
+        <v>0.98311134265094402</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -29698,16 +29825,16 @@
         <v>44649.71875</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>0.58500221666464602</v>
       </c>
       <c r="D44">
-        <v>0.54311429253064203</v>
+        <v>0.57409308232068101</v>
       </c>
       <c r="E44">
-        <v>0.92839698219807398</v>
+        <v>0.98135197776486405</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -29716,16 +29843,16 @@
         <v>44656.489583333336</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45">
         <v>0.56243792454609098</v>
       </c>
       <c r="D45">
-        <v>0.52217717439504496</v>
+        <v>0.55135954958033595</v>
       </c>
       <c r="E45">
-        <v>0.92841743347314498</v>
+        <v>0.98030293747581898</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -29734,16 +29861,16 @@
         <v>44665.614583333336</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>0.54617489280186704</v>
       </c>
       <c r="D46">
-        <v>0.50353052065888404</v>
+        <v>0.53221296421855502</v>
       </c>
       <c r="E46">
-        <v>0.92192176406312298</v>
+        <v>0.97443689051379201</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -29752,16 +29879,16 @@
         <v>44672.385416666664</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.582071779464994</v>
       </c>
       <c r="D47">
-        <v>0.53481454043596199</v>
+        <v>0.56755864068446404</v>
       </c>
       <c r="E47">
-        <v>0.91881200790653605</v>
+        <v>0.97506641054842103</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -29770,16 +29897,16 @@
         <v>44679.15625</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.62360709798176595</v>
       </c>
       <c r="D48">
-        <v>0.57820551349721006</v>
+        <v>0.61037431762319705</v>
       </c>
       <c r="E48">
-        <v>0.92719520892001805</v>
+        <v>0.97878026019685105</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -29788,16 +29915,16 @@
         <v>44685.927083333336</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>0.57514309105436601</v>
       </c>
       <c r="D49">
-        <v>0.53583233705679301</v>
+        <v>0.56585775482621603</v>
       </c>
       <c r="E49">
-        <v>0.93165048036044795</v>
+        <v>0.98385560676538997</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -29806,16 +29933,16 @@
         <v>44692.6875</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0.72890762142588905</v>
       </c>
       <c r="D50">
-        <v>0.68112347503616699</v>
+        <v>0.71674117855640396</v>
       </c>
       <c r="E50">
-        <v>0.93444416688050602</v>
+        <v>0.98330866283756801</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -29824,16 +29951,16 @@
         <v>44699.458333333336</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>0.56916662097640702</v>
       </c>
       <c r="D51">
-        <v>0.52639027671743699</v>
+        <v>0.55591712479802302</v>
       </c>
       <c r="E51">
-        <v>0.92484389863624195</v>
+        <v>0.97672123471391403</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -29842,16 +29969,16 @@
         <v>44706.239583333336</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52">
         <v>0.43566046650200302</v>
       </c>
       <c r="D52">
-        <v>0.40307138794721697</v>
+        <v>0.42608508009191698</v>
       </c>
       <c r="E52">
-        <v>0.92519615374686204</v>
+        <v>0.97802098848452101</v>
       </c>
     </row>
   </sheetData>
@@ -29866,8 +29993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94E6BB1-A2EF-4E76-B4F7-2086273F829A}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29878,7 +30005,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -29899,16 +30026,16 @@
         <v>44354.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0.48801795056789998</v>
       </c>
       <c r="D2">
-        <v>0.46197403059275699</v>
+        <v>0.48904352526455602</v>
       </c>
       <c r="E2">
-        <v>0.94663327456533997</v>
+        <v>1.0021015101913</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -29917,16 +30044,16 @@
         <v>44361.53125</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0.55717916644948895</v>
       </c>
       <c r="D3">
-        <v>0.53305773538009205</v>
+        <v>0.56054373715017303</v>
       </c>
       <c r="E3">
-        <v>0.95670794508863999</v>
+        <v>1.00603857951495</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -29935,16 +30062,16 @@
         <v>44368.302083333336</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0.40457568958974699</v>
       </c>
       <c r="D4">
-        <v>0.381221824117491</v>
+        <v>0.40415780821184899</v>
       </c>
       <c r="E4">
-        <v>0.94227565799631097</v>
+        <v>0.99896711199251198</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -29953,16 +30080,16 @@
         <v>44376.958333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0.56989629080530402</v>
       </c>
       <c r="D5">
-        <v>0.53524053984677</v>
+        <v>0.56454419251175803</v>
       </c>
       <c r="E5">
-        <v>0.93918937266715097</v>
+        <v>0.99060864515193903</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -29971,16 +30098,16 @@
         <v>44384.885416666664</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0.57833799584967005</v>
       </c>
       <c r="D6">
-        <v>0.54943803586858397</v>
+        <v>0.578983114911788</v>
       </c>
       <c r="E6">
-        <v>0.95002929050402896</v>
+        <v>1.0011154706534</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -29989,16 +30116,16 @@
         <v>44391.645833333336</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.46573559783956098</v>
       </c>
       <c r="D7">
-        <v>0.44569772358994098</v>
+        <v>0.47146650873776302</v>
       </c>
       <c r="E7">
-        <v>0.95697585852880696</v>
+        <v>1.0123050737903301</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -30007,16 +30134,16 @@
         <v>44398.416666666664</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.62872345144002095</v>
       </c>
       <c r="D8">
-        <v>0.58935086336418196</v>
+        <v>0.62107862825994498</v>
       </c>
       <c r="E8">
-        <v>0.93737693737101602</v>
+        <v>0.98784072208128104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -30025,16 +30152,16 @@
         <v>44406.010416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.55502202037720805</v>
       </c>
       <c r="D9">
-        <v>0.52343130062259502</v>
+        <v>0.552388350738371</v>
       </c>
       <c r="E9">
-        <v>0.94308204252302696</v>
+        <v>0.99525483757014199</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -30043,16 +30170,16 @@
         <v>44412.78125</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0.56665875104992802</v>
       </c>
       <c r="D10">
-        <v>0.53435453201535799</v>
+        <v>0.56380634882116198</v>
       </c>
       <c r="E10">
-        <v>0.94299175831183002</v>
+        <v>0.99496627869333898</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -30061,16 +30188,16 @@
         <v>44419.552083333336</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0.637123577377533</v>
       </c>
       <c r="D11">
-        <v>0.59854209243775702</v>
+        <v>0.63106173320889902</v>
       </c>
       <c r="E11">
-        <v>0.93944426747071297</v>
+        <v>0.99048560689970799</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -30079,16 +30206,16 @@
         <v>44426.46875</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.62424699660153704</v>
       </c>
       <c r="D12">
-        <v>0.58862887792539698</v>
+        <v>0.62108349257560902</v>
       </c>
       <c r="E12">
-        <v>0.94294226665078296</v>
+        <v>0.99493228795148303</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -30097,16 +30224,16 @@
         <v>44433.239583333336</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.68917253266189005</v>
       </c>
       <c r="D13">
-        <v>0.64225250926461297</v>
+        <v>0.67753680464893995</v>
       </c>
       <c r="E13">
-        <v>0.93191832063293101</v>
+        <v>0.983116378756408</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -30115,16 +30242,16 @@
         <v>44440</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0.53072682884256295</v>
       </c>
       <c r="D14">
-        <v>0.50087372445806799</v>
+        <v>0.52854744874146597</v>
       </c>
       <c r="E14">
-        <v>0.943750527084526</v>
+        <v>0.99589359349733697</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -30133,16 +30260,16 @@
         <v>44446.770833333336</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.73720682174766405</v>
       </c>
       <c r="D15">
-        <v>0.68977891000982405</v>
+        <v>0.72463976035976396</v>
       </c>
       <c r="E15">
-        <v>0.93566539220919698</v>
+        <v>0.98295314012679802</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -30151,16 +30278,16 @@
         <v>44453.541666666664</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0.72589179517856695</v>
       </c>
       <c r="D16">
-        <v>0.672044540074618</v>
+        <v>0.70795906094632</v>
       </c>
       <c r="E16">
-        <v>0.92581917103677502</v>
+        <v>0.97529558213585299</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -30169,16 +30296,16 @@
         <v>44460.3125</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.76618161423962405</v>
       </c>
       <c r="D17">
-        <v>0.71323503405192401</v>
+        <v>0.750139395338836</v>
       </c>
       <c r="E17">
-        <v>0.93089552241442797</v>
+        <v>0.97906211973422497</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -30187,16 +30314,16 @@
         <v>44468.010416666664</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0.69242535521237403</v>
       </c>
       <c r="D18">
-        <v>0.64794691486429701</v>
+        <v>0.68292072498149503</v>
       </c>
       <c r="E18">
-        <v>0.935764281285692</v>
+        <v>0.98627342260168405</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -30205,16 +30332,16 @@
         <v>44474.78125</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0.703026669045134</v>
       </c>
       <c r="D19">
-        <v>0.65583075334751595</v>
+        <v>0.69156379108295696</v>
       </c>
       <c r="E19">
-        <v>0.932867531523775</v>
+        <v>0.98369495999668599</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -30223,16 +30350,16 @@
         <v>44481.552083333336</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0.72789517999040498</v>
       </c>
       <c r="D20">
-        <v>0.68283862401822404</v>
+        <v>0.720064226729768</v>
       </c>
       <c r="E20">
-        <v>0.93810021386214404</v>
+        <v>0.98924164704492101</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -30241,16 +30368,16 @@
         <v>44488.3125</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0.67613189352147496</v>
       </c>
       <c r="D21">
-        <v>0.63234181551272395</v>
+        <v>0.66665878258012201</v>
       </c>
       <c r="E21">
-        <v>0.93523441442662802</v>
+        <v>0.98598925589500797</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -30259,16 +30386,16 @@
         <v>44497.864583333336</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0.64385206552577801</v>
       </c>
       <c r="D22">
-        <v>0.60902622592227895</v>
+        <v>0.64184937368288097</v>
       </c>
       <c r="E22">
-        <v>0.94591018423609396</v>
+        <v>0.99688951554226701</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -30277,16 +30404,16 @@
         <v>44504.625</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.60941081722541302</v>
       </c>
       <c r="D23">
-        <v>0.56627335377388699</v>
+        <v>0.59932297840714499</v>
       </c>
       <c r="E23">
-        <v>0.92921447694688597</v>
+        <v>0.98344657079735298</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -30295,16 +30422,16 @@
         <v>44511.395833333336</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.57315070768847398</v>
       </c>
       <c r="D24">
-        <v>0.534649269220282</v>
+        <v>0.56520074538758702</v>
       </c>
       <c r="E24">
-        <v>0.93282493077000705</v>
+        <v>0.98612936842920496</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -30313,16 +30440,16 @@
         <v>44518.15625</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0.52299583868530697</v>
       </c>
       <c r="D25">
-        <v>0.48734682094998</v>
+        <v>0.51499767694835896</v>
       </c>
       <c r="E25">
-        <v>0.93183689984046303</v>
+        <v>0.98470702605004701</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -30331,16 +30458,16 @@
         <v>44524.947916666664</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.51900101238559504</v>
       </c>
       <c r="D26">
-        <v>0.48156457900288602</v>
+        <v>0.50861984660938198</v>
       </c>
       <c r="E26">
-        <v>0.92786828447476</v>
+        <v>0.97999779282029598</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -30349,16 +30476,16 @@
         <v>44531.708333333336</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0.50283416037722295</v>
       </c>
       <c r="D27">
-        <v>0.46685931453554302</v>
+        <v>0.49257631915587302</v>
       </c>
       <c r="E27">
-        <v>0.92845584354354105</v>
+        <v>0.97959995157517699</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -30367,16 +30494,16 @@
         <v>44538.479166666664</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>0.44430252738438197</v>
       </c>
       <c r="D28">
-        <v>0.41084481537484602</v>
+        <v>0.43556352992644498</v>
       </c>
       <c r="E28">
-        <v>0.92469610243609901</v>
+        <v>0.98033097513672895</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -30385,16 +30512,16 @@
         <v>44545.25</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0.47976327460036</v>
       </c>
       <c r="D29">
-        <v>0.44341181847484401</v>
+        <v>0.468688410880995</v>
       </c>
       <c r="E29">
-        <v>0.924230431860805</v>
+        <v>0.97691598272379199</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -30403,16 +30530,16 @@
         <v>44552.03125</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0.47749752382974098</v>
       </c>
       <c r="D30">
-        <v>0.44131506794888598</v>
+        <v>0.46621733826589201</v>
       </c>
       <c r="E30">
-        <v>0.92422483033910496</v>
+        <v>0.97637645223083502</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -30421,16 +30548,16 @@
         <v>44558.802083333336</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0.42964038194311899</v>
       </c>
       <c r="D31">
-        <v>0.39905557135330499</v>
+        <v>0.42214007167109302</v>
       </c>
       <c r="E31">
-        <v>0.92881299832318098</v>
+        <v>0.98254281816317202</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -30439,16 +30566,16 @@
         <v>44565.5625</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0.51252816698029502</v>
       </c>
       <c r="D32">
-        <v>0.47066996195884098</v>
+        <v>0.49681643840216999</v>
       </c>
       <c r="E32">
-        <v>0.91832994219991104</v>
+        <v>0.96934465344471599</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -30457,16 +30584,16 @@
         <v>44572.333333333336</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0.50928958590628304</v>
       </c>
       <c r="D33">
-        <v>0.47167069218783497</v>
+        <v>0.49869742222742403</v>
       </c>
       <c r="E33">
-        <v>0.92613457105841801</v>
+        <v>0.97920208075723703</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -30475,16 +30602,16 @@
         <v>44579.09375</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>0.57129473564505395</v>
       </c>
       <c r="D34">
-        <v>0.53229815210179199</v>
+        <v>0.56173403664567001</v>
       </c>
       <c r="E34">
-        <v>0.93173999144376796</v>
+        <v>0.98326485716941003</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -30493,16 +30620,16 @@
         <v>44585.864583333336</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>0.61513120724758596</v>
       </c>
       <c r="D35">
-        <v>0.56781051570341201</v>
+        <v>0.59886472116975298</v>
       </c>
       <c r="E35">
-        <v>0.92307219827797204</v>
+        <v>0.97355607082492601</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -30511,16 +30638,16 @@
         <v>44592.635416666664</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0.64804392969326596</v>
       </c>
       <c r="D36">
-        <v>0.60274736736553503</v>
+        <v>0.63797039223051499</v>
       </c>
       <c r="E36">
-        <v>0.93010263617595901</v>
+        <v>0.98445547130189204</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -30529,16 +30656,16 @@
         <v>44599.395833333336</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.65209878266045396</v>
       </c>
       <c r="D37">
-        <v>0.61195073737169503</v>
+        <v>0.64493622884016899</v>
       </c>
       <c r="E37">
-        <v>0.93843257132767199</v>
+        <v>0.98901615213716199</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -30547,16 +30674,16 @@
         <v>44606.177083333336</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0.631312881013667</v>
       </c>
       <c r="D38">
-        <v>0.58976202204547701</v>
+        <v>0.62331970345659404</v>
       </c>
       <c r="E38">
-        <v>0.93418341329979804</v>
+        <v>0.98733880172975497</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -30565,16 +30692,16 @@
         <v>44612.9375</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>0.71295903035886599</v>
       </c>
       <c r="D39">
-        <v>0.674376920825835</v>
+        <v>0.70977201467471696</v>
       </c>
       <c r="E39">
-        <v>0.94588453488889701</v>
+        <v>0.99552987542279203</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -30583,16 +30710,16 @@
         <v>44622.552083333336</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>0.70865819314235801</v>
       </c>
       <c r="D40">
-        <v>0.666862465953588</v>
+        <v>0.70327094724267403</v>
       </c>
       <c r="E40">
-        <v>0.94102131663300403</v>
+        <v>0.99239796286585502</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -30601,16 +30728,16 @@
         <v>44629.416666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>0.81227344308340999</v>
       </c>
       <c r="D41">
-        <v>0.74990343205556298</v>
+        <v>0.78999360472675595</v>
       </c>
       <c r="E41">
-        <v>0.92321549896905497</v>
+        <v>0.97257101220485598</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -30619,16 +30746,16 @@
         <v>44636.1875</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>0.78747793059869198</v>
       </c>
       <c r="D42">
-        <v>0.73909897693746995</v>
+        <v>0.77683917331664398</v>
       </c>
       <c r="E42">
-        <v>0.93856468634690304</v>
+        <v>0.98649008833306495</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -30637,16 +30764,16 @@
         <v>44642.947916666664</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0.72222807957271096</v>
       </c>
       <c r="D43">
-        <v>0.68455463112339299</v>
+        <v>0.72283173783050203</v>
       </c>
       <c r="E43">
-        <v>0.94783718673523898</v>
+        <v>1.0008358277320699</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -30655,16 +30782,16 @@
         <v>44649.71875</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>0.55170951641981902</v>
       </c>
       <c r="D44">
-        <v>0.52030349279414201</v>
+        <v>0.54904061829297202</v>
       </c>
       <c r="E44">
-        <v>0.94307507358314502</v>
+        <v>0.99516249394397704</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -30673,16 +30800,16 @@
         <v>44656.489583333336</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45">
         <v>0.44858649233200898</v>
       </c>
       <c r="D45">
-        <v>0.42222223722340002</v>
+        <v>0.44843798021846099</v>
       </c>
       <c r="E45">
-        <v>0.94122815653330805</v>
+        <v>0.99966893315762695</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -30691,16 +30818,16 @@
         <v>44665.614583333336</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>0.51785569061818704</v>
       </c>
       <c r="D46">
-        <v>0.48602071864586599</v>
+        <v>0.51365028187529005</v>
       </c>
       <c r="E46">
-        <v>0.93852539896912601</v>
+        <v>0.99187918792998597</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -30709,16 +30836,16 @@
         <v>44672.385416666664</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.69946559960406596</v>
       </c>
       <c r="D47">
-        <v>0.65920760285095004</v>
+        <v>0.69261664784406596</v>
       </c>
       <c r="E47">
-        <v>0.94244463662558298</v>
+        <v>0.990208307936979</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -30727,16 +30854,16 @@
         <v>44679.15625</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.601056505593771</v>
       </c>
       <c r="D48">
-        <v>0.56375246503193299</v>
+        <v>0.59523258073568397</v>
       </c>
       <c r="E48">
-        <v>0.93793588420611695</v>
+        <v>0.99031052021916899</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -30745,16 +30872,16 @@
         <v>44685.927083333336</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>0.55244638162338799</v>
       </c>
       <c r="D49">
-        <v>0.52262394166506598</v>
+        <v>0.55207736256712203</v>
       </c>
       <c r="E49">
-        <v>0.94601749427575499</v>
+        <v>0.99933202738122295</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -30763,16 +30890,16 @@
         <v>44692.6875</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0.68877030964515695</v>
       </c>
       <c r="D50">
-        <v>0.64575045427075195</v>
+        <v>0.67897215966326896</v>
       </c>
       <c r="E50">
-        <v>0.93754107171581302</v>
+        <v>0.98577443039474899</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -30781,16 +30908,16 @@
         <v>44699.458333333336</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>0.59079278475456198</v>
       </c>
       <c r="D51">
-        <v>0.55194825784695101</v>
+        <v>0.582559204672498</v>
       </c>
       <c r="E51">
-        <v>0.93425016704672603</v>
+        <v>0.98606350603031601</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -30799,16 +30926,16 @@
         <v>44706.239583333336</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52">
         <v>0.41074084857600102</v>
       </c>
       <c r="D52">
-        <v>0.38919252903684298</v>
+        <v>0.41224174814689701</v>
       </c>
       <c r="E52">
-        <v>0.94753791931368703</v>
+        <v>1.0036541278426501</v>
       </c>
     </row>
   </sheetData>
@@ -30849,7 +30976,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -30876,7 +31003,7 @@
         <v>44354.770833333336</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0.48801795056789998</v>
@@ -30900,7 +31027,7 @@
         <v>44361.53125</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0.55717916644948895</v>
@@ -30924,7 +31051,7 @@
         <v>44368.302083333336</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0.40457568958974699</v>
@@ -30948,7 +31075,7 @@
         <v>44376.958333333336</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0.56989629080530402</v>
@@ -30972,7 +31099,7 @@
         <v>44384.885416666664</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0.57833799584967005</v>
@@ -30996,7 +31123,7 @@
         <v>44391.645833333336</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.46573559783956098</v>
@@ -31020,7 +31147,7 @@
         <v>44398.416666666664</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.62872345144002095</v>
@@ -31044,7 +31171,7 @@
         <v>44406.010416666664</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.55502202037720805</v>
@@ -31068,7 +31195,7 @@
         <v>44412.78125</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0.56665875104992802</v>
@@ -31092,7 +31219,7 @@
         <v>44419.552083333336</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0.637123577377533</v>
@@ -31116,7 +31243,7 @@
         <v>44426.46875</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.62424699660153704</v>
@@ -31140,7 +31267,7 @@
         <v>44433.239583333336</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.68917253266189005</v>
@@ -31164,7 +31291,7 @@
         <v>44440</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0.53072682884256295</v>
@@ -31188,7 +31315,7 @@
         <v>44446.770833333336</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.73720682174766405</v>
@@ -31212,7 +31339,7 @@
         <v>44453.541666666664</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0.72589179517856695</v>
@@ -31236,7 +31363,7 @@
         <v>44460.3125</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.76618161423962405</v>
@@ -31260,7 +31387,7 @@
         <v>44468.010416666664</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0.69242535521237403</v>
@@ -31284,7 +31411,7 @@
         <v>44474.78125</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0.703026669045134</v>
@@ -31308,7 +31435,7 @@
         <v>44481.552083333336</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0.72789517999040498</v>
@@ -31332,7 +31459,7 @@
         <v>44488.3125</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0.67613189352147496</v>
@@ -31356,7 +31483,7 @@
         <v>44497.864583333336</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0.64385206552577801</v>
@@ -31380,7 +31507,7 @@
         <v>44504.625</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.60941081722541302</v>
@@ -31404,7 +31531,7 @@
         <v>44511.395833333336</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.57315070768847398</v>
@@ -31428,7 +31555,7 @@
         <v>44518.15625</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0.52299583868530697</v>
@@ -31452,7 +31579,7 @@
         <v>44524.947916666664</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.51900101238559504</v>
@@ -31476,7 +31603,7 @@
         <v>44531.708333333336</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0.50283416037722295</v>
@@ -31500,7 +31627,7 @@
         <v>44538.479166666664</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>0.44430252738438197</v>
@@ -31524,7 +31651,7 @@
         <v>44545.25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0.47976327460036</v>
@@ -31548,7 +31675,7 @@
         <v>44552.03125</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0.47749752382974098</v>
@@ -31572,7 +31699,7 @@
         <v>44558.802083333336</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0.42964038194311899</v>
@@ -31596,7 +31723,7 @@
         <v>44565.5625</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0.51252816698029502</v>
@@ -31620,7 +31747,7 @@
         <v>44572.333333333336</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0.50928958590628304</v>
@@ -31644,7 +31771,7 @@
         <v>44579.09375</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>0.57129473564505395</v>
@@ -31668,7 +31795,7 @@
         <v>44585.864583333336</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>0.61513120724758596</v>
@@ -31692,7 +31819,7 @@
         <v>44592.635416666664</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0.64804392969326596</v>
@@ -31716,7 +31843,7 @@
         <v>44599.395833333336</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.65209878266045396</v>
@@ -31740,7 +31867,7 @@
         <v>44606.177083333336</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0.631312881013667</v>
@@ -31764,7 +31891,7 @@
         <v>44612.9375</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>0.71295903035886599</v>
@@ -31788,7 +31915,7 @@
         <v>44622.552083333336</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>0.70865819314235801</v>
@@ -31812,7 +31939,7 @@
         <v>44629.416666666664</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>0.81227344308340999</v>
@@ -31836,7 +31963,7 @@
         <v>44636.1875</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>0.78747793059869198</v>
@@ -31860,7 +31987,7 @@
         <v>44642.947916666664</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0.72222807957271096</v>
@@ -31884,7 +32011,7 @@
         <v>44649.71875</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>0.55170951641981902</v>
@@ -31908,7 +32035,7 @@
         <v>44656.489583333336</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45">
         <v>0.44858649233200898</v>
@@ -31932,7 +32059,7 @@
         <v>44665.614583333336</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>0.51785569061818704</v>
@@ -31956,7 +32083,7 @@
         <v>44672.385416666664</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.69946559960406596</v>
@@ -31980,7 +32107,7 @@
         <v>44679.15625</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.601056505593771</v>
@@ -32004,7 +32131,7 @@
         <v>44685.927083333336</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>0.55244638162338799</v>
@@ -32028,7 +32155,7 @@
         <v>44692.6875</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0.68877030964515695</v>
@@ -32052,7 +32179,7 @@
         <v>44699.458333333336</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>0.59079278475456198</v>
@@ -32076,7 +32203,7 @@
         <v>44706.239583333336</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52">
         <v>0.41074084857600102</v>
@@ -32121,7 +32248,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -32145,7 +32272,7 @@
         <v>44354.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0.40208309915748602</v>
@@ -32166,7 +32293,7 @@
         <v>44361.53125</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0.50908362176758803</v>
@@ -32187,7 +32314,7 @@
         <v>44368.302083333336</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0.47401998872214202</v>
@@ -32208,7 +32335,7 @@
         <v>44376.958333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0.49902318814429802</v>
@@ -32229,7 +32356,7 @@
         <v>44384.885416666664</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0.51095857634421504</v>
@@ -32250,7 +32377,7 @@
         <v>44391.645833333336</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.49535309759790003</v>
@@ -32271,7 +32398,7 @@
         <v>44398.416666666664</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.63806048840162</v>
@@ -32292,7 +32419,7 @@
         <v>44406.010416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.56176341033605504</v>
@@ -32313,7 +32440,7 @@
         <v>44412.78125</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0.57029243521719197</v>
@@ -32334,7 +32461,7 @@
         <v>44419.552083333336</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0.63579162895546903</v>
@@ -32355,7 +32482,7 @@
         <v>44426.46875</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.58735559367622903</v>
@@ -32376,7 +32503,7 @@
         <v>44433.239583333336</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.66782707769234895</v>
@@ -32397,7 +32524,7 @@
         <v>44440</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0.57671419768443899</v>
@@ -32418,7 +32545,7 @@
         <v>44446.770833333336</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.74526183588726203</v>
@@ -32439,7 +32566,7 @@
         <v>44453.541666666664</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0.75162293209909103</v>
@@ -32460,7 +32587,7 @@
         <v>44460.3125</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.77161714137819704</v>
@@ -32481,7 +32608,7 @@
         <v>44468.010416666664</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0.70863733064054202</v>
@@ -32502,7 +32629,7 @@
         <v>44474.78125</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0.70398182847874502</v>
@@ -32523,7 +32650,7 @@
         <v>44481.552083333336</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0.73714959052044304</v>
@@ -32544,7 +32671,7 @@
         <v>44488.3125</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0.68335427468085097</v>
@@ -32565,7 +32692,7 @@
         <v>44497.864583333336</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0.64165949920298804</v>
@@ -32586,7 +32713,7 @@
         <v>44504.625</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.61318228242697603</v>
@@ -32607,7 +32734,7 @@
         <v>44511.395833333336</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.57727366926949697</v>
@@ -32628,7 +32755,7 @@
         <v>44518.15625</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0.52506066977875598</v>
@@ -32649,7 +32776,7 @@
         <v>44524.947916666664</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.52209570226820501</v>
@@ -32670,7 +32797,7 @@
         <v>44531.708333333336</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0.49575254716865202</v>
@@ -32691,7 +32818,7 @@
         <v>44538.479166666664</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>0.42650759624755102</v>
@@ -32712,7 +32839,7 @@
         <v>44545.25</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0.48079797561270998</v>
@@ -32733,7 +32860,7 @@
         <v>44552.03125</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0.47895893219135099</v>
@@ -32754,7 +32881,7 @@
         <v>44558.802083333336</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0.478075982191352</v>
@@ -32775,7 +32902,7 @@
         <v>44565.5625</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0.51541806000769197</v>
@@ -32796,7 +32923,7 @@
         <v>44572.333333333336</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0.45799161804689498</v>
@@ -32817,7 +32944,7 @@
         <v>44579.09375</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>0.547940547022151</v>
@@ -32838,7 +32965,7 @@
         <v>44585.864583333336</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>0.58196518068238801</v>
@@ -32859,7 +32986,7 @@
         <v>44592.635416666664</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0.63428099766929702</v>
@@ -32880,7 +33007,7 @@
         <v>44599.395833333336</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.65339045830818199</v>
@@ -32901,7 +33028,7 @@
         <v>44606.177083333336</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0.59466643102301797</v>
@@ -32922,7 +33049,7 @@
         <v>44612.9375</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>0.70329839109277204</v>
@@ -32943,7 +33070,7 @@
         <v>44622.552083333336</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>0.73094969631065299</v>
@@ -32964,7 +33091,7 @@
         <v>44629.416666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>0.81477332076902598</v>
@@ -32985,7 +33112,7 @@
         <v>44636.1875</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>0.79728588796121402</v>
@@ -33006,7 +33133,7 @@
         <v>44642.947916666664</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0.73241439141346298</v>
@@ -33027,7 +33154,7 @@
         <v>44649.71875</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>0.55473778044963695</v>
@@ -33048,7 +33175,7 @@
         <v>44656.489583333336</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45">
         <v>0.40121992093460301</v>
@@ -33069,7 +33196,7 @@
         <v>44665.614583333336</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>0.43034297334681199</v>
@@ -33090,7 +33217,7 @@
         <v>44672.385416666664</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.55550517703896296</v>
@@ -33111,7 +33238,7 @@
         <v>44679.15625</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.59853232787542598</v>
@@ -33132,7 +33259,7 @@
         <v>44685.927083333336</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>0.49733795272442</v>
@@ -33153,7 +33280,7 @@
         <v>44692.6875</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0.73626237836942199</v>
@@ -33174,7 +33301,7 @@
         <v>44699.458333333336</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>0.66457923756775605</v>
@@ -33195,7 +33322,7 @@
         <v>44706.239583333336</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52">
         <v>0.37570391855778201</v>
@@ -33235,7 +33362,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -33259,7 +33386,7 @@
         <v>44354.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0.60627352420440395</v>
@@ -33280,7 +33407,7 @@
         <v>44361.53125</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0.647842100242358</v>
@@ -33301,7 +33428,7 @@
         <v>44368.302083333336</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0.55661781170882396</v>
@@ -33322,7 +33449,7 @@
         <v>44376.958333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0.62363436164799502</v>
@@ -33343,7 +33470,7 @@
         <v>44384.885416666664</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0.65299689553501805</v>
@@ -33364,7 +33491,7 @@
         <v>44391.645833333336</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.64334602111099404</v>
@@ -33385,7 +33512,7 @@
         <v>44398.416666666664</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.68611634158346402</v>
@@ -33406,7 +33533,7 @@
         <v>44406.010416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.60490738497012098</v>
@@ -33427,7 +33554,7 @@
         <v>44412.78125</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0.61907887129293004</v>
@@ -33448,7 +33575,7 @@
         <v>44419.552083333336</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0.72047134712466798</v>
@@ -33469,7 +33596,7 @@
         <v>44426.46875</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.735852437694961</v>
@@ -33490,7 +33617,7 @@
         <v>44433.239583333336</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.75627210302499903</v>
@@ -33511,7 +33638,7 @@
         <v>44440</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0.62479912758878298</v>
@@ -33532,7 +33659,7 @@
         <v>44446.770833333336</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.78489446082994896</v>
@@ -33553,7 +33680,7 @@
         <v>44453.541666666664</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0.77001912992514698</v>
@@ -33574,7 +33701,7 @@
         <v>44460.3125</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.80914643333631697</v>
@@ -33595,7 +33722,7 @@
         <v>44468.010416666664</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0.74667957643663496</v>
@@ -33616,7 +33743,7 @@
         <v>44474.78125</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0.74760276163528205</v>
@@ -33637,7 +33764,7 @@
         <v>44481.552083333336</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0.78750962525225499</v>
@@ -33658,7 +33785,7 @@
         <v>44488.3125</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0.72373196782815896</v>
@@ -33679,7 +33806,7 @@
         <v>44497.864583333336</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0.69008163823637403</v>
@@ -33700,7 +33827,7 @@
         <v>44504.625</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.66942200400092799</v>
@@ -33721,7 +33848,7 @@
         <v>44511.395833333336</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.642415450659369</v>
@@ -33742,7 +33869,7 @@
         <v>44518.15625</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0.57750112615335703</v>
@@ -33763,7 +33890,7 @@
         <v>44524.947916666664</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.57216269601248904</v>
@@ -33784,7 +33911,7 @@
         <v>44531.708333333336</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0.57046087971875403</v>
@@ -33805,7 +33932,7 @@
         <v>44538.479166666664</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>0.48197552841514302</v>
@@ -33826,7 +33953,7 @@
         <v>44545.25</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0.57285634499187499</v>
@@ -33847,7 +33974,7 @@
         <v>44552.03125</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0.51630195120889499</v>
@@ -33868,7 +33995,7 @@
         <v>44558.802083333336</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0.550219187964062</v>
@@ -33889,7 +34016,7 @@
         <v>44565.5625</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0.57867094130371</v>
@@ -33910,7 +34037,7 @@
         <v>44572.333333333336</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0.48559738048109702</v>
@@ -33931,7 +34058,7 @@
         <v>44579.09375</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>0.59374025940909203</v>
@@ -33952,7 +34079,7 @@
         <v>44585.864583333336</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>0.65784656070281999</v>
@@ -33973,7 +34100,7 @@
         <v>44592.635416666664</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0.68359446521851197</v>
@@ -33994,7 +34121,7 @@
         <v>44599.395833333336</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.70224311620481095</v>
@@ -34015,7 +34142,7 @@
         <v>44606.177083333336</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0.70036932104469096</v>
@@ -34036,7 +34163,7 @@
         <v>44612.9375</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>0.75258537749101195</v>
@@ -34057,7 +34184,7 @@
         <v>44622.552083333336</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>0.76171280462512303</v>
@@ -34078,7 +34205,7 @@
         <v>44629.416666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>0.70656306406106695</v>
@@ -34099,7 +34226,7 @@
         <v>44636.1875</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>0.826196508867442</v>
@@ -34120,7 +34247,7 @@
         <v>44642.947916666664</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0.78004046239916702</v>
@@ -34141,7 +34268,7 @@
         <v>44649.71875</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>0.66421261781901197</v>
@@ -34162,7 +34289,7 @@
         <v>44656.489583333336</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45">
         <v>0.56259779606650395</v>
@@ -34183,7 +34310,7 @@
         <v>44665.614583333336</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>0.73186140321111604</v>
@@ -34204,7 +34331,7 @@
         <v>44672.385416666664</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.77572022815942099</v>
@@ -34225,7 +34352,7 @@
         <v>44679.15625</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.65377867843455595</v>
@@ -34246,7 +34373,7 @@
         <v>44685.927083333336</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>0.67089750728578001</v>
@@ -34267,7 +34394,7 @@
         <v>44692.6875</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0.701882634490408</v>
@@ -34288,7 +34415,7 @@
         <v>44699.458333333336</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>0.68603381456771695</v>
@@ -34309,7 +34436,7 @@
         <v>44706.239583333336</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52">
         <v>0.530220266158836</v>
@@ -34348,7 +34475,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -34372,7 +34499,7 @@
         <v>44354.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0.49137832156974298</v>
@@ -34393,7 +34520,7 @@
         <v>44361.53125</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0.57142927197835203</v>
@@ -34414,7 +34541,7 @@
         <v>44368.302083333336</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0.42850411524291698</v>
@@ -34435,7 +34562,7 @@
         <v>44376.958333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0.51551989475643301</v>
@@ -34456,7 +34583,7 @@
         <v>44384.885416666664</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0.54106854085543099</v>
@@ -34477,7 +34604,7 @@
         <v>44391.645833333336</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.51202393802198998</v>
@@ -34498,7 +34625,7 @@
         <v>44398.416666666664</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.67836507411035196</v>
@@ -34519,7 +34646,7 @@
         <v>44406.010416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.55525191001653695</v>
@@ -34540,7 +34667,7 @@
         <v>44412.78125</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0.60914004456576698</v>
@@ -34561,7 +34688,7 @@
         <v>44419.552083333336</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0.63373647883292805</v>
@@ -34582,7 +34709,7 @@
         <v>44426.46875</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.55713953643720904</v>
@@ -34603,7 +34730,7 @@
         <v>44433.239583333336</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.70312869234030895</v>
@@ -34624,7 +34751,7 @@
         <v>44440</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0.53391861338670799</v>
@@ -34645,7 +34772,7 @@
         <v>44446.770833333336</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.756845110976746</v>
@@ -34666,7 +34793,7 @@
         <v>44453.541666666664</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0.70328059626088002</v>
@@ -34687,7 +34814,7 @@
         <v>44460.3125</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.79869529517135296</v>
@@ -34708,7 +34835,7 @@
         <v>44468.010416666664</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0.74345105690493096</v>
@@ -34729,7 +34856,7 @@
         <v>44474.78125</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0.74964543543547901</v>
@@ -34750,7 +34877,7 @@
         <v>44481.552083333336</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0.77515091334133102</v>
@@ -34771,7 +34898,7 @@
         <v>44488.3125</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0.72492804987904402</v>
@@ -34792,7 +34919,7 @@
         <v>44497.864583333336</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0.69543087498645495</v>
@@ -34813,7 +34940,7 @@
         <v>44504.625</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.65796865106404601</v>
@@ -34834,7 +34961,7 @@
         <v>44511.395833333336</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.61450046635900502</v>
@@ -34855,7 +34982,7 @@
         <v>44518.15625</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0.53964215411660099</v>
@@ -34876,7 +35003,7 @@
         <v>44524.947916666664</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.56307611093203502</v>
@@ -34897,7 +35024,7 @@
         <v>44531.708333333336</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0.53875147938339196</v>
@@ -34918,7 +35045,7 @@
         <v>44538.479166666664</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>0.47451056865951502</v>
@@ -34939,7 +35066,7 @@
         <v>44545.25</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0.52456717987361201</v>
@@ -34960,7 +35087,7 @@
         <v>44552.03125</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0.52410900055536802</v>
@@ -34981,7 +35108,7 @@
         <v>44558.802083333336</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0.51872875246182704</v>
@@ -35002,7 +35129,7 @@
         <v>44565.5625</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0.59160775596120896</v>
@@ -35023,7 +35150,7 @@
         <v>44572.333333333336</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0.53991427536054903</v>
@@ -35044,7 +35171,7 @@
         <v>44579.09375</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>0.62216310828240995</v>
@@ -35065,7 +35192,7 @@
         <v>44585.864583333336</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>0.65255602080837505</v>
@@ -35086,7 +35213,7 @@
         <v>44592.635416666664</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0.73005663670668997</v>
@@ -35107,7 +35234,7 @@
         <v>44599.395833333336</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.736446731570361</v>
@@ -35128,7 +35255,7 @@
         <v>44606.177083333336</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0.677051639059288</v>
@@ -35149,7 +35276,7 @@
         <v>44612.9375</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>0.78556499823545101</v>
@@ -35170,7 +35297,7 @@
         <v>44622.552083333336</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>0.75431108391030299</v>
@@ -35191,7 +35318,7 @@
         <v>44629.416666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>0.77264696426004198</v>
@@ -35212,7 +35339,7 @@
         <v>44636.1875</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>0.81192958689347605</v>
@@ -35233,7 +35360,7 @@
         <v>44642.947916666664</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0.64959661670853097</v>
@@ -35254,7 +35381,7 @@
         <v>44649.71875</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>0.58925986440420197</v>
@@ -35275,7 +35402,7 @@
         <v>44656.489583333336</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45">
         <v>0.52559498645620695</v>
@@ -35296,7 +35423,7 @@
         <v>44665.614583333336</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>0.54439629955383195</v>
@@ -35317,7 +35444,7 @@
         <v>44672.385416666664</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.58606947388297703</v>
@@ -35338,7 +35465,7 @@
         <v>44679.15625</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.63163028799225496</v>
@@ -35359,7 +35486,7 @@
         <v>44685.927083333336</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>0.56387453517842701</v>
@@ -35380,7 +35507,7 @@
         <v>44692.6875</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0.71139791540061004</v>
@@ -35401,7 +35528,7 @@
         <v>44699.458333333336</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>0.53765303262352304</v>
@@ -35422,7 +35549,7 @@
         <v>44706.239583333336</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52">
         <v>0.44316170663473797</v>
@@ -35461,7 +35588,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -35485,7 +35612,7 @@
         <v>44577.677083333336</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>0.61588332413118096</v>
@@ -35506,7 +35633,7 @@
         <v>44581.34375</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>0.60020378398409602</v>
@@ -35527,7 +35654,7 @@
         <v>44584.427083333336</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>0.63783995161598395</v>
@@ -35548,7 +35675,7 @@
         <v>44587.5</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>0.65208491283287295</v>
@@ -35569,7 +35696,7 @@
         <v>44590.5</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>0.69725504253577897</v>
@@ -35590,7 +35717,7 @@
         <v>44593.5</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>0.73776817821910501</v>
@@ -35611,7 +35738,7 @@
         <v>44596.5</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>0.79393931364528902</v>
@@ -35632,7 +35759,7 @@
         <v>44599.46875</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>0.72717060927841404</v>
@@ -35653,7 +35780,7 @@
         <v>44602.458333333336</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>0.69551820038766599</v>
@@ -35674,7 +35801,7 @@
         <v>44605.53125</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>0.67709157553920196</v>
@@ -35695,7 +35822,7 @@
         <v>44608.510416666664</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>0.78393371347353802</v>
@@ -35716,7 +35843,7 @@
         <v>44611.447916666664</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>0.79812828936817803</v>
@@ -35737,7 +35864,7 @@
         <v>44617.416666666664</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14">
         <v>0.80644234847193497</v>
@@ -35758,7 +35885,7 @@
         <v>44620.3125</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15">
         <v>0.78416057221411595</v>
@@ -35779,7 +35906,7 @@
         <v>44622.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>0.75535889459667604</v>
@@ -35800,7 +35927,7 @@
         <v>44625.583333333336</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17">
         <v>0.71999700816350198</v>
@@ -35821,7 +35948,7 @@
         <v>44628.53125</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18">
         <v>0.63199677059586501</v>
@@ -35842,7 +35969,7 @@
         <v>44631.364583333336</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <v>0.83435117617155696</v>
@@ -35863,7 +35990,7 @@
         <v>44633.65625</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20">
         <v>0.82457448381918297</v>
@@ -35884,7 +36011,7 @@
         <v>44636.510416666664</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21">
         <v>0.63060192284018202</v>
@@ -35905,7 +36032,7 @@
         <v>44639.28125</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>0.53999044450978995</v>
@@ -35926,7 +36053,7 @@
         <v>44641.59375</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>0.59664000319343202</v>
@@ -35947,7 +36074,7 @@
         <v>44644.354166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>0.54955650787271004</v>
@@ -35968,7 +36095,7 @@
         <v>44646.614583333336</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>0.60467005854355704</v>
@@ -35989,7 +36116,7 @@
         <v>44649.354166666664</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26">
         <v>0.60614962007138895</v>
@@ -36010,7 +36137,7 @@
         <v>44651.604166666664</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27">
         <v>0.56255872634837001</v>
@@ -36031,7 +36158,7 @@
         <v>44654.322916666664</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>0.52423078890747099</v>
@@ -36052,7 +36179,7 @@
         <v>44656.552083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29">
         <v>0.48332188910041401</v>
@@ -36073,7 +36200,7 @@
         <v>44661.59375</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30">
         <v>0.65040614270006103</v>
@@ -36094,7 +36221,7 @@
         <v>44663.760416666664</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>0.546163713196267</v>
@@ -36115,7 +36242,7 @@
         <v>44666.385416666664</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>0.55011028918361504</v>
@@ -36136,7 +36263,7 @@
         <v>44668.572916666664</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33">
         <v>0.541937277978639</v>
@@ -36157,7 +36284,7 @@
         <v>44670.770833333336</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34">
         <v>0.58465947438225097</v>
@@ -36178,7 +36305,7 @@
         <v>44673.40625</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35">
         <v>0.57515259229933202</v>
@@ -36199,7 +36326,7 @@
         <v>44675.572916666664</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36">
         <v>0.61821237775042404</v>
@@ -36220,7 +36347,7 @@
         <v>44677.729166666664</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37">
         <v>0.55841241345475601</v>
@@ -36241,7 +36368,7 @@
         <v>44680.322916666664</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38">
         <v>0.55541862380817997</v>
@@ -36262,7 +36389,7 @@
         <v>44682.46875</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39">
         <v>0.54941939912292703</v>
@@ -36283,7 +36410,7 @@
         <v>44684.604166666664</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40">
         <v>0.57205356408965902</v>
@@ -36304,7 +36431,7 @@
         <v>44686.75</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41">
         <v>0.52821979581266298</v>
@@ -36325,7 +36452,7 @@
         <v>44689.302083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42">
         <v>0.64616867416275303</v>
@@ -36346,7 +36473,7 @@
         <v>44691.4375</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43">
         <v>0.67469436757074597</v>
@@ -36367,7 +36494,7 @@
         <v>44693.583333333336</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44">
         <v>0.675398983306297</v>
@@ -36388,7 +36515,7 @@
         <v>44695.677083333336</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45">
         <v>0.454154833254868</v>
@@ -36409,7 +36536,7 @@
         <v>44697.770833333336</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46">
         <v>0.53837880838599805</v>
@@ -36430,7 +36557,7 @@
         <v>44700.270833333336</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47">
         <v>0.54159636489955598</v>
@@ -36451,7 +36578,7 @@
         <v>44702.354166666664</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C48">
         <v>0.526277927455996</v>
@@ -36472,7 +36599,7 @@
         <v>44704.427083333336</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49">
         <v>0.44976275378615699</v>
@@ -36493,7 +36620,7 @@
         <v>44706.53125</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50">
         <v>0.43616189633574598</v>
@@ -36514,7 +36641,7 @@
         <v>44708.645833333336</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51">
         <v>0.44855349435684699</v>
@@ -36535,7 +36662,7 @@
         <v>44710.71875</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52">
         <v>0.40560829725928399</v>
@@ -36574,7 +36701,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -36595,16 +36722,16 @@
         <v>44354.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0.49107981802198097</v>
       </c>
       <c r="D2">
-        <v>0.470160111040475</v>
+        <v>0.49740614346060402</v>
       </c>
       <c r="E2">
-        <v>0.95740059718648496</v>
+        <v>1.0128824789911</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -36613,16 +36740,16 @@
         <v>44361.53125</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0.59371935995104996</v>
       </c>
       <c r="D3">
-        <v>0.56976572876662701</v>
+        <v>0.60050324869264604</v>
       </c>
       <c r="E3">
-        <v>0.95965496023845698</v>
+        <v>1.01142608646306</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -36631,16 +36758,16 @@
         <v>44368.302083333336</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0.44645850057689901</v>
       </c>
       <c r="D4">
-        <v>0.42784007113407602</v>
+        <v>0.45316509289936902</v>
       </c>
       <c r="E4">
-        <v>0.95829751383663897</v>
+        <v>1.01502175972414</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -36649,16 +36776,16 @@
         <v>44376.958333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0.515753465191092</v>
       </c>
       <c r="D5">
-        <v>0.4942823731805</v>
+        <v>0.52143159328344901</v>
       </c>
       <c r="E5">
-        <v>0.95836946630569497</v>
+        <v>1.01100938428063</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -36667,16 +36794,16 @@
         <v>44384.885416666664</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0.60016194301692105</v>
       </c>
       <c r="D6">
-        <v>0.57790977842569102</v>
+        <v>0.60886252621441905</v>
       </c>
       <c r="E6">
-        <v>0.96292306626546098</v>
+        <v>1.01449705916666</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -36685,16 +36812,16 @@
         <v>44391.645833333336</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.51355440930028395</v>
       </c>
       <c r="D7">
-        <v>0.498306789124495</v>
+        <v>0.52614354364427196</v>
       </c>
       <c r="E7">
-        <v>0.97030963048966201</v>
+        <v>1.0245137304168801</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -36703,16 +36830,16 @@
         <v>44398.416666666664</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.679864988037435</v>
       </c>
       <c r="D8">
-        <v>0.64630868582512302</v>
+        <v>0.68139395713857298</v>
       </c>
       <c r="E8">
-        <v>0.95064269700197601</v>
+        <v>1.0022489304906701</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -36721,16 +36848,16 @@
         <v>44406.010416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.554569794749042</v>
       </c>
       <c r="D9">
-        <v>0.53061997522878201</v>
+        <v>0.56038800753070295</v>
       </c>
       <c r="E9">
-        <v>0.95681369640570102</v>
+        <v>1.0104913986242099</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -36739,16 +36866,16 @@
         <v>44412.78125</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0.60688874212033495</v>
       </c>
       <c r="D10">
-        <v>0.58342924603163304</v>
+        <v>0.61645637414167997</v>
       </c>
       <c r="E10">
-        <v>0.96134465106941902</v>
+        <v>1.0157650510831899</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -36757,16 +36884,16 @@
         <v>44419.552083333336</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0.63348559323115805</v>
       </c>
       <c r="D11">
-        <v>0.60745078159571997</v>
+        <v>0.64015606457276397</v>
       </c>
       <c r="E11">
-        <v>0.95890228299803104</v>
+        <v>1.0105297916998901</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -36775,16 +36902,16 @@
         <v>44426.46875</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.5572043179192</v>
       </c>
       <c r="D12">
-        <v>0.53609382554602203</v>
+        <v>0.565990165034988</v>
       </c>
       <c r="E12">
-        <v>0.96211355207724902</v>
+        <v>1.0157677297774601</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -36793,16 +36920,16 @@
         <v>44433.239583333336</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.70352862591490595</v>
       </c>
       <c r="D13">
-        <v>0.66789404502821903</v>
+        <v>0.70391941537196201</v>
       </c>
       <c r="E13">
-        <v>0.94934878329883698</v>
+        <v>1.0005554705844999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -36811,16 +36938,16 @@
         <v>44440</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0.53362892882671897</v>
       </c>
       <c r="D14">
-        <v>0.51364738216957095</v>
+        <v>0.54199048666446403</v>
       </c>
       <c r="E14">
-        <v>0.96255535339682297</v>
+        <v>1.01566923640389</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -36829,16 +36956,16 @@
         <v>44446.770833333336</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.75733096249337895</v>
       </c>
       <c r="D15">
-        <v>0.72598371129609196</v>
+        <v>0.76389776321694303</v>
       </c>
       <c r="E15">
-        <v>0.958608253524877</v>
+        <v>1.0086709788042201</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -36847,16 +36974,16 @@
         <v>44453.541666666664</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0.70336555541380796</v>
       </c>
       <c r="D16">
-        <v>0.673155630129185</v>
+        <v>0.70928251910829399</v>
       </c>
       <c r="E16">
-        <v>0.95704946730459395</v>
+        <v>1.00841235919066</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -36865,16 +36992,16 @@
         <v>44460.3125</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.80036717507126698</v>
       </c>
       <c r="D17">
-        <v>0.76749153162606298</v>
+        <v>0.80697414426916103</v>
       </c>
       <c r="E17">
-        <v>0.95892429816068203</v>
+        <v>1.0082549227450499</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -36883,16 +37010,16 @@
         <v>44468.010416666664</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0.74303799451423103</v>
       </c>
       <c r="D18">
-        <v>0.71370125532894502</v>
+        <v>0.75167383528911103</v>
       </c>
       <c r="E18">
-        <v>0.96051784780606597</v>
+        <v>1.01162234076674</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -36901,16 +37028,16 @@
         <v>44474.78125</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0.74906967766198895</v>
       </c>
       <c r="D19">
-        <v>0.71770579665230705</v>
+        <v>0.75519452013727695</v>
       </c>
       <c r="E19">
-        <v>0.95812955463959604</v>
+        <v>1.00817659913081</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -36919,16 +37046,16 @@
         <v>44481.552083333336</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0.77549315476637504</v>
       </c>
       <c r="D20">
-        <v>0.74913536209777698</v>
+        <v>0.79014668510889696</v>
       </c>
       <c r="E20">
-        <v>0.96601157275651395</v>
+        <v>1.0188957571739401</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -36937,16 +37064,16 @@
         <v>44488.3125</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0.72496121463483099</v>
       </c>
       <c r="D21">
-        <v>0.69251226951511202</v>
+        <v>0.72995114308359299</v>
       </c>
       <c r="E21">
-        <v>0.95524043981295803</v>
+        <v>1.0068830281510599</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -36955,16 +37082,16 @@
         <v>44497.864583333336</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0.69031838564588099</v>
       </c>
       <c r="D22">
-        <v>0.66565432406219305</v>
+        <v>0.70167707389406497</v>
       </c>
       <c r="E22">
-        <v>0.96427146937334896</v>
+        <v>1.01645427455558</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -36973,16 +37100,16 @@
         <v>44504.625</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.65840607490926895</v>
       </c>
       <c r="D23">
-        <v>0.62585720115883203</v>
+        <v>0.66196584730865904</v>
       </c>
       <c r="E23">
-        <v>0.95056413512751703</v>
+        <v>1.0054066518142</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -36991,16 +37118,16 @@
         <v>44511.395833333336</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.61540648335074999</v>
       </c>
       <c r="D24">
-        <v>0.58938167502203598</v>
+        <v>0.62347784392703998</v>
       </c>
       <c r="E24">
-        <v>0.95771118921754705</v>
+        <v>1.01311549487152</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -37009,16 +37136,16 @@
         <v>44518.15625</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0.540689728840131</v>
       </c>
       <c r="D25">
-        <v>0.51515306720859499</v>
+        <v>0.54537812137421804</v>
       </c>
       <c r="E25">
-        <v>0.95277021132560302</v>
+        <v>1.0086711329696301</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -37027,16 +37154,16 @@
         <v>44524.947916666664</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.56347551886821101</v>
       </c>
       <c r="D26">
-        <v>0.53552833877772599</v>
+        <v>0.56594739640439695</v>
       </c>
       <c r="E26">
-        <v>0.95040213965884501</v>
+        <v>1.0043868410488299</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -37045,16 +37172,16 @@
         <v>44531.708333333336</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0.53825522047478802</v>
       </c>
       <c r="D27">
-        <v>0.51025748453716302</v>
+        <v>0.53941975854107405</v>
       </c>
       <c r="E27">
-        <v>0.94798427423903298</v>
+        <v>1.0021635425388999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -37063,16 +37190,16 @@
         <v>44538.479166666664</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>0.47904114506642298</v>
       </c>
       <c r="D28">
-        <v>0.460534929937152</v>
+        <v>0.48716541696209698</v>
       </c>
       <c r="E28">
-        <v>0.96136821373307002</v>
+        <v>1.0169594448813899</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -37081,16 +37208,16 @@
         <v>44545.25</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0.52473226298232301</v>
       </c>
       <c r="D29">
-        <v>0.50076958487650503</v>
+        <v>0.52992042119374905</v>
       </c>
       <c r="E29">
-        <v>0.95433351482978002</v>
+        <v>1.0098872483691701</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -37099,16 +37226,16 @@
         <v>44552.03125</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0.50195639857101204</v>
       </c>
       <c r="D30">
-        <v>0.475686997498039</v>
+        <v>0.50348733563288095</v>
       </c>
       <c r="E30">
-        <v>0.94766597029590904</v>
+        <v>1.0030499403259401</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -37117,16 +37244,16 @@
         <v>44558.802083333336</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0.51793153318051399</v>
       </c>
       <c r="D31">
-        <v>0.49851388007353797</v>
+        <v>0.52695813898482602</v>
       </c>
       <c r="E31">
-        <v>0.96250922783609005</v>
+        <v>1.0174281835069601</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -37135,16 +37262,16 @@
         <v>44565.5625</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0.58007624186629902</v>
       </c>
       <c r="D32">
-        <v>0.55967914709206101</v>
+        <v>0.59082478827963003</v>
       </c>
       <c r="E32">
-        <v>0.96483721741712103</v>
+        <v>1.0185295408388799</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -37153,16 +37280,16 @@
         <v>44572.333333333336</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0.49627475425830198</v>
       </c>
       <c r="D33">
-        <v>0.471535386729449</v>
+        <v>0.49866294028782698</v>
       </c>
       <c r="E33">
-        <v>0.95014985687549802</v>
+        <v>1.00481222550418</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -37171,16 +37298,16 @@
         <v>44579.09375</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>0.62144493942701395</v>
       </c>
       <c r="D34">
-        <v>0.59298027906279605</v>
+        <v>0.62648505917783504</v>
       </c>
       <c r="E34">
-        <v>0.95419600585940401</v>
+        <v>1.00811032390973</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -37189,16 +37316,16 @@
         <v>44585.864583333336</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>0.65588469454037901</v>
       </c>
       <c r="D35">
-        <v>0.63198178344582401</v>
+        <v>0.66781331498111696</v>
       </c>
       <c r="E35">
-        <v>0.96355622978623401</v>
+        <v>1.0181870693736701</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -37207,16 +37334,16 @@
         <v>44592.635416666664</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0.73518456376751795</v>
       </c>
       <c r="D36">
-        <v>0.70052820277673999</v>
+        <v>0.73936991071662495</v>
       </c>
       <c r="E36">
-        <v>0.95286032555800804</v>
+        <v>1.0056929200575899</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -37225,16 +37352,16 @@
         <v>44599.395833333336</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.72789822272664695</v>
       </c>
       <c r="D37">
-        <v>0.69919600063273102</v>
+        <v>0.73788301358952202</v>
       </c>
       <c r="E37">
-        <v>0.96056835805093699</v>
+        <v>1.0137172897956399</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -37243,16 +37370,16 @@
         <v>44606.177083333336</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0.63084976536174797</v>
       </c>
       <c r="D38">
-        <v>0.60840012279476496</v>
+        <v>0.64230150507386496</v>
       </c>
       <c r="E38">
-        <v>0.96441364679891695</v>
+        <v>1.01815287940314</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -37261,16 +37388,16 @@
         <v>44612.9375</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>0.765967143117952</v>
       </c>
       <c r="D39">
-        <v>0.73407201484946205</v>
+        <v>0.77392372237598395</v>
       </c>
       <c r="E39">
-        <v>0.95835966522185601</v>
+        <v>1.0103876247558601</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -37279,16 +37406,16 @@
         <v>44622.552083333336</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>0.754656663448382</v>
       </c>
       <c r="D40">
-        <v>0.72349614416414199</v>
+        <v>0.76219745410234196</v>
       </c>
       <c r="E40">
-        <v>0.95870901193417901</v>
+        <v>1.0099923462141001</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -37297,16 +37424,16 @@
         <v>44629.416666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>0.76393996281912702</v>
       </c>
       <c r="D41">
-        <v>0.74235742294361595</v>
+        <v>0.78123583400221497</v>
       </c>
       <c r="E41">
-        <v>0.97174838216884796</v>
+        <v>1.0226403539870601</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -37315,16 +37442,16 @@
         <v>44636.1875</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>0.69648205915874195</v>
       </c>
       <c r="D42">
-        <v>0.67135907213682999</v>
+        <v>0.70825354447171396</v>
       </c>
       <c r="E42">
-        <v>0.96392873773050602</v>
+        <v>1.01690134750518</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -37333,16 +37460,16 @@
         <v>44642.947916666664</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0.60980137181402505</v>
       </c>
       <c r="D43">
-        <v>0.59497675464486299</v>
+        <v>0.62890877416418101</v>
       </c>
       <c r="E43">
-        <v>0.97568943289671095</v>
+        <v>1.03133381332566</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -37351,16 +37478,16 @@
         <v>44649.71875</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>0.58913811073100097</v>
       </c>
       <c r="D44">
-        <v>0.56857840187803399</v>
+        <v>0.60091266961488199</v>
       </c>
       <c r="E44">
-        <v>0.96510205590424802</v>
+        <v>1.0199860757085799</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -37369,16 +37496,16 @@
         <v>44656.489583333336</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45">
         <v>0.52534004534205703</v>
       </c>
       <c r="D45">
-        <v>0.51132066305951296</v>
+        <v>0.54114037569793905</v>
       </c>
       <c r="E45">
-        <v>0.97331369956117397</v>
+        <v>1.0300763867060501</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -37387,16 +37514,16 @@
         <v>44665.614583333336</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>0.53088633463142898</v>
       </c>
       <c r="D46">
-        <v>0.51340149619522502</v>
+        <v>0.54252618503285999</v>
       </c>
       <c r="E46">
-        <v>0.96706481727704696</v>
+        <v>1.02192531553766</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -37405,16 +37532,16 @@
         <v>44672.385416666664</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.58588243971311305</v>
       </c>
       <c r="D47">
-        <v>0.56205366265098999</v>
+        <v>0.59324446502566697</v>
       </c>
       <c r="E47">
-        <v>0.95932839858830499</v>
+        <v>1.0125657039937199</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -37423,16 +37550,16 @@
         <v>44679.15625</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.63111841112603795</v>
       </c>
       <c r="D48">
-        <v>0.60578822610488903</v>
+        <v>0.63962760396985696</v>
       </c>
       <c r="E48">
-        <v>0.95986460769547899</v>
+        <v>1.0134827200313099</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -37441,16 +37568,16 @@
         <v>44685.927083333336</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>0.57892670719942996</v>
       </c>
       <c r="D49">
-        <v>0.56099210878490702</v>
+        <v>0.59226311286456801</v>
       </c>
       <c r="E49">
-        <v>0.96902095171721903</v>
+        <v>1.0230364318993901</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -37459,16 +37586,16 @@
         <v>44692.6875</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0.74300417617166603</v>
       </c>
       <c r="D50">
-        <v>0.71322973523468403</v>
+        <v>0.75094392051776004</v>
       </c>
       <c r="E50">
-        <v>0.95992695345213896</v>
+        <v>1.0106860023142801</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -37477,16 +37604,16 @@
         <v>44699.458333333336</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>0.57721051574358395</v>
       </c>
       <c r="D51">
-        <v>0.55666379794444698</v>
+        <v>0.58727021249384703</v>
       </c>
       <c r="E51">
-        <v>0.96440342433354997</v>
+        <v>1.01742812453321</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -37495,16 +37622,16 @@
         <v>44706.239583333336</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52">
         <v>0.43505530098636502</v>
       </c>
       <c r="D52">
-        <v>0.42277330395617402</v>
+        <v>0.44722433986200999</v>
       </c>
       <c r="E52">
-        <v>0.971769113024609</v>
+        <v>1.0279712460646999</v>
       </c>
     </row>
   </sheetData>
@@ -37519,8 +37646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB57699-C66D-4729-B86F-591CE6A43BCB}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:A52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -37531,7 +37658,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -37552,16 +37679,16 @@
         <v>44354.770833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0.48801795056789998</v>
       </c>
       <c r="D2">
-        <v>0.48099093374117102</v>
+        <v>0.50891454197643804</v>
       </c>
       <c r="E2">
-        <v>0.985600905010662</v>
+        <v>1.04281930897054</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -37570,16 +37697,16 @@
         <v>44361.53125</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0.55717916644948895</v>
       </c>
       <c r="D3">
-        <v>0.55174674015171898</v>
+        <v>0.58086691523247702</v>
       </c>
       <c r="E3">
-        <v>0.99025012666502499</v>
+        <v>1.04251370153326</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -37588,16 +37715,16 @@
         <v>44368.302083333336</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0.40457568958974699</v>
       </c>
       <c r="D4">
-        <v>0.40040396858669097</v>
+        <v>0.42401056715713298</v>
       </c>
       <c r="E4">
-        <v>0.98968865131939299</v>
+        <v>1.0480376801361699</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -37606,16 +37733,16 @@
         <v>44376.958333333336</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0.56989629080530402</v>
       </c>
       <c r="D5">
-        <v>0.55868011470770995</v>
+        <v>0.59007404216684101</v>
       </c>
       <c r="E5">
-        <v>0.98031891718097597</v>
+        <v>1.03540600577172</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -37624,16 +37751,16 @@
         <v>44384.885416666664</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0.57833799584967005</v>
       </c>
       <c r="D6">
-        <v>0.572810811360839</v>
+        <v>0.60389289561704595</v>
       </c>
       <c r="E6">
-        <v>0.99044298571337896</v>
+        <v>1.0441867903384601</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -37642,16 +37769,16 @@
         <v>44391.645833333336</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.46573559783956098</v>
       </c>
       <c r="D7">
-        <v>0.46642424778028502</v>
+        <v>0.49294557283275803</v>
       </c>
       <c r="E7">
-        <v>1.0014786285263899</v>
+        <v>1.0584236530757301</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -37660,16 +37787,16 @@
         <v>44398.416666666664</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>0.62872345144002095</v>
       </c>
       <c r="D8">
-        <v>0.613277032208708</v>
+        <v>0.64659263863253202</v>
       </c>
       <c r="E8">
-        <v>0.97543209308331902</v>
+        <v>1.0284213785116201</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -37678,16 +37805,16 @@
         <v>44406.010416666664</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>0.55502202037720805</v>
       </c>
       <c r="D9">
-        <v>0.54731183864428501</v>
+        <v>0.57776260972996396</v>
       </c>
       <c r="E9">
-        <v>0.98610833183216096</v>
+        <v>1.0409724092339601</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -37696,16 +37823,16 @@
         <v>44412.78125</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0.56665875104992802</v>
       </c>
       <c r="D10">
-        <v>0.56026834942152404</v>
+        <v>0.59153422858704496</v>
       </c>
       <c r="E10">
-        <v>0.98872266312562196</v>
+        <v>1.0438985147428199</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -37714,16 +37841,16 @@
         <v>44419.552083333336</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0.637123577377533</v>
       </c>
       <c r="D11">
-        <v>0.62758673921145303</v>
+        <v>0.66159442508261102</v>
       </c>
       <c r="E11">
-        <v>0.98503141540400296</v>
+        <v>1.03840832230036</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -37732,16 +37859,16 @@
         <v>44426.46875</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>0.62424699660153704</v>
       </c>
       <c r="D12">
-        <v>0.61676803524478496</v>
+        <v>0.65018558471093901</v>
       </c>
       <c r="E12">
-        <v>0.98801922732913605</v>
+        <v>1.04155180281301</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -37750,16 +37877,16 @@
         <v>44433.239583333336</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0.68917253266189005</v>
       </c>
       <c r="D13">
-        <v>0.673687749412058</v>
+        <v>0.71024597503835996</v>
       </c>
       <c r="E13">
-        <v>0.97753134009850395</v>
+        <v>1.03057789069897</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -37768,16 +37895,16 @@
         <v>44440</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0.53072682884256295</v>
       </c>
       <c r="D14">
-        <v>0.52642169691095198</v>
+        <v>0.55541530795433003</v>
       </c>
       <c r="E14">
-        <v>0.99188823383773606</v>
+        <v>1.0465182420975501</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -37786,16 +37913,16 @@
         <v>44446.770833333336</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.73720682174766405</v>
       </c>
       <c r="D15">
-        <v>0.72295162531906298</v>
+        <v>0.76075646641879102</v>
       </c>
       <c r="E15">
-        <v>0.98066323315510395</v>
+        <v>1.0319444204481101</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -37804,16 +37931,16 @@
         <v>44453.541666666664</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0.72589179517856695</v>
       </c>
       <c r="D16">
-        <v>0.70927798927344798</v>
+        <v>0.74692835678229696</v>
       </c>
       <c r="E16">
-        <v>0.977112558627237</v>
+        <v>1.0289802994653701</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -37822,16 +37949,16 @@
         <v>44460.3125</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>0.76618161423962405</v>
       </c>
       <c r="D17">
-        <v>0.75013411029174404</v>
+        <v>0.78903426295437895</v>
       </c>
       <c r="E17">
-        <v>0.97905522183039395</v>
+        <v>1.0298266733239601</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -37840,16 +37967,16 @@
         <v>44468.010416666664</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0.69242535521237403</v>
       </c>
       <c r="D18">
-        <v>0.68106439833609</v>
+        <v>0.717555378547029</v>
       </c>
       <c r="E18">
-        <v>0.983592517531656</v>
+        <v>1.0362927543676399</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -37858,16 +37985,16 @@
         <v>44474.78125</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0.703026669045134</v>
       </c>
       <c r="D19">
-        <v>0.688910440039739</v>
+        <v>0.72550869377530602</v>
       </c>
       <c r="E19">
-        <v>0.97992077736600203</v>
+        <v>1.0319789073730401</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -37876,16 +38003,16 @@
         <v>44481.552083333336</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>0.72789517999040498</v>
       </c>
       <c r="D20">
-        <v>0.71523806841851101</v>
+        <v>0.75397000691952198</v>
       </c>
       <c r="E20">
-        <v>0.98261135405229405</v>
+        <v>1.03582222776837</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -37894,16 +38021,16 @@
         <v>44488.3125</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>0.67613189352147496</v>
       </c>
       <c r="D21">
-        <v>0.65984172617075998</v>
+        <v>0.69583295913362098</v>
       </c>
       <c r="E21">
-        <v>0.975906820094122</v>
+        <v>1.0291379031235099</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -37912,16 +38039,16 @@
         <v>44497.864583333336</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>0.64385206552577801</v>
       </c>
       <c r="D22">
-        <v>0.63308206087336205</v>
+        <v>0.66823518009150196</v>
       </c>
       <c r="E22">
-        <v>0.98327254779617601</v>
+        <v>1.0378706784854499</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -37930,16 +38057,16 @@
         <v>44504.625</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.60941081722541302</v>
       </c>
       <c r="D23">
-        <v>0.59234617277235702</v>
+        <v>0.62659098238978905</v>
       </c>
       <c r="E23">
-        <v>0.97199812676324004</v>
+        <v>1.02819143454426</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -37948,16 +38075,16 @@
         <v>44511.395833333336</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>0.57315070768847398</v>
       </c>
       <c r="D24">
-        <v>0.55935217362118395</v>
+        <v>0.59170935818594705</v>
       </c>
       <c r="E24">
-        <v>0.97592512077156801</v>
+        <v>1.0323800533586001</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -37966,16 +38093,16 @@
         <v>44518.15625</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>0.52299583868530697</v>
       </c>
       <c r="D25">
-        <v>0.50922291125650998</v>
+        <v>0.53913124306574201</v>
       </c>
       <c r="E25">
-        <v>0.97366532119372295</v>
+        <v>1.0308518790914201</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -37984,16 +38111,16 @@
         <v>44524.947916666664</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>0.51900101238559504</v>
       </c>
       <c r="D26">
-        <v>0.50596520662798306</v>
+        <v>0.53468913582676703</v>
       </c>
       <c r="E26">
-        <v>0.97488288953870605</v>
+        <v>1.0302275391893001</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -38002,16 +38129,16 @@
         <v>44531.708333333336</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>0.50283416037722295</v>
       </c>
       <c r="D27">
-        <v>0.48879255325087001</v>
+        <v>0.51693671146465603</v>
       </c>
       <c r="E27">
-        <v>0.97207507318949904</v>
+        <v>1.0280461277269799</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -38020,16 +38147,16 @@
         <v>44538.479166666664</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>0.44430252738438197</v>
       </c>
       <c r="D28">
-        <v>0.434311437367152</v>
+        <v>0.46016864961599402</v>
       </c>
       <c r="E28">
-        <v>0.97751286701867801</v>
+        <v>1.03571017775887</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -38038,16 +38165,16 @@
         <v>44545.25</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>0.47976327460036</v>
       </c>
       <c r="D29">
-        <v>0.46750203236392301</v>
+        <v>0.494771122741054</v>
       </c>
       <c r="E29">
-        <v>0.97444314126242704</v>
+        <v>1.03128177777508</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -38056,16 +38183,16 @@
         <v>44552.03125</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>0.47749752382974098</v>
       </c>
       <c r="D30">
-        <v>0.46330440669335399</v>
+        <v>0.49042918891394899</v>
       </c>
       <c r="E30">
-        <v>0.97027604033932402</v>
+        <v>1.0270821615586401</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -38074,16 +38201,16 @@
         <v>44558.802083333336</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>0.42964038194311899</v>
       </c>
       <c r="D31">
-        <v>0.42101919603108201</v>
+        <v>0.44553505327961002</v>
       </c>
       <c r="E31">
-        <v>0.97993394877584405</v>
+        <v>1.0369952918871399</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -38092,16 +38219,16 @@
         <v>44565.5625</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0.51252816698029502</v>
       </c>
       <c r="D32">
-        <v>0.50395440070777098</v>
+        <v>0.53195045644355399</v>
       </c>
       <c r="E32">
-        <v>0.98327161934720597</v>
+        <v>1.0378950674607601</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -38110,16 +38237,16 @@
         <v>44572.333333333336</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0.50928958590628304</v>
       </c>
       <c r="D33">
-        <v>0.49499204642368499</v>
+        <v>0.52399361187301796</v>
       </c>
       <c r="E33">
-        <v>0.97192650335239905</v>
+        <v>1.0288716407592899</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -38128,16 +38255,16 @@
         <v>44579.09375</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>0.57129473564505395</v>
       </c>
       <c r="D34">
-        <v>0.55685219165099498</v>
+        <v>0.58832738118138195</v>
       </c>
       <c r="E34">
-        <v>0.97471962702797899</v>
+        <v>1.02981411253001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -38146,16 +38273,16 @@
         <v>44585.864583333336</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>0.61513120724758596</v>
       </c>
       <c r="D35">
-        <v>0.60275053111474997</v>
+        <v>0.6370201360387</v>
       </c>
       <c r="E35">
-        <v>0.97987311326922599</v>
+        <v>1.0355841624245601</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -38164,16 +38291,16 @@
         <v>44592.635416666664</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>0.64804392969326596</v>
       </c>
       <c r="D36">
-        <v>0.62795609961266297</v>
+        <v>0.66434906063298804</v>
       </c>
       <c r="E36">
-        <v>0.96900236363588599</v>
+        <v>1.02516053340309</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -38182,16 +38309,16 @@
         <v>44599.395833333336</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.65209878266045396</v>
       </c>
       <c r="D37">
-        <v>0.63961709405789202</v>
+        <v>0.67498423070403801</v>
       </c>
       <c r="E37">
-        <v>0.98085920579143204</v>
+        <v>1.035095063282</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -38200,16 +38327,16 @@
         <v>44606.177083333336</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0.631312881013667</v>
       </c>
       <c r="D38">
-        <v>0.62198338012802301</v>
+        <v>0.65670217438195899</v>
       </c>
       <c r="E38">
-        <v>0.98522206473806795</v>
+        <v>1.04021665664024</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -38218,16 +38345,16 @@
         <v>44612.9375</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>0.71295903035886599</v>
       </c>
       <c r="D39">
-        <v>0.69793824296676199</v>
+        <v>0.73607185817891296</v>
       </c>
       <c r="E39">
-        <v>0.97893176640943302</v>
+        <v>1.0324181710811799</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -38236,16 +38363,16 @@
         <v>44622.552083333336</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>0.70865819314235801</v>
       </c>
       <c r="D40">
-        <v>0.69243500131318902</v>
+        <v>0.730238681002224</v>
       </c>
       <c r="E40">
-        <v>0.97710716959719102</v>
+        <v>1.0304526047517599</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -38254,16 +38381,16 @@
         <v>44629.416666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>0.81227344308340999</v>
       </c>
       <c r="D41">
-        <v>0.80022572494103805</v>
+        <v>0.84228727328484398</v>
       </c>
       <c r="E41">
-        <v>0.98516790343823302</v>
+        <v>1.03695040193299</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -38272,16 +38399,16 @@
         <v>44636.1875</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>0.78747793059869198</v>
       </c>
       <c r="D42">
-        <v>0.76918504589862102</v>
+        <v>0.80932103980692605</v>
       </c>
       <c r="E42">
-        <v>0.97677028905919405</v>
+        <v>1.0277380588832801</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -38290,16 +38417,16 @@
         <v>44642.947916666664</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0.72222807957271096</v>
       </c>
       <c r="D43">
-        <v>0.71824827846764205</v>
+        <v>0.75761037325878</v>
       </c>
       <c r="E43">
-        <v>0.994489550852934</v>
+        <v>1.0489904708592901</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -38308,16 +38435,16 @@
         <v>44649.71875</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44">
         <v>0.55170951641981902</v>
       </c>
       <c r="D44">
-        <v>0.54401216122082396</v>
+        <v>0.57480065161413296</v>
       </c>
       <c r="E44">
-        <v>0.98604817395765598</v>
+        <v>1.0418537917274899</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -38326,16 +38453,16 @@
         <v>44656.489583333336</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45">
         <v>0.44858649233200898</v>
       </c>
       <c r="D45">
-        <v>0.44664572462311197</v>
+        <v>0.47208640553153097</v>
       </c>
       <c r="E45">
-        <v>0.99567359307051995</v>
+        <v>1.0523865823006699</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -38344,16 +38471,16 @@
         <v>44665.614583333336</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>0.51785569061818704</v>
       </c>
       <c r="D46">
-        <v>0.51032231117189397</v>
+        <v>0.53941173800032305</v>
       </c>
       <c r="E46">
-        <v>0.98545274372228997</v>
+        <v>1.0416255875384901</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -38362,16 +38489,16 @@
         <v>44672.385416666664</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>0.69946559960406596</v>
       </c>
       <c r="D47">
-        <v>0.690594174612019</v>
+        <v>0.72690305205666805</v>
       </c>
       <c r="E47">
-        <v>0.98731685304170902</v>
+        <v>1.0392263071523899</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -38380,16 +38507,16 @@
         <v>44679.15625</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>0.601056505593771</v>
       </c>
       <c r="D48">
-        <v>0.59061999962410905</v>
+        <v>0.62352767437624801</v>
       </c>
       <c r="E48">
-        <v>0.98263639795504398</v>
+        <v>1.0373861169014</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -38398,16 +38525,16 @@
         <v>44685.927083333336</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>0.55244638162338799</v>
       </c>
       <c r="D49">
-        <v>0.54927655995475</v>
+        <v>0.58014690649971801</v>
       </c>
       <c r="E49">
-        <v>0.99426220937618603</v>
+        <v>1.0501415626887201</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -38416,16 +38543,16 @@
         <v>44692.6875</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>0.68877030964515695</v>
       </c>
       <c r="D50">
-        <v>0.67586105592319401</v>
+        <v>0.71129159653527296</v>
       </c>
       <c r="E50">
-        <v>0.981257534563861</v>
+        <v>1.0326978189604501</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -38434,16 +38561,16 @@
         <v>44699.458333333336</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>0.59079278475456198</v>
       </c>
       <c r="D51">
-        <v>0.58341560105904999</v>
+        <v>0.61556768598247202</v>
       </c>
       <c r="E51">
-        <v>0.98751307753601303</v>
+        <v>1.0419350098160001</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -38452,16 +38579,16 @@
         <v>44706.239583333336</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52">
         <v>0.41074084857600102</v>
       </c>
       <c r="D52">
-        <v>0.41113630166430698</v>
+        <v>0.43492574945584001</v>
       </c>
       <c r="E52">
-        <v>1.0009627800343599</v>
+        <v>1.05888116792786</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/SAM_00 summary.xlsx
+++ b/Analysis/SAM_00 summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdeline\Documents\Python Scripts\2022_Bifacial_irradiance_paper\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F9A745-EA2B-4080-A200-056500ED7986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94FE443-B1DC-4099-9B8B-9A902A2EC80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24645,12 +24645,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.23903</cdr:x>
-      <cdr:y>0.6454</cdr:y>
+      <cdr:x>0.24293</cdr:x>
+      <cdr:y>0.49995</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.48471</cdr:x>
-      <cdr:y>0.7499</cdr:y>
+      <cdr:x>0.48861</cdr:x>
+      <cdr:y>0.60445</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -24665,8 +24665,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1009496" y="1533164"/>
-          <a:ext cx="1037601" cy="248243"/>
+          <a:off x="1031624" y="1195724"/>
+          <a:ext cx="1043299" cy="249931"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -26126,8 +26126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F8C243-CD6D-4F25-B152-197695A0DCE2}">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF49" sqref="AF49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Analysis/SAM_00 summary.xlsx
+++ b/Analysis/SAM_00 summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdeline\Documents\Python Scripts\2022_Bifacial_irradiance_paper\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D539C969-EC1F-4933-89DE-772E9CD319BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70DB454-215D-4AF9-908B-CB10B659E32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6360" windowWidth="29040" windowHeight="15840" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="147">
   <si>
     <t>Column1</t>
   </si>
@@ -516,15 +516,28 @@
   <si>
     <t>2022-05-29 18:00:00-07:00</t>
   </si>
+  <si>
+    <t>Method 1</t>
+  </si>
+  <si>
+    <t>Method 2</t>
+  </si>
+  <si>
+    <t>Method 4</t>
+  </si>
+  <si>
+    <t>Monofacial (baseline)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +592,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -600,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -615,6 +637,27 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26171,10 +26214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F8C243-CD6D-4F25-B152-197695A0DCE2}">
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26846,6 +26889,129 @@
       <c r="J44" s="3" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="28.8">
+      <c r="B71" s="13">
+        <v>8</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="15">
+        <v>-0.01</v>
+      </c>
+      <c r="E71" s="11">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="10">
+        <v>4</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="11">
+        <v>1.69</v>
+      </c>
+      <c r="E72" s="11">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="10">
+        <v>4</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="11">
+        <v>-0.47</v>
+      </c>
+      <c r="E73" s="11">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="10">
+        <v>4</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="E74" s="11">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="10">
+        <v>2</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="11">
+        <v>-0.23</v>
+      </c>
+      <c r="E76" s="11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="10">
+        <v>2</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="11">
+        <v>-2.63</v>
+      </c>
+      <c r="E77" s="11">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="10">
+        <v>2</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="11">
+        <v>-1.75</v>
+      </c>
+      <c r="E78" s="11">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="2"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis/SAM_00 summary.xlsx
+++ b/Analysis/SAM_00 summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdeline\Documents\Python Scripts\2022_Bifacial_irradiance_paper\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70DB454-215D-4AF9-908B-CB10B659E32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2648139A-DEDC-44A7-9F3A-C922072B0D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6360" windowWidth="29040" windowHeight="15840" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="150">
   <si>
     <t>Column1</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Method4</t>
   </si>
   <si>
-    <t>4 &amp; 8</t>
-  </si>
-  <si>
     <t>2 &amp; 8</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t>&lt;- Method 4</t>
-  </si>
-  <si>
-    <t>&lt;- Method 3</t>
   </si>
   <si>
     <t>AlbRegress</t>
@@ -528,6 +522,21 @@
   <si>
     <t>Monofacial (baseline)</t>
   </si>
+  <si>
+    <t>ASTM Method3</t>
+  </si>
+  <si>
+    <t>&lt;- PVSyst comparison</t>
+  </si>
+  <si>
+    <t>&lt;- Method 3, PVSyst</t>
+  </si>
+  <si>
+    <t>M3 Grear regression</t>
+  </si>
+  <si>
+    <t>&lt;- Method 3 w Grear as an extra regressor</t>
+  </si>
 </sst>
 </file>
 
@@ -622,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -646,10 +655,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -26214,10 +26220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F8C243-CD6D-4F25-B152-197695A0DCE2}">
-  <dimension ref="A1:Z79"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26227,10 +26233,10 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -26265,10 +26271,10 @@
         <v>7</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -26288,7 +26294,7 @@
         <v>1.05</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1">
         <v>8</v>
@@ -26306,7 +26312,7 @@
         <v>1.28</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -26407,22 +26413,22 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="D7" s="4">
-        <v>1.69</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="4">
-        <v>2.4900000000000002</v>
+        <v>0.83</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -26440,7 +26446,7 @@
         <v>3.6</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -26451,13 +26457,16 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4">
-        <v>4.7300000000000004</v>
+        <v>1.69</v>
       </c>
       <c r="E8" s="4">
-        <v>3.19</v>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -26480,22 +26489,22 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4">
-        <v>1.53</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="E9" s="4">
-        <v>1.9</v>
+        <v>3.19</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -26508,19 +26517,16 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="4">
-        <v>-0.47</v>
+        <v>1.53</v>
       </c>
       <c r="E10" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
+        <v>1.9</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -26538,7 +26544,7 @@
         <v>1.59</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -26549,16 +26555,19 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
-        <v>5.5</v>
+        <v>-0.47</v>
       </c>
       <c r="E11" s="4">
-        <v>2.81</v>
+        <v>1.33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -26581,19 +26590,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.18</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5.5</v>
       </c>
       <c r="E12" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
+        <v>2.81</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -26612,25 +26618,25 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4">
-        <v>-8</v>
+      <c r="D13" s="8">
+        <v>0.18</v>
       </c>
       <c r="E13" s="4">
-        <v>3.24</v>
+        <v>0.71</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -26639,36 +26645,52 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
+      <c r="A14">
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>3.6</v>
+        <v>4.47</v>
       </c>
       <c r="E14" s="4">
-        <v>0.77</v>
+        <v>3.7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:26">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:26">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -26676,24 +26698,11 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17">
-        <v>2</v>
-      </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4">
-        <v>-0.23</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="I17">
         <v>2</v>
       </c>
@@ -26710,7 +26719,7 @@
         <v>2.64</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -26721,13 +26730,16 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4">
-        <v>2.59</v>
+        <v>-0.23</v>
       </c>
       <c r="E18" s="4">
-        <v>3.25</v>
+        <v>1.8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -26750,22 +26762,22 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4">
-        <v>-1.24</v>
+        <v>2.59</v>
       </c>
       <c r="E19" s="4">
-        <v>1.1499999999999999</v>
+        <v>3.25</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
@@ -26778,19 +26790,16 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="4">
-        <v>-2.63</v>
+        <v>-1.24</v>
       </c>
       <c r="E20" s="4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -26808,7 +26817,7 @@
         <v>1.31</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -26819,13 +26828,16 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4">
-        <v>2.79</v>
+        <v>-2.63</v>
       </c>
       <c r="E21" s="4">
-        <v>3.78</v>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -26848,88 +26860,91 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2.79</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
         <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="4">
-        <v>-1.75</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1.06</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="4">
+        <v>-1.75</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4">
         <v>-1.24</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>0.87</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="23.4">
       <c r="J27" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="10:10" ht="23.4">
       <c r="J44" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D71" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E71" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="28.8">
-      <c r="B71" s="13">
+    <row r="72" spans="2:6" ht="28.8">
+      <c r="B72" s="10">
         <v>8</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71" s="15">
+      <c r="C72" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="14">
         <v>-0.01</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>1.05</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="10">
-        <v>4</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="11">
-        <v>1.69</v>
-      </c>
-      <c r="E72" s="11">
-        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="73" spans="2:6">
@@ -26937,13 +26952,13 @@
         <v>4</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D73" s="11">
-        <v>-0.47</v>
+        <v>1.69</v>
       </c>
       <c r="E73" s="11">
-        <v>1.33</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="74" spans="2:6">
@@ -26951,47 +26966,47 @@
         <v>4</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="12">
+        <v>142</v>
+      </c>
+      <c r="D74" s="11">
+        <v>-0.47</v>
+      </c>
+      <c r="E74" s="11">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="10">
+        <v>4</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="12">
         <v>0.18</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>0.71</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-    </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="10">
-        <v>2</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D76" s="11">
-        <v>-0.23</v>
-      </c>
-      <c r="E76" s="11">
-        <v>1.8</v>
-      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="10">
         <v>2</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D77" s="11">
-        <v>-2.63</v>
+        <v>-0.23</v>
       </c>
       <c r="E77" s="11">
-        <v>1.1599999999999999</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="78" spans="2:6">
@@ -26999,19 +27014,33 @@
         <v>2</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D78" s="11">
+        <v>-2.63</v>
+      </c>
+      <c r="E78" s="11">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="10">
+        <v>2</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="11">
         <v>-1.75</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>1.06</v>
       </c>
     </row>
-    <row r="79" spans="2:6">
-      <c r="B79" s="2"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
+    <row r="80" spans="2:6">
+      <c r="B80" s="2"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27036,7 +27065,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -27051,13 +27080,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -27069,7 +27098,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0.60948884517330004</v>
@@ -27099,7 +27128,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0.63071464639802199</v>
@@ -27129,7 +27158,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0.49877028628633602</v>
@@ -27159,7 +27188,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0.59859930452818799</v>
@@ -27189,7 +27218,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.63644003419691098</v>
@@ -27219,7 +27248,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0.63813769493999195</v>
@@ -27249,7 +27278,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0.66740128737617099</v>
@@ -27279,7 +27308,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.589834742927699</v>
@@ -27309,7 +27338,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0.62346300589883796</v>
@@ -27339,7 +27368,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.70103513429500497</v>
@@ -27369,7 +27398,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.67206591879878597</v>
@@ -27399,7 +27428,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0.73197760790528799</v>
@@ -27429,7 +27458,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0.616241057735054</v>
@@ -27459,7 +27488,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.76728095132490604</v>
@@ -27489,7 +27518,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0.72193208833967804</v>
@@ -27519,7 +27548,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0.78803537504208399</v>
@@ -27549,7 +27578,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0.74752141387124604</v>
@@ -27579,7 +27608,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.73178784794692198</v>
@@ -27609,7 +27638,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.768989438443899</v>
@@ -27639,7 +27668,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>0.73080967014275799</v>
@@ -27669,7 +27698,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>0.67126980749950804</v>
@@ -27699,7 +27728,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>0.66126820905418904</v>
@@ -27729,7 +27758,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0.63646557676556803</v>
@@ -27759,7 +27788,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0.59159388486716902</v>
@@ -27789,7 +27818,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>0.58857152105354305</v>
@@ -27819,7 +27848,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.54871079999441497</v>
@@ -27849,7 +27878,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.49385883276208498</v>
@@ -27879,7 +27908,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0.50315834990737696</v>
@@ -27909,7 +27938,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>0.57244609140016101</v>
@@ -27939,7 +27968,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0.53542359868899103</v>
@@ -27969,7 +27998,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.57927523084099997</v>
@@ -27999,7 +28028,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0.48565183683096602</v>
@@ -28029,7 +28058,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.50832301048176098</v>
@@ -28059,7 +28088,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0.65102993155037803</v>
@@ -28089,7 +28118,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0.66487132795380399</v>
@@ -28119,7 +28148,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0.70199405073457</v>
@@ -28149,7 +28178,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>0.67946566491413696</v>
@@ -28179,7 +28208,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.75115372492524402</v>
@@ -28209,7 +28238,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>0.77429032032161904</v>
@@ -28239,7 +28268,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>0.394071615536293</v>
@@ -28269,7 +28298,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>0.80602223348732005</v>
@@ -28299,7 +28328,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.76911827129906896</v>
@@ -28329,7 +28358,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.65496534653387894</v>
@@ -28359,7 +28388,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0.55688427764728099</v>
@@ -28389,7 +28418,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>0.72621234261176104</v>
@@ -28419,7 +28448,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>0.69619405735879103</v>
@@ -28449,7 +28478,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>0.64290604823007802</v>
@@ -28479,7 +28508,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>0.64597817825797998</v>
@@ -28509,7 +28538,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>0.68750602677368</v>
@@ -28539,7 +28568,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0.67038238996577804</v>
@@ -28569,7 +28598,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>0.52283076275167895</v>
@@ -28617,7 +28646,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -28632,13 +28661,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -28650,7 +28679,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0.50198053332075399</v>
@@ -28680,7 +28709,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0.586923790925716</v>
@@ -28710,7 +28739,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0.42000999573985098</v>
@@ -28740,7 +28769,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0.50654777148808805</v>
@@ -28770,7 +28799,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.58520223980617203</v>
@@ -28800,7 +28829,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0.50347918128151203</v>
@@ -28830,7 +28859,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0.66614856866551597</v>
@@ -28860,7 +28889,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.56299506022074597</v>
@@ -28890,7 +28919,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0.60233376169600505</v>
@@ -28920,7 +28949,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.56442933710799303</v>
@@ -28950,7 +28979,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.54323414365048495</v>
@@ -28980,7 +29009,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0.68622539323510601</v>
@@ -29010,7 +29039,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0.54669027382108804</v>
@@ -29040,7 +29069,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.74897888926416201</v>
@@ -29070,7 +29099,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0.63446763988812305</v>
@@ -29100,7 +29129,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0.78035634686153299</v>
@@ -29130,7 +29159,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0.74341419480659499</v>
@@ -29160,7 +29189,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.73297561834008995</v>
@@ -29190,7 +29219,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.75987529904743001</v>
@@ -29220,7 +29249,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>0.72669215591668601</v>
@@ -29250,7 +29279,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>0.67168202881275796</v>
@@ -29280,7 +29309,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>0.64981655236997304</v>
@@ -29310,7 +29339,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0.62556500518639002</v>
@@ -29340,7 +29369,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0.55665136441212204</v>
@@ -29370,7 +29399,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>0.57443640770551596</v>
@@ -29400,7 +29429,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.53127399143744003</v>
@@ -29430,7 +29459,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.47411736809014998</v>
@@ -29460,7 +29489,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0.50789427213324201</v>
@@ -29490,7 +29519,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>0.53171845874597301</v>
@@ -29520,7 +29549,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0.51030853783720198</v>
@@ -29550,7 +29579,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.57755140585560905</v>
@@ -29580,7 +29609,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0.61490607001840603</v>
@@ -29610,7 +29639,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.49893306858428199</v>
@@ -29640,7 +29669,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0.64673406379514098</v>
@@ -29670,7 +29699,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0.68649386399114598</v>
@@ -29700,7 +29729,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0.77632987949924703</v>
@@ -29730,7 +29759,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>0.68755061688483698</v>
@@ -29760,7 +29789,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.78407575135457896</v>
@@ -29790,7 +29819,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>0.76677165254162505</v>
@@ -29820,7 +29849,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>0.76040580066843899</v>
@@ -29850,7 +29879,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>0.68535829764635603</v>
@@ -29880,7 +29909,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.70874942252266804</v>
@@ -29910,7 +29939,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.58264086499668299</v>
@@ -29940,7 +29969,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0.48355621487572398</v>
@@ -29970,7 +29999,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>0.54509384394798999</v>
@@ -30000,7 +30029,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>0.56955132403076403</v>
@@ -30030,7 +30059,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>0.62826276461978403</v>
@@ -30060,7 +30089,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>0.57255132377601703</v>
@@ -30090,7 +30119,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>0.72586522691830702</v>
@@ -30120,7 +30149,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0.52864594825826505</v>
@@ -30150,7 +30179,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>0.43227556460924699</v>
@@ -30198,7 +30227,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -30213,13 +30242,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -30228,7 +30257,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0.50198053332075399</v>
@@ -30255,7 +30284,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0.586923790925716</v>
@@ -30282,7 +30311,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0.42000999573985098</v>
@@ -30309,7 +30338,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0.50654777148808805</v>
@@ -30336,7 +30365,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.58520223980617203</v>
@@ -30363,7 +30392,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0.50347918128151203</v>
@@ -30390,7 +30419,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0.66614856866551597</v>
@@ -30417,7 +30446,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.56299506022074597</v>
@@ -30444,7 +30473,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0.60233376169600505</v>
@@ -30471,7 +30500,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.56442933710799303</v>
@@ -30498,7 +30527,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.54323414365048495</v>
@@ -30525,7 +30554,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0.68622539323510601</v>
@@ -30552,7 +30581,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0.54669027382108804</v>
@@ -30579,7 +30608,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.74897888926416201</v>
@@ -30606,7 +30635,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0.63446763988812305</v>
@@ -30633,7 +30662,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0.78035634686153299</v>
@@ -30660,7 +30689,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0.74341419480659499</v>
@@ -30687,7 +30716,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.73297561834008995</v>
@@ -30714,7 +30743,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.75987529904743001</v>
@@ -30741,7 +30770,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>0.72669215591668601</v>
@@ -30768,7 +30797,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>0.67168202881275796</v>
@@ -30795,7 +30824,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>0.64981655236997304</v>
@@ -30822,7 +30851,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0.62556500518639002</v>
@@ -30849,7 +30878,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0.55665136441212204</v>
@@ -30876,7 +30905,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>0.57443640770551596</v>
@@ -30903,7 +30932,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.53127399143744003</v>
@@ -30930,7 +30959,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.47411736809014998</v>
@@ -30957,7 +30986,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0.50789427213324201</v>
@@ -30984,7 +31013,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>0.53171845874597301</v>
@@ -31011,7 +31040,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0.51030853783720198</v>
@@ -31038,7 +31067,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.57755140585560905</v>
@@ -31065,7 +31094,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0.61490607001840603</v>
@@ -31092,7 +31121,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.49893306858428199</v>
@@ -31119,7 +31148,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0.64673406379514098</v>
@@ -31146,7 +31175,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0.68649386399114598</v>
@@ -31173,7 +31202,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0.77632987949924703</v>
@@ -31200,7 +31229,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>0.68755061688483698</v>
@@ -31227,7 +31256,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.78407575135457896</v>
@@ -31254,7 +31283,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>0.76677165254162505</v>
@@ -31281,7 +31310,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>0.76040580066843899</v>
@@ -31308,7 +31337,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>0.68535829764635603</v>
@@ -31335,7 +31364,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.70874942252266804</v>
@@ -31362,7 +31391,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.58264086499668299</v>
@@ -31389,7 +31418,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0.48355621487572398</v>
@@ -31416,7 +31445,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>0.54509384394798999</v>
@@ -31443,7 +31472,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>0.56955132403076403</v>
@@ -31470,7 +31499,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>0.62826276461978403</v>
@@ -31497,7 +31526,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>0.57255132377601703</v>
@@ -31524,7 +31553,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>0.72586522691830702</v>
@@ -31551,7 +31580,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0.52864594825826505</v>
@@ -31578,7 +31607,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>0.43227556460924699</v>
@@ -31623,7 +31652,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -31638,13 +31667,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -31653,7 +31682,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0.48768220981718502</v>
@@ -31680,7 +31709,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0.55755712439873095</v>
@@ -31707,7 +31736,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0.381087944097384</v>
@@ -31734,7 +31763,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0.58458378419815704</v>
@@ -31761,7 +31790,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.50577386644137901</v>
@@ -31788,7 +31817,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0.49247770753147202</v>
@@ -31815,7 +31844,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0.64674105832705597</v>
@@ -31842,7 +31871,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.55436699405291401</v>
@@ -31869,7 +31898,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0.57084146283707704</v>
@@ -31896,7 +31925,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.62897775898849195</v>
@@ -31923,7 +31952,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.53631338485732805</v>
@@ -31950,7 +31979,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0.67772281884143204</v>
@@ -31977,7 +32006,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0.530029803618837</v>
@@ -32004,7 +32033,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.746346168441822</v>
@@ -32031,7 +32060,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0.73404795067278505</v>
@@ -32058,7 +32087,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0.768706961978178</v>
@@ -32085,7 +32114,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0.71572872675821297</v>
@@ -32112,7 +32141,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.70584069612179501</v>
@@ -32139,7 +32168,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.72524947831041797</v>
@@ -32166,7 +32195,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>0.69316790476219203</v>
@@ -32193,7 +32222,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>0.63929657182107202</v>
@@ -32220,7 +32249,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>0.61436886457283901</v>
@@ -32247,7 +32276,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0.59085848001665398</v>
@@ -32274,7 +32303,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0.531412781086119</v>
@@ -32301,7 +32330,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>0.53420646863821697</v>
@@ -32328,7 +32357,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.50313949171414896</v>
@@ -32355,7 +32384,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.45204713051579698</v>
@@ -32382,7 +32411,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0.47166928699907201</v>
@@ -32409,7 +32438,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>0.49241093115907802</v>
@@ -32436,7 +32465,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0.427197694338048</v>
@@ -32463,7 +32492,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.51650315803555502</v>
@@ -32490,7 +32519,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0.52922553831604202</v>
@@ -32517,7 +32546,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.50295308552182305</v>
@@ -32544,7 +32573,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0.60059964772152097</v>
@@ -32571,7 +32600,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0.62226050161990398</v>
@@ -32598,7 +32627,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0.67271359008857201</v>
@@ -32625,7 +32654,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>0.65013980922459202</v>
@@ -32652,7 +32681,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.72399268599050204</v>
@@ -32679,7 +32708,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>0.74921542664920404</v>
@@ -32706,7 +32735,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>0.81713517644891098</v>
@@ -32733,7 +32762,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>0.79444984848279898</v>
@@ -32760,7 +32789,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.76151871941381699</v>
@@ -32787,7 +32816,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.552083794700159</v>
@@ -32814,7 +32843,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0.41445306801350301</v>
@@ -32841,7 +32870,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>0.51937302262599805</v>
@@ -32868,7 +32897,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>0.65308764280767095</v>
@@ -32895,7 +32924,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>0.61687221449959695</v>
@@ -32922,7 +32951,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>0.55282123362695601</v>
@@ -32949,7 +32978,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>0.68837939953601002</v>
@@ -32976,7 +33005,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0.59119347209289597</v>
@@ -33003,7 +33032,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>0.42568606403690801</v>
@@ -33061,7 +33090,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -33082,13 +33111,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
         <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
@@ -33100,7 +33129,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0.48768220981718502</v>
@@ -33136,7 +33165,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0.55755712439873095</v>
@@ -33172,7 +33201,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0.381087944097384</v>
@@ -33208,7 +33237,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0.58458378419815704</v>
@@ -33244,7 +33273,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.50577386644137901</v>
@@ -33280,7 +33309,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0.49247770753147202</v>
@@ -33316,7 +33345,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0.64674105832705597</v>
@@ -33352,7 +33381,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.55436699405291401</v>
@@ -33388,7 +33417,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0.57084146283707704</v>
@@ -33424,7 +33453,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.62897775898849195</v>
@@ -33460,7 +33489,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.53631338485732805</v>
@@ -33496,7 +33525,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0.67772281884143204</v>
@@ -33532,7 +33561,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0.530029803618837</v>
@@ -33568,7 +33597,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.746346168441822</v>
@@ -33604,7 +33633,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0.73404795067278505</v>
@@ -33640,7 +33669,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0.768706961978178</v>
@@ -33676,7 +33705,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0.71572872675821297</v>
@@ -33712,7 +33741,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.70584069612179501</v>
@@ -33748,7 +33777,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.72524947831041797</v>
@@ -33784,7 +33813,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>0.69316790476219203</v>
@@ -33820,7 +33849,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>0.63929657182107202</v>
@@ -33856,7 +33885,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>0.61436886457283901</v>
@@ -33892,7 +33921,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0.59085848001665398</v>
@@ -33928,7 +33957,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0.531412781086119</v>
@@ -33964,7 +33993,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>0.53420646863821697</v>
@@ -34000,7 +34029,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.50313949171414896</v>
@@ -34036,7 +34065,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.45204713051579698</v>
@@ -34072,7 +34101,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0.47166928699907201</v>
@@ -34108,7 +34137,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>0.49241093115907802</v>
@@ -34144,7 +34173,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0.427197694338048</v>
@@ -34180,7 +34209,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.51650315803555502</v>
@@ -34216,7 +34245,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0.52922553831604202</v>
@@ -34248,11 +34277,11 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="7">
-        <f t="shared" ref="A34:A65" si="1" xml:space="preserve"> DATEVALUE(MID(B34,1,10))+TIMEVALUE(MID(B34,12,5))+TIME(MID(B34,18,2),0,0)</f>
+        <f t="shared" ref="A34:A52" si="1" xml:space="preserve"> DATEVALUE(MID(B34,1,10))+TIMEVALUE(MID(B34,12,5))+TIME(MID(B34,18,2),0,0)</f>
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.50295308552182305</v>
@@ -34288,7 +34317,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0.60059964772152097</v>
@@ -34324,7 +34353,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0.62226050161990398</v>
@@ -34360,7 +34389,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0.67271359008857201</v>
@@ -34396,7 +34425,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>0.65013980922459202</v>
@@ -34432,7 +34461,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.72399268599050204</v>
@@ -34468,7 +34497,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>0.74921542664920404</v>
@@ -34504,7 +34533,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>0.81713517644891098</v>
@@ -34540,7 +34569,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>0.79444984848279898</v>
@@ -34576,7 +34605,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.76151871941381699</v>
@@ -34612,7 +34641,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.552083794700159</v>
@@ -34648,7 +34677,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0.41445306801350301</v>
@@ -34684,7 +34713,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>0.51937302262599805</v>
@@ -34720,7 +34749,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>0.65308764280767095</v>
@@ -34756,7 +34785,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>0.61687221449959695</v>
@@ -34792,7 +34821,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>0.55282123362695601</v>
@@ -34828,7 +34857,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>0.68837939953601002</v>
@@ -34864,7 +34893,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0.59119347209289597</v>
@@ -34900,7 +34929,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>0.42568606403690801</v>
@@ -34957,7 +34986,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -34972,13 +35001,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -34990,7 +35019,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0.40246768199897098</v>
@@ -35020,7 +35049,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0.50942908444526502</v>
@@ -35050,7 +35079,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0.47386421303154003</v>
@@ -35080,7 +35109,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0.53084477998445501</v>
@@ -35110,7 +35139,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.49664248904896502</v>
@@ -35140,7 +35169,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0.52320969172966603</v>
@@ -35170,7 +35199,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0.65161445019127195</v>
@@ -35200,7 +35229,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.56102282637294099</v>
@@ -35230,7 +35259,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0.586502426959709</v>
@@ -35260,7 +35289,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.62988881273439301</v>
@@ -35290,7 +35319,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.54432636013239899</v>
@@ -35320,7 +35349,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0.53878920540472197</v>
@@ -35350,7 +35379,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0.53495191502477002</v>
@@ -35380,7 +35409,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.75640307056701295</v>
@@ -35410,7 +35439,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0.74476772159526605</v>
@@ -35440,7 +35469,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0.77432584074105204</v>
@@ -35470,7 +35499,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0.72222515811451005</v>
@@ -35500,7 +35529,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.70936726457795796</v>
@@ -35530,7 +35559,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.73361582809590498</v>
@@ -35560,7 +35589,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>0.70220871306446997</v>
@@ -35590,7 +35619,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>0.63807489691443797</v>
@@ -35620,7 +35649,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>0.61922550488893502</v>
@@ -35650,7 +35679,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0.59571104733313995</v>
@@ -35680,7 +35709,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0.53357736377874998</v>
@@ -35710,7 +35739,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>0.53596034144589899</v>
@@ -35740,7 +35769,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.49649599986471299</v>
@@ -35770,7 +35799,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.44547573750152503</v>
@@ -35800,7 +35829,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0.47508917323799299</v>
@@ -35830,7 +35859,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>0.49168817938725601</v>
@@ -35860,7 +35889,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0.42744310485914599</v>
@@ -35890,7 +35919,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.52002326781020802</v>
@@ -35920,7 +35949,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0.49507889103505698</v>
@@ -35950,7 +35979,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.48027466682453102</v>
@@ -35980,7 +36009,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0.59750453341546395</v>
@@ -36010,7 +36039,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0.61044158787733205</v>
@@ -36040,7 +36069,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0.66222948327137399</v>
@@ -36070,7 +36099,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>0.64553137179921505</v>
@@ -36100,7 +36129,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.71402015287869003</v>
@@ -36130,7 +36159,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>0.76512771295298398</v>
@@ -36160,7 +36189,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>0.81880662575403096</v>
@@ -36190,7 +36219,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>0.80748005834480996</v>
@@ -36220,7 +36249,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.75928996401707904</v>
@@ -36250,7 +36279,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.555114131918517</v>
@@ -36280,7 +36309,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0.40305138849487598</v>
@@ -36310,7 +36339,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>0.43158552849580001</v>
@@ -36340,7 +36369,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>0.53117993158048105</v>
@@ -36370,7 +36399,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>0.59884290873191304</v>
@@ -36400,7 +36429,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>0.49767545678729902</v>
@@ -36430,7 +36459,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>0.73708487366153397</v>
@@ -36460,7 +36489,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0.66502984708555102</v>
@@ -36490,7 +36519,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>0.37394491205888303</v>
@@ -36539,7 +36568,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -36554,13 +36583,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -36572,7 +36601,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0.63183144507197198</v>
@@ -36602,7 +36631,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0.65576264409726504</v>
@@ -36632,7 +36661,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0.536198820307353</v>
@@ -36662,7 +36691,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0.63139068530533604</v>
@@ -36692,7 +36721,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.66130701796189195</v>
@@ -36722,7 +36751,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0.67247860663764503</v>
@@ -36752,7 +36781,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0.73172164093530101</v>
@@ -36782,7 +36811,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.61130328983884097</v>
@@ -36812,7 +36841,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0.65682032658671397</v>
@@ -36842,7 +36871,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.73635474852726202</v>
@@ -36872,7 +36901,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.69846369316754098</v>
@@ -36902,7 +36931,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0.76708115155518697</v>
@@ -36932,7 +36961,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0.63910099311068602</v>
@@ -36962,7 +36991,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.80092396233303598</v>
@@ -36992,7 +37021,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0.764181256529752</v>
@@ -37022,7 +37051,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0.81973380276344898</v>
@@ -37052,7 +37081,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0.77875921559330996</v>
@@ -37082,7 +37111,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.76026503972917503</v>
@@ -37112,7 +37141,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.79057592143732702</v>
@@ -37142,7 +37171,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>0.75354472658179295</v>
@@ -37172,7 +37201,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>0.692178381938793</v>
@@ -37202,7 +37231,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>0.68585435378308302</v>
@@ -37232,7 +37261,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0.66815353268840705</v>
@@ -37262,7 +37291,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0.60588161472442603</v>
@@ -37292,7 +37321,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>0.61618202198981598</v>
@@ -37322,7 +37351,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.56125060647567104</v>
@@ -37352,7 +37381,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.50210802464144499</v>
@@ -37382,7 +37411,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0.52490757481443695</v>
@@ -37412,7 +37441,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>0.58426228486564702</v>
@@ -37442,7 +37471,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0.57290007249622599</v>
@@ -37472,7 +37501,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.586328961565873</v>
@@ -37502,7 +37531,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0.50882135217928404</v>
@@ -37532,7 +37561,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.49820367568927598</v>
@@ -37562,7 +37591,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0.66698014062598998</v>
@@ -37592,7 +37621,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0.68250568768599496</v>
@@ -37622,7 +37651,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0.75454066415807297</v>
@@ -37652,7 +37681,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>0.69853811463045401</v>
@@ -37682,7 +37711,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.76927879833100798</v>
@@ -37712,7 +37741,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>0.79719258472807297</v>
@@ -37742,7 +37771,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>0.40191490701510701</v>
@@ -37772,7 +37801,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>0.84084045715621702</v>
@@ -37802,7 +37831,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.797244679780856</v>
@@ -37832,7 +37861,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.67196577081809905</v>
@@ -37862,7 +37891,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0.56613377850242397</v>
@@ -37892,7 +37921,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>0.75362868839841102</v>
@@ -37922,7 +37951,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>0.75021831789957105</v>
@@ -37952,7 +37981,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>0.66278357728597603</v>
@@ -37982,7 +38011,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>0.678728813579349</v>
@@ -38012,7 +38041,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>0.71003977522431905</v>
@@ -38042,7 +38071,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0.69399420989243599</v>
@@ -38072,7 +38101,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>0.55554526935930604</v>
@@ -38120,7 +38149,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -38135,13 +38164,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -38153,7 +38182,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0.51867329437676502</v>
@@ -38183,7 +38212,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0.57809934227386695</v>
@@ -38213,7 +38242,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0.43352175828226103</v>
@@ -38243,7 +38272,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0.52148573096177397</v>
@@ -38273,7 +38302,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.53983505132774001</v>
@@ -38303,7 +38332,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0.52085670343586898</v>
@@ -38333,7 +38362,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0.69475638057799005</v>
@@ -38363,7 +38392,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.56039223992687404</v>
@@ -38393,7 +38422,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0.62493739853015395</v>
@@ -38423,7 +38452,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.64150770479902197</v>
@@ -38453,7 +38482,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.56161900873472204</v>
@@ -38483,7 +38512,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0.706989375803731</v>
@@ -38513,7 +38542,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0.56555263259807398</v>
@@ -38543,7 +38572,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.77806341504284504</v>
@@ -38573,7 +38602,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0.65793623630369602</v>
@@ -38603,7 +38632,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0.81175629483018097</v>
@@ -38633,7 +38662,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0.77349096048269905</v>
@@ -38663,7 +38692,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.76240303921307995</v>
@@ -38693,7 +38722,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.78353739652156995</v>
@@ -38723,7 +38752,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>0.75177035189962305</v>
@@ -38753,7 +38782,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>0.69592455875062398</v>
@@ -38783,7 +38812,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>0.67031845899243003</v>
@@ -38813,7 +38842,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0.64217406886441597</v>
@@ -38843,7 +38872,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0.56983580742329698</v>
@@ -38873,7 +38902,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>0.58942166166037802</v>
@@ -38903,7 +38932,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.54264372113669501</v>
@@ -38933,7 +38962,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.48202686829163199</v>
@@ -38963,7 +38992,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0.49919718036543198</v>
@@ -38993,7 +39022,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>0.54211856692664495</v>
@@ -39023,7 +39052,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0.516836373641541</v>
@@ -39053,7 +39082,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.58585366613476497</v>
@@ -39083,7 +39112,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0.56755947241037297</v>
@@ -39113,7 +39142,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.50839086717676496</v>
@@ -39143,7 +39172,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0.66013009798887001</v>
@@ -39173,7 +39202,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0.69751426367656699</v>
@@ -39203,7 +39232,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0.79790695103934195</v>
@@ -39233,7 +39262,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>0.70241445377214695</v>
@@ -39263,7 +39292,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.806811670179712</v>
@@ -39293,7 +39322,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>0.79025298082859696</v>
@@ -39323,7 +39352,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>0.77178586816869899</v>
@@ -39353,7 +39382,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>0.81953843956132699</v>
@@ -39383,7 +39412,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.77108634722041602</v>
@@ -39413,7 +39442,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.59613814677690102</v>
@@ -39443,7 +39472,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0.490187991740687</v>
@@ -39473,7 +39502,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>0.551652038401513</v>
@@ -39503,7 +39532,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>0.59228914152505796</v>
@@ -39533,7 +39562,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>0.65164718953803902</v>
@@ -39563,7 +39592,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>0.57045664403512297</v>
@@ -39593,7 +39622,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>0.71900012473050301</v>
@@ -39623,7 +39652,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0.54392887141244795</v>
@@ -39653,7 +39682,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>0.44668233289748999</v>
@@ -39701,7 +39730,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -39716,13 +39745,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -39734,7 +39763,7 @@
         <v>44577.645833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>0.62307220273323505</v>
@@ -39764,7 +39793,7 @@
         <v>44580.708333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <v>0.60674574169161199</v>
@@ -39794,7 +39823,7 @@
         <v>44584.34375</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>0.64576942110574098</v>
@@ -39824,7 +39853,7 @@
         <v>44587.395833333336</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>0.66008446301285795</v>
@@ -39854,7 +39883,7 @@
         <v>44590.364583333336</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>0.73607527866144995</v>
@@ -39884,7 +39913,7 @@
         <v>44593.34375</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>0.74045900566692202</v>
@@ -39914,7 +39943,7 @@
         <v>44596.322916666664</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>0.78333098020409997</v>
@@ -39944,7 +39973,7 @@
         <v>44598.708333333336</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9">
         <v>0.74523121457490304</v>
@@ -39974,7 +40003,7 @@
         <v>44601.666666666664</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>0.70281023248486896</v>
@@ -40004,7 +40033,7 @@
         <v>44604.739583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11">
         <v>0.63634253791286</v>
@@ -40034,7 +40063,7 @@
         <v>44607.65625</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>0.82194239464365104</v>
@@ -40064,7 +40093,7 @@
         <v>44610.604166666664</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13">
         <v>0.80763165388755498</v>
@@ -40094,7 +40123,7 @@
         <v>44613.510416666664</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>0.77852107703615103</v>
@@ -40124,7 +40153,7 @@
         <v>44619.395833333336</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15">
         <v>0.79711091709978799</v>
@@ -40154,7 +40183,7 @@
         <v>44622.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>0.77493227695838596</v>
@@ -40184,7 +40213,7 @@
         <v>44624.635416666664</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17">
         <v>0.72994842268748295</v>
@@ -40214,7 +40243,7 @@
         <v>44629.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18">
         <v>0.58473119380580496</v>
@@ -40244,7 +40273,7 @@
         <v>44632.75</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19">
         <v>0.84209582517661796</v>
@@ -40274,7 +40303,7 @@
         <v>44635.552083333336</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20">
         <v>0.82080813095018101</v>
@@ -40304,7 +40333,7 @@
         <v>44638.333333333336</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21">
         <v>0.61338774373935701</v>
@@ -40334,7 +40363,7 @@
         <v>44640.59375</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22">
         <v>0.52993175995168895</v>
@@ -40364,7 +40393,7 @@
         <v>44643.333333333336</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23">
         <v>0.61301772940055599</v>
@@ -40394,7 +40423,7 @@
         <v>44645.583333333336</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24">
         <v>0.62606544999202396</v>
@@ -40424,7 +40453,7 @@
         <v>44648.291666666664</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25">
         <v>0.62897067683723196</v>
@@ -40454,7 +40483,7 @@
         <v>44650.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26">
         <v>0.67210000815391702</v>
@@ -40484,7 +40513,7 @@
         <v>44652.760416666664</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27">
         <v>0.57604621375779197</v>
@@ -40514,7 +40543,7 @@
         <v>44655.4375</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28">
         <v>0.48892962915298099</v>
@@ -40544,7 +40573,7 @@
         <v>44660.46875</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29">
         <v>0.65041067580561396</v>
@@ -40574,7 +40603,7 @@
         <v>44662.635416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30">
         <v>0.65844594814005197</v>
@@ -40604,7 +40633,7 @@
         <v>44664.78125</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31">
         <v>0.55260360183026103</v>
@@ -40634,7 +40663,7 @@
         <v>44667.375</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32">
         <v>0.55092791956589304</v>
@@ -40664,7 +40693,7 @@
         <v>44669.53125</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33">
         <v>0.56457150438772497</v>
@@ -40694,7 +40723,7 @@
         <v>44671.708333333336</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34">
         <v>0.70329711790629501</v>
@@ -40724,7 +40753,7 @@
         <v>44674.3125</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35">
         <v>0.65409953501436302</v>
@@ -40754,7 +40783,7 @@
         <v>44676.427083333336</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36">
         <v>0.643089775346808</v>
@@ -40784,7 +40813,7 @@
         <v>44678.572916666664</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37">
         <v>0.56423174090833395</v>
@@ -40814,7 +40843,7 @@
         <v>44680.71875</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38">
         <v>0.55132268539593299</v>
@@ -40844,7 +40873,7 @@
         <v>44683.260416666664</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C39">
         <v>0.57165238091322901</v>
@@ -40874,7 +40903,7 @@
         <v>44685.385416666664</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40">
         <v>0.54901256090282802</v>
@@ -40904,7 +40933,7 @@
         <v>44687.46875</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C41">
         <v>0.575447308351827</v>
@@ -40934,7 +40963,7 @@
         <v>44689.59375</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C42">
         <v>0.65304500258209297</v>
@@ -40964,7 +40993,7 @@
         <v>44691.697916666664</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C43">
         <v>0.68345373919125496</v>
@@ -40994,7 +41023,7 @@
         <v>44694.208333333336</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44">
         <v>0.68087294619478</v>
@@ -41024,7 +41053,7 @@
         <v>44696.28125</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45">
         <v>0.43023255404238497</v>
@@ -41054,7 +41083,7 @@
         <v>44698.34375</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C46">
         <v>0.54271535344389599</v>
@@ -41084,7 +41113,7 @@
         <v>44700.427083333336</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C47">
         <v>0.54884061319936095</v>
@@ -41114,7 +41143,7 @@
         <v>44702.489583333336</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C48">
         <v>0.53243305992878598</v>
@@ -41144,7 +41173,7 @@
         <v>44704.53125</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C49">
         <v>0.45501253279577802</v>
@@ -41174,7 +41203,7 @@
         <v>44706.614583333336</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50">
         <v>0.44519583382210798</v>
@@ -41204,7 +41233,7 @@
         <v>44708.697916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C51">
         <v>0.45378944865838799</v>
@@ -41234,7 +41263,7 @@
         <v>44710.75</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C52">
         <v>0.41034280521815802</v>
@@ -41282,7 +41311,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -41297,13 +41326,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -41312,7 +41341,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0.49649286528842201</v>
@@ -41339,7 +41368,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0.57631810234623204</v>
@@ -41366,7 +41395,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0.43259123627256701</v>
@@ -41393,7 +41422,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0.52382209542617097</v>
@@ -41420,7 +41449,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.54804975034038805</v>
@@ -41447,7 +41476,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0.52042848037520495</v>
@@ -41474,7 +41503,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0.69434027902957796</v>
@@ -41501,7 +41530,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.55972380757434603</v>
@@ -41528,7 +41557,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0.61254185800976702</v>
@@ -41555,7 +41584,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.64128660925715697</v>
@@ -41582,7 +41611,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.56173942480459105</v>
@@ -41609,7 +41638,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0.71388245223226499</v>
@@ -41636,7 +41665,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0.56539961328294497</v>
@@ -41663,7 +41692,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.77846623590078701</v>
@@ -41690,7 +41719,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0.65775934292451399</v>
@@ -41717,7 +41746,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0.81239109199083503</v>
@@ -41744,7 +41773,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0.77448985591711295</v>
@@ -41771,7 +41800,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.76202304806922005</v>
@@ -41798,7 +41827,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.77944977523401504</v>
@@ -41825,7 +41854,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>0.75171850517387295</v>
@@ -41852,7 +41881,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>0.68953153151054902</v>
@@ -41879,7 +41908,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>0.67078161103825795</v>
@@ -41906,7 +41935,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0.64247941470750203</v>
@@ -41933,7 +41962,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0.569130069476661</v>
@@ -41960,7 +41989,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>0.58894348027653198</v>
@@ -41987,7 +42016,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.544021402300363</v>
@@ -42014,7 +42043,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.49584016282626397</v>
@@ -42041,7 +42070,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0.51717672484638399</v>
@@ -42068,7 +42097,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>0.54249430366012696</v>
@@ -42095,7 +42124,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0.52166553354659295</v>
@@ -42122,7 +42151,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.56934519289152496</v>
@@ -42149,7 +42178,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0.52331966962863297</v>
@@ -42176,7 +42205,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.50478772746197798</v>
@@ -42203,7 +42232,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0.66259706530609697</v>
@@ -42230,7 +42259,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0.69924805829376702</v>
@@ -42257,7 +42286,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0.77054756268133595</v>
@@ -42284,7 +42313,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>0.68821039965033304</v>
@@ -42311,7 +42340,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.80293023628915094</v>
@@ -42338,7 +42367,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>0.793234790763933</v>
@@ -42365,7 +42394,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>0.77459618673616903</v>
@@ -42392,7 +42421,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>0.67941365683884902</v>
@@ -42419,7 +42448,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.72733524653372805</v>
@@ -42446,7 +42475,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.59601497195626396</v>
@@ -42473,7 +42502,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0.489886390945312</v>
@@ -42500,7 +42529,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>0.55225890902802</v>
@@ -42527,7 +42556,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>0.59235652204497102</v>
@@ -42554,7 +42583,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>0.64567148225689397</v>
@@ -42581,7 +42610,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>0.58568457564476295</v>
@@ -42608,7 +42637,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>0.751184160589768</v>
@@ -42635,7 +42664,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0.58394806886109496</v>
@@ -42662,7 +42691,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>0.446296158693402</v>
@@ -42707,7 +42736,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -42722,13 +42751,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -42737,7 +42766,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0.48768220981718502</v>
@@ -42764,7 +42793,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0.55755712439873095</v>
@@ -42791,7 +42820,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0.381087944097384</v>
@@ -42818,7 +42847,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0.58458378419815704</v>
@@ -42845,7 +42874,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.50577386644137901</v>
@@ -42872,7 +42901,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0.49247770753147202</v>
@@ -42899,7 +42928,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0.64674105832705597</v>
@@ -42926,7 +42955,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0.55436699405291401</v>
@@ -42953,7 +42982,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0.57084146283707704</v>
@@ -42980,7 +43009,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.62897775898849195</v>
@@ -43007,7 +43036,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>0.53631338485732805</v>
@@ -43034,7 +43063,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>0.67772281884143204</v>
@@ -43061,7 +43090,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0.530029803618837</v>
@@ -43088,7 +43117,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>0.746346168441822</v>
@@ -43115,7 +43144,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0.73404795067278505</v>
@@ -43142,7 +43171,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>0.768706961978178</v>
@@ -43169,7 +43198,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0.71572872675821297</v>
@@ -43196,7 +43225,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.70584069612179501</v>
@@ -43223,7 +43252,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>0.72524947831041797</v>
@@ -43250,7 +43279,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>0.69316790476219203</v>
@@ -43277,7 +43306,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>0.63929657182107202</v>
@@ -43304,7 +43333,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>0.61436886457283901</v>
@@ -43331,7 +43360,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>0.59085848001665398</v>
@@ -43358,7 +43387,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>0.531412781086119</v>
@@ -43385,7 +43414,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>0.53420646863821697</v>
@@ -43412,7 +43441,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27">
         <v>0.50313949171414896</v>
@@ -43439,7 +43468,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>0.45204713051579698</v>
@@ -43466,7 +43495,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>0.47166928699907201</v>
@@ -43493,7 +43522,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>0.49241093115907802</v>
@@ -43520,7 +43549,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>0.427197694338048</v>
@@ -43547,7 +43576,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.51650315803555502</v>
@@ -43574,7 +43603,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0.52922553831604202</v>
@@ -43601,7 +43630,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>0.50295308552182305</v>
@@ -43628,7 +43657,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0.60059964772152097</v>
@@ -43655,7 +43684,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0.62226050161990398</v>
@@ -43682,7 +43711,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0.67271359008857201</v>
@@ -43709,7 +43738,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>0.65013980922459202</v>
@@ -43736,7 +43765,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0.72399268599050204</v>
@@ -43763,7 +43792,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>0.74921542664920404</v>
@@ -43790,7 +43819,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>0.81713517644891098</v>
@@ -43817,7 +43846,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>0.79444984848279898</v>
@@ -43844,7 +43873,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>0.76151871941381699</v>
@@ -43871,7 +43900,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0.552083794700159</v>
@@ -43898,7 +43927,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>0.41445306801350301</v>
@@ -43925,7 +43954,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46">
         <v>0.51937302262599805</v>
@@ -43952,7 +43981,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>0.65308764280767095</v>
@@ -43979,7 +44008,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>0.61687221449959695</v>
@@ -44006,7 +44035,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>0.55282123362695601</v>
@@ -44033,7 +44062,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>0.68837939953601002</v>
@@ -44060,7 +44089,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0.59119347209289597</v>
@@ -44087,7 +44116,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>0.42568606403690801</v>

--- a/Analysis/SAM_00 summary.xlsx
+++ b/Analysis/SAM_00 summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdeline\Documents\Python Scripts\2022_Bifacial_irradiance_paper\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8752F13A-68D8-4DFA-B4B7-CA416F4C147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C051042-009A-4B67-BBE8-7955CA602EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6360" windowWidth="29040" windowHeight="15840" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="4" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="152">
   <si>
     <t>Column1</t>
   </si>
@@ -143,12 +143,6 @@
   </si>
   <si>
     <t>Method4</t>
-  </si>
-  <si>
-    <t>***: model is monofacial power vs POA reference.</t>
-  </si>
-  <si>
-    <t>***: field is bifacial power vs Method4 reference.</t>
   </si>
   <si>
     <t>Method3</t>
@@ -532,9 +526,6 @@
     <t>NEW FILTERING</t>
   </si>
   <si>
-    <t>SAM00 model results - Row 2+4</t>
-  </si>
-  <si>
     <t>2+4</t>
   </si>
   <si>
@@ -548,6 +539,12 @@
   </si>
   <si>
     <t>ROW 2 ANALYSIS (OLD 8/11 RC's)</t>
+  </si>
+  <si>
+    <t>SAMTMYA01 model results - Row 2+4</t>
+  </si>
+  <si>
+    <t>SAMP00 model results - Row 2+4</t>
   </si>
 </sst>
 </file>
@@ -651,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -687,15 +684,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
@@ -791,6 +784,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -19687,7 +19683,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>435664</xdr:colOff>
+      <xdr:colOff>439474</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>73503</xdr:rowOff>
     </xdr:to>
@@ -19938,7 +19934,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>212200</xdr:colOff>
+      <xdr:colOff>208390</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>111084</xdr:rowOff>
     </xdr:to>
@@ -19999,9 +19995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>97485</xdr:colOff>
+      <xdr:colOff>93675</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>59718</xdr:rowOff>
+      <xdr:rowOff>55908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -26021,7 +26017,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF417BFC-1652-4DAD-9BCD-0E84BD39FC32}" name="captest_out_SAM_00_row8" displayName="captest_out_SAM_00_row8" ref="B1:J1048555" totalsRowShown="0">
   <autoFilter ref="B1:J1048555" xr:uid="{EF417BFC-1652-4DAD-9BCD-0E84BD39FC32}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{027DDAE5-6E74-4F53-8427-48B451305B8C}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{027DDAE5-6E74-4F53-8427-48B451305B8C}" name="Column1" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{D74787BF-B027-4CF9-9768-F1525BA617A0}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{C66F213D-283F-4C5A-836C-D7918A369276}" name="DAS_test"/>
     <tableColumn id="4" xr3:uid="{92418706-EBAA-4A04-913A-C62904B2D0CA}" name="SAM_model_1sigma_pct"/>
@@ -26039,10 +26035,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6422A1EB-4D7A-4B3D-A5CC-673EEC3820A4}" name="captest_out_SAM_00_row4_Method4" displayName="captest_out_SAM_00_row4_Method4" ref="A1:H52" totalsRowShown="0">
   <autoFilter ref="A1:H52" xr:uid="{6422A1EB-4D7A-4B3D-A5CC-673EEC3820A4}"/>
   <tableColumns count="8">
-    <tableColumn id="5" xr3:uid="{27FED96B-1CA6-442C-96DD-A9A49DD6FF96}" name="DATE FROM ISO" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{27FED96B-1CA6-442C-96DD-A9A49DD6FF96}" name="DATE FROM ISO" dataDxfId="9">
       <calculatedColumnFormula xml:space="preserve"> DATEVALUE(MID(B2,1,10))+TIMEVALUE(MID(B2,12,5))+TIME(MID(B2,18,2),0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{4B4D50A0-0CBB-42C0-93E2-1F8D380AF708}" name="Column1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{4B4D50A0-0CBB-42C0-93E2-1F8D380AF708}" name="Column1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{3268B893-3649-4E4E-93D5-4B87C5521EA1}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{B855B761-D0A7-46C8-85BF-96FCF9B3BF68}" name="DAS_test"/>
     <tableColumn id="4" xr3:uid="{92DC8217-CF3F-40E4-9A3B-4CC2A1FC57FE}" name="ratio"/>
@@ -26058,7 +26054,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6CC094A1-176E-4221-8E80-8411A4F9D5F6}" name="captest_out_SAM_00_rowMethod4_vRow8SAM" displayName="captest_out_SAM_00_rowMethod4_vRow8SAM" ref="B1:H52" totalsRowShown="0">
   <autoFilter ref="B1:H52" xr:uid="{6CC094A1-176E-4221-8E80-8411A4F9D5F6}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E3ACD4EF-BFF0-4BD0-8F59-C67C13FC4317}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{E3ACD4EF-BFF0-4BD0-8F59-C67C13FC4317}" name="Column1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{AECFA646-9115-4CC9-8D31-C700986B26E5}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{773D4EAF-F026-4844-8E44-DACACCB5FF6C}" name="DAS_test"/>
     <tableColumn id="4" xr3:uid="{AB548AB2-7FDB-49B7-BCE5-37C2243D105D}" name="ratio"/>
@@ -26074,10 +26070,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{96A488EA-9B21-425F-BBDE-B300FE7D4DD8}" name="captest_out_SAM_00_row2_POA" displayName="captest_out_SAM_00_row2_POA" ref="A1:I52" totalsRowShown="0">
   <autoFilter ref="A1:I52" xr:uid="{96A488EA-9B21-425F-BBDE-B300FE7D4DD8}"/>
   <tableColumns count="9">
-    <tableColumn id="6" xr3:uid="{D5C0258F-36C4-4B09-97B4-28BD2B5790EA}" name="DATE FROM ISO" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{D5C0258F-36C4-4B09-97B4-28BD2B5790EA}" name="DATE FROM ISO" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> DATEVALUE(MID(B2,1,10))+TIMEVALUE(MID(B2,12,5))+TIME(MID(B2,18,2),0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0705EB86-CFCE-4218-9568-1165299D2AA1}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{0705EB86-CFCE-4218-9568-1165299D2AA1}" name="Column1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{212EEBD0-E3A9-4ABB-BABA-C5CF006ED6AD}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{FE6603F6-BE74-4A82-A30F-A6BD874CE2BD}" name="DAS_test"/>
     <tableColumn id="4" xr3:uid="{DF659851-5305-4B2F-A14C-1C89645CC88E}" name="ratio"/>
@@ -26094,10 +26090,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4A9C22EC-9F81-43B0-8281-069A3F2B35EE}" name="captest_out_SAM_00_row2_Gtotal" displayName="captest_out_SAM_00_row2_Gtotal" ref="A1:I52" totalsRowShown="0">
   <autoFilter ref="A1:I52" xr:uid="{4A9C22EC-9F81-43B0-8281-069A3F2B35EE}"/>
   <tableColumns count="9">
-    <tableColumn id="6" xr3:uid="{56396228-E1D5-4CCF-8B8F-6D60E9D8FBE2}" name="DATE FROM ISO" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{56396228-E1D5-4CCF-8B8F-6D60E9D8FBE2}" name="DATE FROM ISO" dataDxfId="4">
       <calculatedColumnFormula xml:space="preserve"> DATEVALUE(MID(B2,1,10))+TIMEVALUE(MID(B2,12,5))+TIME(MID(B2,18,2),0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{61089F25-6A81-4452-BEC0-A8559B330C0B}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{61089F25-6A81-4452-BEC0-A8559B330C0B}" name="Column1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{FB0F476B-3DAD-454A-9A97-381A61188D04}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{7628E9F2-935F-46AE-AE49-45C52437B271}" name="DAS_test"/>
     <tableColumn id="4" xr3:uid="{0B81512A-6F15-471D-9ADD-9C766700A19F}" name="ratio"/>
@@ -26114,10 +26110,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2FC256CF-5285-45AA-AC5A-41845F8C5FC8}" name="captest_out_SAM_00_row2_Method4" displayName="captest_out_SAM_00_row2_Method4" ref="A1:H52" totalsRowShown="0">
   <autoFilter ref="A1:H52" xr:uid="{2FC256CF-5285-45AA-AC5A-41845F8C5FC8}"/>
   <tableColumns count="8">
-    <tableColumn id="5" xr3:uid="{5997D34F-395F-450F-A8B2-AAA9B88B26F5}" name="DATE FROM ISO" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{5997D34F-395F-450F-A8B2-AAA9B88B26F5}" name="DATE FROM ISO" dataDxfId="2">
       <calculatedColumnFormula xml:space="preserve"> DATEVALUE(MID(B2,1,10))+TIMEVALUE(MID(B2,12,5))+TIME(MID(B2,18,2),0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{C40F19B4-0DA8-49F1-B7A7-6BB1CD35CC98}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C40F19B4-0DA8-49F1-B7A7-6BB1CD35CC98}" name="Column1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{725A4EAA-702D-40A9-B527-06D6CCAA9C8E}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{575F6404-D6E9-4CA0-AC41-B8DFC4AA35A9}" name="DAS_test"/>
     <tableColumn id="4" xr3:uid="{3F1F57BA-32A7-45FA-A6A8-E667A7B6F42F}" name="ratio"/>
@@ -26133,7 +26129,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{50C6F6F0-6931-4186-A653-17E55C8A38DF}" name="captest_out_SAM_00_row2RefMod_vRow8SAM" displayName="captest_out_SAM_00_row2RefMod_vRow8SAM" ref="B1:H52" totalsRowShown="0">
   <autoFilter ref="B1:H52" xr:uid="{50C6F6F0-6931-4186-A653-17E55C8A38DF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{953D28EA-23B5-4297-86CB-6A34BF7B0959}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{953D28EA-23B5-4297-86CB-6A34BF7B0959}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0CF28A7D-E1AC-4BE3-A9B1-3DD859055698}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{61943CE1-A8BF-4754-A84B-AC324140922F}" name="DAS_test"/>
     <tableColumn id="4" xr3:uid="{E59C00F2-4587-47A0-94D6-77EB948AE2CF}" name="ratio"/>
@@ -26149,7 +26145,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7C5DF3E6-74C6-48AC-98B1-F22B6B205CAB}" name="captest_out_SAM_00_row8_Tmod" displayName="captest_out_SAM_00_row8_Tmod" ref="B1:J52" totalsRowShown="0">
   <autoFilter ref="B1:J52" xr:uid="{7C5DF3E6-74C6-48AC-98B1-F22B6B205CAB}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{75BD2B0B-4C26-4A08-87C8-87731D446109}" name="Column1" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{75BD2B0B-4C26-4A08-87C8-87731D446109}" name="Column1" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{B3F4D52A-1004-4182-969B-CD5BA890C546}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{3E009A44-C77C-4B29-B5B6-30ED07F6094F}" name="DAS_test"/>
     <tableColumn id="4" xr3:uid="{88A1C658-BE2A-433C-989D-7825F4A5C1D5}" name="SAM_model_1sigma_pct"/>
@@ -26167,7 +26163,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FC8027C4-F7AF-425D-ADF9-23E3B3F57FBF}" name="captest_out_SAM_00_row4_POA13" displayName="captest_out_SAM_00_row4_POA13" ref="B1:J52" totalsRowShown="0">
   <autoFilter ref="B1:J52" xr:uid="{FC8027C4-F7AF-425D-ADF9-23E3B3F57FBF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8C482024-DBDE-4C8E-8AC3-8BB9B9065D39}" name="Column1" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{8C482024-DBDE-4C8E-8AC3-8BB9B9065D39}" name="Column1" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{F7F35136-DC58-4ECA-ACF8-2DC6EBEFEC6C}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{83E6108E-890E-4667-8F7E-760E2A31A984}" name="DAS_test"/>
     <tableColumn id="9" xr3:uid="{4689F5A7-F8C0-49DA-8BFF-A4453C29B161}" name="SAM_model_1sigma_pct"/>
@@ -26185,7 +26181,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{66B93651-2F30-4BE2-8BE8-656F9AAEF2A5}" name="captest_out_SAM_00_row4_POA1314" displayName="captest_out_SAM_00_row4_POA1314" ref="B1:J52" totalsRowShown="0">
   <autoFilter ref="B1:J52" xr:uid="{FC8027C4-F7AF-425D-ADF9-23E3B3F57FBF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1CA0C9F-73B6-4C86-BC90-3FA8A763CABC}" name="Column1" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{C1CA0C9F-73B6-4C86-BC90-3FA8A763CABC}" name="Column1" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{B208D505-AAC2-47C5-9432-FA769BAB92C0}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{30C997F2-1234-4C56-ABC9-E075AA93809A}" name="DAS_test"/>
     <tableColumn id="9" xr3:uid="{B2A57730-7987-47B3-924F-D088357D2872}" name="SAM_model_1sigma_pct"/>
@@ -26203,7 +26199,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{1431FCCE-5C11-4517-BEFB-814310C790D1}" name="captest_out_SAM_00_row4_POA131415" displayName="captest_out_SAM_00_row4_POA131415" ref="B1:I52" totalsRowShown="0">
   <autoFilter ref="B1:I52" xr:uid="{FC8027C4-F7AF-425D-ADF9-23E3B3F57FBF}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{9BFA2B67-8D16-40EA-BCC4-D56178A6D0F8}" name="Column1" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{9BFA2B67-8D16-40EA-BCC4-D56178A6D0F8}" name="Column1" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{9D7A8FDD-58A2-494B-8FE7-9C34AD538A81}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{B2AF5C9A-9AD5-4DE6-AB43-D87407293BE6}" name="DAS_test"/>
     <tableColumn id="9" xr3:uid="{2EF85450-DD03-456D-B603-9A0DB890F311}" name="SAM_model_1sigma_pct"/>
@@ -26220,7 +26216,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A74EA127-CA66-4FB2-AE9E-3E56AEBE3307}" name="captest_out_SAM_00_row4_POA13141516" displayName="captest_out_SAM_00_row4_POA13141516" ref="B1:I52" totalsRowShown="0">
   <autoFilter ref="B1:I52" xr:uid="{FC8027C4-F7AF-425D-ADF9-23E3B3F57FBF}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AFDD7D78-0B17-433F-B7D5-A5FAA2735E3B}" name="Column1" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{AFDD7D78-0B17-433F-B7D5-A5FAA2735E3B}" name="Column1" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{A3F66722-D692-4E78-89B8-00A6E9901B2E}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{37D101A2-2454-4678-95B5-58B47AC900B0}" name="DAS_test"/>
     <tableColumn id="9" xr3:uid="{33429DE1-03C5-463D-9B18-246296316342}" name="SAM_model_1sigma_pct"/>
@@ -26237,7 +26233,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74836BF7-A0DC-4EBB-B142-EEB2500BBE5F}" name="captest_out_SAM_00_row4_POA" displayName="captest_out_SAM_00_row4_POA" ref="B1:I52" totalsRowShown="0">
   <autoFilter ref="B1:I52" xr:uid="{74836BF7-A0DC-4EBB-B142-EEB2500BBE5F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{ACC8A81C-3BB0-457A-A111-DE838AB5FC46}" name="Column1" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{ACC8A81C-3BB0-457A-A111-DE838AB5FC46}" name="Column1" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{13B6122B-1C34-44BE-ABEB-32749F144788}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{670B8021-A5CB-4595-B524-9BD42F4E0F57}" name="DAS_test"/>
     <tableColumn id="4" xr3:uid="{DC899FB0-1F49-4CB7-9743-B914F1C8E37F}" name="ratio"/>
@@ -26254,10 +26250,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C98792F8-F761-4E30-87FE-BC5939054347}" name="captest_out_SAM_00_row4_Gtotal" displayName="captest_out_SAM_00_row4_Gtotal" ref="A1:I52" totalsRowShown="0">
   <autoFilter ref="A1:I52" xr:uid="{C98792F8-F761-4E30-87FE-BC5939054347}"/>
   <tableColumns count="9">
-    <tableColumn id="6" xr3:uid="{800E0D10-A89A-4E12-B349-5911F58BC5C7}" name="DATE FROM ISO" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{800E0D10-A89A-4E12-B349-5911F58BC5C7}" name="DATE FROM ISO" dataDxfId="13">
       <calculatedColumnFormula xml:space="preserve"> DATEVALUE(MID(B2,1,10))+TIMEVALUE(MID(B2,12,5))+TIME(MID(B2,18,2),0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{D2E0595F-2B8E-4883-896E-E43490327528}" name="Column1" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D2E0595F-2B8E-4883-896E-E43490327528}" name="Column1" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{2246019E-E725-4638-B148-2E622935D125}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{B27E2FA6-9A2C-4979-808B-0B384DA84F97}" name="DAS_test"/>
     <tableColumn id="4" xr3:uid="{86D62A5F-ED3D-41DE-BCCA-BB6C96DE544C}" name="ratio"/>
@@ -26274,10 +26270,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F7C9D277-82AA-4058-B380-48CEC106CBE5}" name="captest_out_SAM_00_row4_Method3" displayName="captest_out_SAM_00_row4_Method3" ref="A1:I52" totalsRowShown="0">
   <autoFilter ref="A1:I52" xr:uid="{F7C9D277-82AA-4058-B380-48CEC106CBE5}"/>
   <tableColumns count="9">
-    <tableColumn id="6" xr3:uid="{1241D95C-45CB-4433-A3C0-D6A108A5B78D}" name="DATE FROM ISO" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{1241D95C-45CB-4433-A3C0-D6A108A5B78D}" name="DATE FROM ISO" dataDxfId="11">
       <calculatedColumnFormula xml:space="preserve"> DATEVALUE(MID(B2,1,10))+TIMEVALUE(MID(B2,12,5))+TIME(MID(B2,18,2),0,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{F00439F9-7A39-40A3-BD30-3911601976F5}" name="Column1" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{F00439F9-7A39-40A3-BD30-3911601976F5}" name="Column1" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{8B72A1B7-8738-4C0E-B804-A72B40040B1C}" name="SAM_test"/>
     <tableColumn id="3" xr3:uid="{6ADBAC72-0E1B-4F8D-A3CF-867629FAB73F}" name="DAS_test"/>
     <tableColumn id="4" xr3:uid="{EBD80CB5-F8CD-434D-82BC-1639F08AEF4F}" name="ratio"/>
@@ -26556,7 +26552,7 @@
   <dimension ref="A1:Z98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O18" sqref="N18:O18"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26566,10 +26562,10 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -26604,10 +26600,10 @@
         <v>7</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -26627,25 +26623,25 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1.54</v>
+      <c r="L3" s="5">
+        <v>-0.03</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1.31</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -26664,20 +26660,20 @@
       <c r="E4" s="4">
         <v>3.83</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>148</v>
+      <c r="I4">
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" s="4">
-        <v>2.84</v>
+        <v>0.59</v>
       </c>
       <c r="M4" s="4">
-        <v>4.95</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -26697,19 +26693,22 @@
         <v>1.48</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4">
-        <v>-0.59</v>
+        <v>0.82</v>
       </c>
       <c r="M5" s="4">
-        <v>1.84</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -26729,7 +26728,7 @@
         <v>3.76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -26738,13 +26737,13 @@
         <v>12</v>
       </c>
       <c r="L6" s="4">
-        <v>-1.51</v>
+        <v>-1.66</v>
       </c>
       <c r="M6" s="4">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -26755,7 +26754,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" s="9">
         <v>0.02</v>
@@ -26764,27 +26763,30 @@
         <v>0.83</v>
       </c>
       <c r="F7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="4">
-        <v>2.89</v>
+        <v>12</v>
+      </c>
+      <c r="L7" s="8">
+        <v>-0.86</v>
       </c>
       <c r="M7" s="4">
-        <v>3.07</v>
+        <v>0.9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8">
-        <v>4</v>
+      <c r="A8" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -26792,37 +26794,19 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9">
-        <v>1.19</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2.5099999999999998</v>
+      <c r="D8" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.54</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="8">
-        <v>-0.63</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9">
-        <v>4</v>
+      <c r="A9" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -26830,37 +26814,39 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9">
-        <v>3.06</v>
-      </c>
-      <c r="E9" s="9">
-        <v>3.4</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="D9" s="4">
+        <v>2.84</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10">
-        <v>4</v>
+      <c r="A10" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9">
-        <v>0.89</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2.75</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="D10" s="4">
+        <v>-0.59</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11">
-        <v>4</v>
+      <c r="A11" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -26868,24 +26854,37 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9">
-        <v>-0.24</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1.71</v>
+      <c r="D11" s="4">
+        <v>-1.51</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.2</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12">
-        <v>4</v>
+      <c r="A12" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -26893,18 +26892,34 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9">
-        <v>3.84</v>
-      </c>
-      <c r="E12" s="9">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="D12" s="4">
+        <v>2.89</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="5">
+        <v>-0.18</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13">
-        <v>4</v>
+      <c r="A13" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -26912,24 +26927,37 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17">
-        <v>0.34</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.96</v>
+      <c r="D13" s="8">
+        <v>-0.63</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.98</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -26941,17 +26969,33 @@
         <v>3.7</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="M14" s="4">
+        <v>3.29</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -26963,147 +27007,86 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+        <v>141</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="4">
+        <v>-1.18</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="I16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="8">
+        <v>-0.51</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="9">
-        <v>-0.74</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1.75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2.73</v>
-      </c>
-      <c r="E19" s="9">
-        <v>5.01</v>
-      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="9">
-        <v>-2.2799999999999998</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1.68</v>
-      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="9">
-        <v>-2.54</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1.22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="9">
-        <v>2.56</v>
-      </c>
-      <c r="E22" s="9">
-        <v>3.87</v>
-      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2"/>
@@ -27112,25 +27095,25 @@
     </row>
     <row r="26" spans="1:13" ht="23.4">
       <c r="J26" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="10:10" ht="23.4">
       <c r="J45" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="10:10" ht="23.4">
       <c r="J62" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="2:7">
       <c r="D88" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G88" s="4"/>
     </row>
@@ -27159,7 +27142,7 @@
         <v>8</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D90" s="14">
         <v>0</v>
@@ -27179,7 +27162,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D91" s="11">
         <v>1.19</v>
@@ -27199,7 +27182,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D92" s="11">
         <v>-0.24</v>
@@ -27219,7 +27202,7 @@
         <v>4</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D93" s="12">
         <v>0.34</v>
@@ -27247,7 +27230,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D95" s="11">
         <v>-0.6</v>
@@ -27267,7 +27250,7 @@
         <v>2</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D96" s="11">
         <v>-2.52</v>
@@ -27287,7 +27270,7 @@
         <v>2</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D97" s="11">
         <v>-1.69</v>
@@ -27330,7 +27313,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -27345,13 +27328,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -27363,7 +27346,7 @@
         <v>44577.645833333336</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>0.62307220273323505</v>
@@ -27393,7 +27376,7 @@
         <v>44580.708333333336</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>0.60674574169161199</v>
@@ -27423,7 +27406,7 @@
         <v>44584.34375</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>0.64576942110574098</v>
@@ -27453,7 +27436,7 @@
         <v>44587.395833333336</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>0.66008446301285795</v>
@@ -27483,7 +27466,7 @@
         <v>44590.364583333336</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>0.73607527866144995</v>
@@ -27513,7 +27496,7 @@
         <v>44593.34375</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>0.74045900566692202</v>
@@ -27543,7 +27526,7 @@
         <v>44596.322916666664</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>0.78333098020409997</v>
@@ -27573,7 +27556,7 @@
         <v>44598.708333333336</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>0.74523121457490304</v>
@@ -27603,7 +27586,7 @@
         <v>44601.666666666664</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>0.70281023248486896</v>
@@ -27633,7 +27616,7 @@
         <v>44604.739583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>0.63634253791286</v>
@@ -27663,7 +27646,7 @@
         <v>44607.65625</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>0.82194239464365104</v>
@@ -27693,7 +27676,7 @@
         <v>44610.604166666664</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>0.80763165388755498</v>
@@ -27723,7 +27706,7 @@
         <v>44613.510416666664</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>0.77852107703615103</v>
@@ -27753,7 +27736,7 @@
         <v>44619.395833333336</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>0.79711091709978799</v>
@@ -27783,7 +27766,7 @@
         <v>44622.3125</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>0.77493227695838596</v>
@@ -27813,7 +27796,7 @@
         <v>44624.635416666664</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>0.72994842268748295</v>
@@ -27843,7 +27826,7 @@
         <v>44629.3125</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>0.58473119380580496</v>
@@ -27873,7 +27856,7 @@
         <v>44632.75</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>0.84209582517661796</v>
@@ -27903,7 +27886,7 @@
         <v>44635.552083333336</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20">
         <v>0.82080813095018101</v>
@@ -27933,7 +27916,7 @@
         <v>44638.333333333336</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21">
         <v>0.61338774373935701</v>
@@ -27963,7 +27946,7 @@
         <v>44640.59375</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22">
         <v>0.52993175995168895</v>
@@ -27993,7 +27976,7 @@
         <v>44643.333333333336</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23">
         <v>0.61301772940055599</v>
@@ -28023,7 +28006,7 @@
         <v>44645.583333333336</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24">
         <v>0.62606544999202396</v>
@@ -28053,7 +28036,7 @@
         <v>44648.291666666664</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25">
         <v>0.62897067683723196</v>
@@ -28083,7 +28066,7 @@
         <v>44650.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26">
         <v>0.67210000815391702</v>
@@ -28113,7 +28096,7 @@
         <v>44652.760416666664</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C27">
         <v>0.57604621375779197</v>
@@ -28143,7 +28126,7 @@
         <v>44655.4375</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28">
         <v>0.48892962915298099</v>
@@ -28173,7 +28156,7 @@
         <v>44660.46875</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29">
         <v>0.65041067580561396</v>
@@ -28203,7 +28186,7 @@
         <v>44662.635416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C30">
         <v>0.65844594814005197</v>
@@ -28233,7 +28216,7 @@
         <v>44664.78125</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C31">
         <v>0.55260360183026103</v>
@@ -28263,7 +28246,7 @@
         <v>44667.375</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C32">
         <v>0.55092791956589304</v>
@@ -28293,7 +28276,7 @@
         <v>44669.53125</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C33">
         <v>0.56457150438772497</v>
@@ -28323,7 +28306,7 @@
         <v>44671.708333333336</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>0.70329711790629501</v>
@@ -28353,7 +28336,7 @@
         <v>44674.3125</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35">
         <v>0.65409953501436302</v>
@@ -28383,7 +28366,7 @@
         <v>44676.427083333336</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36">
         <v>0.643089775346808</v>
@@ -28413,7 +28396,7 @@
         <v>44678.572916666664</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37">
         <v>0.56423174090833395</v>
@@ -28443,7 +28426,7 @@
         <v>44680.71875</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38">
         <v>0.55132268539593299</v>
@@ -28473,7 +28456,7 @@
         <v>44683.260416666664</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39">
         <v>0.57165238091322901</v>
@@ -28503,7 +28486,7 @@
         <v>44685.385416666664</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C40">
         <v>0.54901256090282802</v>
@@ -28533,7 +28516,7 @@
         <v>44687.46875</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C41">
         <v>0.575447308351827</v>
@@ -28563,7 +28546,7 @@
         <v>44689.59375</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C42">
         <v>0.65304500258209297</v>
@@ -28593,7 +28576,7 @@
         <v>44691.697916666664</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C43">
         <v>0.68345373919125496</v>
@@ -28623,7 +28606,7 @@
         <v>44694.208333333336</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C44">
         <v>0.68087294619478</v>
@@ -28653,7 +28636,7 @@
         <v>44696.28125</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C45">
         <v>0.43023255404238497</v>
@@ -28683,7 +28666,7 @@
         <v>44698.34375</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46">
         <v>0.54271535344389599</v>
@@ -28713,7 +28696,7 @@
         <v>44700.427083333336</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C47">
         <v>0.54884061319936095</v>
@@ -28743,7 +28726,7 @@
         <v>44702.489583333336</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48">
         <v>0.53243305992878598</v>
@@ -28773,7 +28756,7 @@
         <v>44704.53125</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C49">
         <v>0.45501253279577802</v>
@@ -28803,7 +28786,7 @@
         <v>44706.614583333336</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50">
         <v>0.44519583382210798</v>
@@ -28833,7 +28816,7 @@
         <v>44708.697916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51">
         <v>0.45378944865838799</v>
@@ -28863,7 +28846,7 @@
         <v>44710.75</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52">
         <v>0.41034280521815802</v>
@@ -28911,7 +28894,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -28926,13 +28909,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -28941,7 +28924,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.86939327156360702</v>
@@ -28968,7 +28951,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.88399078207478099</v>
@@ -28995,7 +28978,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.56257133153913097</v>
@@ -29022,7 +29005,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.60189445383611695</v>
@@ -29049,7 +29032,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.81170788592057097</v>
@@ -29076,7 +29059,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.51893115950994195</v>
@@ -29103,7 +29086,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.82419447727503303</v>
@@ -29130,7 +29113,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.85521496726914903</v>
@@ -29157,7 +29140,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.71140906389252201</v>
@@ -29184,7 +29167,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.79325529647506199</v>
@@ -29211,7 +29194,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.58367520178816501</v>
@@ -29238,7 +29221,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.82104190403187705</v>
@@ -29265,7 +29248,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.51630619423735802</v>
@@ -29292,7 +29275,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.81041164924165099</v>
@@ -29319,7 +29302,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.60050303793173399</v>
@@ -29346,7 +29329,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.81951312851926095</v>
@@ -29373,7 +29356,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.67867417427535304</v>
@@ -29400,7 +29383,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.76018297820465897</v>
@@ -29427,7 +29410,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.72899594055163897</v>
@@ -29454,7 +29437,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.74266334861831196</v>
@@ -29481,7 +29464,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.67444857745599396</v>
@@ -29508,7 +29491,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.21890662909709199</v>
@@ -29535,7 +29518,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.61316668521611795</v>
@@ -29562,7 +29545,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.475149587629833</v>
@@ -29589,7 +29572,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.57340736612807597</v>
@@ -29616,7 +29599,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.547871040218747</v>
@@ -29643,7 +29626,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.35723194106420297</v>
@@ -29670,7 +29653,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.47614113573081901</v>
@@ -29697,7 +29680,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.54281472452560797</v>
@@ -29724,7 +29707,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.42630648339216098</v>
@@ -29751,7 +29734,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.43357321966926798</v>
@@ -29778,7 +29761,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.53963019081108199</v>
@@ -29805,7 +29788,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.37100392612621902</v>
@@ -29832,7 +29815,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.495037785221837</v>
@@ -29859,7 +29842,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.60370409695183103</v>
@@ -29886,7 +29869,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.78386715100103899</v>
@@ -29913,7 +29896,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.63531322984944305</v>
@@ -29940,7 +29923,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.77202787196310996</v>
@@ -29967,7 +29950,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.829642463169177</v>
@@ -29994,7 +29977,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.42849611042660302</v>
@@ -30021,7 +30004,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.63661419902289296</v>
@@ -30048,7 +30031,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.49119343380283198</v>
@@ -30075,7 +30058,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.59045400047242003</v>
@@ -30102,7 +30085,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.81075896588769003</v>
@@ -30129,7 +30112,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.76813269206908896</v>
@@ -30156,7 +30139,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.87806979668454499</v>
@@ -30183,7 +30166,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.74993561602426995</v>
@@ -30210,7 +30193,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.38433064093046798</v>
@@ -30237,7 +30220,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.93193284013281397</v>
@@ -30264,7 +30247,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.36575486861520701</v>
@@ -30291,7 +30274,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.55769484895179999</v>
@@ -30336,7 +30319,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -30351,13 +30334,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -30366,7 +30349,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.48768220981718502</v>
@@ -30393,7 +30376,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.55755712439873095</v>
@@ -30420,7 +30403,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.381087944097384</v>
@@ -30447,7 +30430,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.58458378419815704</v>
@@ -30474,7 +30457,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.50577386644137901</v>
@@ -30501,7 +30484,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.49247770753147202</v>
@@ -30528,7 +30511,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.64674105832705597</v>
@@ -30555,7 +30538,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.55436699405291401</v>
@@ -30582,7 +30565,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.57084146283707704</v>
@@ -30609,7 +30592,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.62897775898849195</v>
@@ -30636,7 +30619,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.53631338485732805</v>
@@ -30663,7 +30646,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.67772281884143204</v>
@@ -30690,7 +30673,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.530029803618837</v>
@@ -30717,7 +30700,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.746346168441822</v>
@@ -30744,7 +30727,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.73404795067278505</v>
@@ -30771,7 +30754,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.768706961978178</v>
@@ -30798,7 +30781,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.71572872675821297</v>
@@ -30825,7 +30808,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.70584069612179501</v>
@@ -30852,7 +30835,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.72524947831041797</v>
@@ -30879,7 +30862,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.69316790476219203</v>
@@ -30906,7 +30889,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.63929657182107202</v>
@@ -30933,7 +30916,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.61436886457283901</v>
@@ -30960,7 +30943,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.59085848001665398</v>
@@ -30987,7 +30970,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.531412781086119</v>
@@ -31014,7 +30997,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.53420646863821697</v>
@@ -31041,7 +31024,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.50313949171414896</v>
@@ -31068,7 +31051,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.45204713051579698</v>
@@ -31095,7 +31078,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.47166928699907201</v>
@@ -31122,7 +31105,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.49241093115907802</v>
@@ -31149,7 +31132,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.427197694338048</v>
@@ -31176,7 +31159,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.51650315803555502</v>
@@ -31203,7 +31186,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.52922553831604202</v>
@@ -31230,7 +31213,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.50295308552182305</v>
@@ -31257,7 +31240,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.60059964772152097</v>
@@ -31284,7 +31267,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.62226050161990398</v>
@@ -31311,7 +31294,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.67271359008857201</v>
@@ -31338,7 +31321,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.65013980922459202</v>
@@ -31365,7 +31348,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.72399268599050204</v>
@@ -31392,7 +31375,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.74921542664920404</v>
@@ -31419,7 +31402,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.81713517644891098</v>
@@ -31446,7 +31429,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.79444984848279898</v>
@@ -31473,7 +31456,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.76151871941381699</v>
@@ -31500,7 +31483,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.552083794700159</v>
@@ -31527,7 +31510,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.41445306801350301</v>
@@ -31554,7 +31537,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.51937302262599805</v>
@@ -31581,7 +31564,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.65308764280767095</v>
@@ -31608,7 +31591,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.61687221449959695</v>
@@ -31635,7 +31618,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.55282123362695601</v>
@@ -31662,7 +31645,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.68837939953601002</v>
@@ -31689,7 +31672,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.59119347209289597</v>
@@ -31716,7 +31699,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.42568606403690801</v>
@@ -31761,7 +31744,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -31776,13 +31759,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -31794,7 +31777,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.80817551075944005</v>
@@ -31824,7 +31807,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.82909831163803904</v>
@@ -31854,7 +31837,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.57195131989284398</v>
@@ -31884,7 +31867,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.65974926760366304</v>
@@ -31914,7 +31897,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.814487820345831</v>
@@ -31944,7 +31927,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.63047731380669503</v>
@@ -31974,7 +31957,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.78831049405046605</v>
@@ -32004,7 +31987,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.81240108392670596</v>
@@ -32034,7 +32017,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.63264121262200002</v>
@@ -32064,7 +32047,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.76892872973114101</v>
@@ -32094,7 +32077,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.68584723882006104</v>
@@ -32124,7 +32107,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.77381419711865596</v>
@@ -32154,7 +32137,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.59618628944591801</v>
@@ -32184,7 +32167,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.76486264337548504</v>
@@ -32214,7 +32197,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.68473253955070201</v>
@@ -32244,7 +32227,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.77842821797380202</v>
@@ -32274,7 +32257,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.74477112998883999</v>
@@ -32304,7 +32287,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.72769427731763803</v>
@@ -32334,7 +32317,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.73654093782671604</v>
@@ -32364,7 +32347,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.71360585322273695</v>
@@ -32394,7 +32377,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.66082436719686399</v>
@@ -32424,7 +32407,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.34320600980590299</v>
@@ -32454,7 +32437,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.627927849840343</v>
@@ -32484,7 +32467,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.42369193919554299</v>
@@ -32514,7 +32497,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.54807695151065805</v>
@@ -32544,7 +32527,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.53133258619138801</v>
@@ -32574,7 +32557,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.34861667749950198</v>
@@ -32604,7 +32587,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.51207269878404804</v>
@@ -32634,7 +32617,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.51447634753607496</v>
@@ -32664,7 +32647,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.41135598024454001</v>
@@ -32694,7 +32677,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.28951894633132202</v>
@@ -32724,7 +32707,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.413464522613265</v>
@@ -32754,7 +32737,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.27708999149452601</v>
@@ -32784,7 +32767,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.59976332048340197</v>
@@ -32814,7 +32797,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.438307699303984</v>
@@ -32844,7 +32827,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.72628240141594302</v>
@@ -32874,7 +32857,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.63469697665005698</v>
@@ -32904,7 +32887,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.52054275203739198</v>
@@ -32934,7 +32917,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.77794210431746502</v>
@@ -32964,7 +32947,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.43148459655888499</v>
@@ -32994,7 +32977,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.81649886581534303</v>
@@ -33024,7 +33007,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.75988660960301802</v>
@@ -33054,7 +33037,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.65984213011964099</v>
@@ -33084,7 +33067,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.89095116592482904</v>
@@ -33114,7 +33097,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.86753196549440603</v>
@@ -33144,7 +33127,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.86125324233075795</v>
@@ -33174,7 +33157,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.79548368265931302</v>
@@ -33204,7 +33187,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.53053578258646705</v>
@@ -33234,7 +33217,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.89667792691300796</v>
@@ -33264,7 +33247,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.52322057759622198</v>
@@ -33294,7 +33277,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.74882057909286304</v>
@@ -33342,7 +33325,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -33357,13 +33340,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -33375,7 +33358,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.82296657824962804</v>
@@ -33405,7 +33388,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.83809491417280102</v>
@@ -33435,7 +33418,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.49572547001073197</v>
@@ -33465,7 +33448,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.60538260002979405</v>
@@ -33495,7 +33478,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.773113407596692</v>
@@ -33525,7 +33508,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.50224553485286605</v>
@@ -33555,7 +33538,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.78548379589257</v>
@@ -33585,7 +33568,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.81373838124367304</v>
@@ -33615,7 +33598,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.68240629116170803</v>
@@ -33645,7 +33628,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.765103908010628</v>
@@ -33675,7 +33658,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.56516386684345399</v>
@@ -33705,7 +33688,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.78176451884340703</v>
@@ -33735,7 +33718,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.51838904264393504</v>
@@ -33765,7 +33748,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.77418931109036004</v>
@@ -33795,7 +33778,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.63245347029275101</v>
@@ -33825,7 +33808,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.78814527867291795</v>
@@ -33855,7 +33838,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.66172075472023895</v>
@@ -33885,7 +33868,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.731572354849095</v>
@@ -33915,7 +33898,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.67680559281721198</v>
@@ -33945,7 +33928,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.72029501468632595</v>
@@ -33975,7 +33958,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.65949986557519302</v>
@@ -34005,7 +33988,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.19956662939153599</v>
@@ -34035,7 +34018,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.60092387327285002</v>
@@ -34065,7 +34048,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.428726510821266</v>
@@ -34095,7 +34078,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.56029521100809998</v>
@@ -34125,7 +34108,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.53335790759606505</v>
@@ -34155,7 +34138,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.35345633915700497</v>
@@ -34185,7 +34168,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.46926265889192498</v>
@@ -34215,7 +34198,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.53155145201698195</v>
@@ -34245,7 +34228,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.421045615850621</v>
@@ -34275,7 +34258,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.43009184534289102</v>
@@ -34305,7 +34288,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.52976407919574697</v>
@@ -34335,7 +34318,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.276779060578009</v>
@@ -34365,7 +34348,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.59681837277384497</v>
@@ -34395,7 +34378,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.63987460724895895</v>
@@ -34425,7 +34408,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.76335447956174896</v>
@@ -34455,7 +34438,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.61646097444687897</v>
@@ -34485,7 +34468,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.75151660912418405</v>
@@ -34515,7 +34498,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.79898879813687496</v>
@@ -34545,7 +34528,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.44938961279624401</v>
@@ -34575,7 +34558,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.62236628474085898</v>
@@ -34605,7 +34588,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.47759678909668102</v>
@@ -34635,7 +34618,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.514531139149912</v>
@@ -34665,7 +34648,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.84252919927085201</v>
@@ -34695,7 +34678,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.75831250687007901</v>
@@ -34725,7 +34708,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.85762035771331402</v>
@@ -34755,7 +34738,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.73598520604811202</v>
@@ -34785,7 +34768,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.378385798619638</v>
@@ -34815,7 +34798,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.89682918812289603</v>
@@ -34845,7 +34828,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.35822933544876501</v>
@@ -34875,7 +34858,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.54350831414885303</v>
@@ -34923,7 +34906,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -34938,13 +34921,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -34953,7 +34936,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.82881640701446002</v>
@@ -34980,7 +34963,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.83809491417280102</v>
@@ -35007,7 +34990,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.49572547001073197</v>
@@ -35034,7 +35017,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.58368816217918695</v>
@@ -35061,7 +35044,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.773113407596692</v>
@@ -35088,7 +35071,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.50224553485286605</v>
@@ -35115,7 +35098,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.78548379589257</v>
@@ -35142,7 +35125,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.81373838124367304</v>
@@ -35169,7 +35152,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.68240629116170803</v>
@@ -35196,7 +35179,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.765103908010628</v>
@@ -35223,7 +35206,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.56516386684345399</v>
@@ -35250,7 +35233,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.78176451884340703</v>
@@ -35277,7 +35260,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.51838904264393504</v>
@@ -35304,7 +35287,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.77418931109036004</v>
@@ -35331,7 +35314,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.63245347029275101</v>
@@ -35358,7 +35341,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.78814527867291795</v>
@@ -35385,7 +35368,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.66172075472023895</v>
@@ -35412,7 +35395,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.731572354849095</v>
@@ -35439,7 +35422,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.67680559281721198</v>
@@ -35466,7 +35449,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.72029501468632595</v>
@@ -35493,7 +35476,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.65949986557519302</v>
@@ -35520,7 +35503,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.19956662939153599</v>
@@ -35547,7 +35530,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.60092387327285002</v>
@@ -35574,7 +35557,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.428726510821266</v>
@@ -35601,7 +35584,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.56029521100809998</v>
@@ -35628,7 +35611,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.53335790759606505</v>
@@ -35655,7 +35638,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.35345633915700497</v>
@@ -35682,7 +35665,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.46926265889192498</v>
@@ -35709,7 +35692,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.53155145201698195</v>
@@ -35736,7 +35719,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.421045615850621</v>
@@ -35763,7 +35746,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.43009184534289102</v>
@@ -35790,7 +35773,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.52976407919574697</v>
@@ -35817,7 +35800,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.276779060578009</v>
@@ -35844,7 +35827,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.59681837277384497</v>
@@ -35871,7 +35854,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.63987460724895895</v>
@@ -35898,7 +35881,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.76335447956174896</v>
@@ -35925,7 +35908,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.61646097444687897</v>
@@ -35952,7 +35935,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.75151660912418405</v>
@@ -35979,7 +35962,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.79898879813687496</v>
@@ -36006,7 +35989,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.44938961279624401</v>
@@ -36033,7 +36016,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.62236628474085898</v>
@@ -36060,7 +36043,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.47759678909668102</v>
@@ -36087,7 +36070,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.514531139149912</v>
@@ -36114,7 +36097,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.84252919927085201</v>
@@ -36141,7 +36124,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.75831250687007901</v>
@@ -36168,7 +36151,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.85762035771331402</v>
@@ -36195,7 +36178,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.73598520604811202</v>
@@ -36222,7 +36205,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.378385798619638</v>
@@ -36249,7 +36232,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.89682918812289603</v>
@@ -36276,7 +36259,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.35822933544876501</v>
@@ -36303,7 +36286,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.54350831414885303</v>
@@ -36348,7 +36331,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -36363,13 +36346,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -36378,7 +36361,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.48768220981718502</v>
@@ -36405,7 +36388,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.55755712439873095</v>
@@ -36432,7 +36415,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.381087944097384</v>
@@ -36459,7 +36442,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.58458378419815704</v>
@@ -36486,7 +36469,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.50577386644137901</v>
@@ -36513,7 +36496,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.49247770753147202</v>
@@ -36540,7 +36523,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.64674105832705597</v>
@@ -36567,7 +36550,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.55436699405291401</v>
@@ -36594,7 +36577,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.57084146283707704</v>
@@ -36621,7 +36604,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.62897775898849195</v>
@@ -36648,7 +36631,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.53631338485732805</v>
@@ -36675,7 +36658,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.67772281884143204</v>
@@ -36702,7 +36685,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.530029803618837</v>
@@ -36729,7 +36712,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.746346168441822</v>
@@ -36756,7 +36739,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.73404795067278505</v>
@@ -36783,7 +36766,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.768706961978178</v>
@@ -36810,7 +36793,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.71572872675821297</v>
@@ -36837,7 +36820,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.70584069612179501</v>
@@ -36864,7 +36847,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.72524947831041797</v>
@@ -36891,7 +36874,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.69316790476219203</v>
@@ -36918,7 +36901,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.63929657182107202</v>
@@ -36945,7 +36928,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.61436886457283901</v>
@@ -36972,7 +36955,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.59085848001665398</v>
@@ -36999,7 +36982,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.531412781086119</v>
@@ -37026,7 +37009,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.53420646863821697</v>
@@ -37053,7 +37036,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.50313949171414896</v>
@@ -37080,7 +37063,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.45204713051579698</v>
@@ -37107,7 +37090,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.47166928699907201</v>
@@ -37134,7 +37117,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.49241093115907802</v>
@@ -37161,7 +37144,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.427197694338048</v>
@@ -37188,7 +37171,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.51650315803555502</v>
@@ -37215,7 +37198,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.52922553831604202</v>
@@ -37242,7 +37225,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.50295308552182305</v>
@@ -37269,7 +37252,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.60059964772152097</v>
@@ -37296,7 +37279,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.62226050161990398</v>
@@ -37323,7 +37306,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.67271359008857201</v>
@@ -37350,7 +37333,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.65013980922459202</v>
@@ -37377,7 +37360,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.72399268599050204</v>
@@ -37404,7 +37387,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.74921542664920404</v>
@@ -37431,7 +37414,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.81713517644891098</v>
@@ -37458,7 +37441,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.79444984848279898</v>
@@ -37485,7 +37468,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.76151871941381699</v>
@@ -37512,7 +37495,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.552083794700159</v>
@@ -37539,7 +37522,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.41445306801350301</v>
@@ -37566,7 +37549,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.51937302262599805</v>
@@ -37593,7 +37576,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.65308764280767095</v>
@@ -37620,7 +37603,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.61687221449959695</v>
@@ -37647,7 +37630,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.55282123362695601</v>
@@ -37674,7 +37657,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.68837939953601002</v>
@@ -37701,7 +37684,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.59119347209289597</v>
@@ -37728,7 +37711,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.42568606403690801</v>
@@ -37775,7 +37758,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -37787,19 +37770,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -37814,7 +37797,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.66840371230143103</v>
@@ -37850,7 +37833,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.66922836321713897</v>
@@ -37886,7 +37869,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.66395234961125604</v>
@@ -37922,7 +37905,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.66475172365159596</v>
@@ -37958,7 +37941,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.74261639377143096</v>
@@ -37994,7 +37977,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.74032295730787001</v>
@@ -38030,7 +38013,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.74183609296096997</v>
@@ -38066,7 +38049,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.74089360181202901</v>
@@ -38102,7 +38085,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.69890512310685704</v>
@@ -38138,7 +38121,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.70280196638071601</v>
@@ -38174,7 +38157,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.70434044549695196</v>
@@ -38210,7 +38193,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.70505165873452502</v>
@@ -38246,7 +38229,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.70596459119800203</v>
@@ -38282,7 +38265,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.70940748115996899</v>
@@ -38318,7 +38301,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.70992696442484804</v>
@@ -38354,7 +38337,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.71132491238354301</v>
@@ -38390,7 +38373,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.71247057718495699</v>
@@ -38426,7 +38409,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.62835954717230103</v>
@@ -38462,7 +38445,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.63474496481557097</v>
@@ -38498,7 +38481,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.63329033924429101</v>
@@ -38534,7 +38517,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.63539111467440001</v>
@@ -38570,7 +38553,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.49745256910093699</v>
@@ -38606,7 +38589,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.49827742326107899</v>
@@ -38642,7 +38625,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.497159349910614</v>
@@ -38678,7 +38661,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.49965665324608599</v>
@@ -38714,7 +38697,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.49990958563537402</v>
@@ -38750,7 +38733,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.42542967586834601</v>
@@ -38786,7 +38769,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.42513152899120099</v>
@@ -38822,7 +38805,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.42623620570760701</v>
@@ -38858,7 +38841,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.42711274785176401</v>
@@ -38894,7 +38877,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.43070886599249703</v>
@@ -38930,7 +38913,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.42602581062774703</v>
@@ -38966,7 +38949,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.42354167590264602</v>
@@ -39002,7 +38985,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.42275723694442002</v>
@@ -39038,7 +39021,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.42145656103219198</v>
@@ -39074,7 +39057,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.637342593282477</v>
@@ -39110,7 +39093,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.64256894787513097</v>
@@ -39146,7 +39129,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.63445150380932303</v>
@@ -39182,7 +39165,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.63651017036617497</v>
@@ -39218,7 +39201,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.46324939089337203</v>
@@ -39254,7 +39237,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.45818135097766799</v>
@@ -39290,7 +39273,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.45710651272818398</v>
@@ -39326,7 +39309,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.46097914115829802</v>
@@ -39362,7 +39345,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.76267474759064402</v>
@@ -39398,7 +39381,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.76661440866435504</v>
@@ -39434,7 +39417,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.76701037049965903</v>
@@ -39470,7 +39453,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.76184574701466001</v>
@@ -39506,7 +39489,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.54891684759314197</v>
@@ -39542,7 +39525,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.55788713114432098</v>
@@ -39578,7 +39561,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.54896257773061397</v>
@@ -39614,7 +39597,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.54445747893213703</v>
@@ -39671,7 +39654,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -39683,19 +39666,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -39707,7 +39690,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.66235763917701396</v>
@@ -39740,7 +39723,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.660965748727397</v>
@@ -39773,7 +39756,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.660048077456871</v>
@@ -39806,7 +39789,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.66037773573690794</v>
@@ -39839,7 +39822,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.77552418717821303</v>
@@ -39872,7 +39855,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.77110304066892899</v>
@@ -39905,7 +39888,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.77164717533488403</v>
@@ -39938,7 +39921,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.76404720187442599</v>
@@ -39971,7 +39954,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.711616436326304</v>
@@ -40004,7 +39987,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.71875240536462104</v>
@@ -40037,7 +40020,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.71721519374502696</v>
@@ -40070,7 +40053,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.71748872266010699</v>
@@ -40103,7 +40086,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.71870019952902597</v>
@@ -40136,7 +40119,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.70817920719159799</v>
@@ -40169,7 +40152,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.70857758648136004</v>
@@ -40202,7 +40185,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.70967005153420104</v>
@@ -40235,7 +40218,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.70872415036068004</v>
@@ -40268,7 +40251,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.63077564136821096</v>
@@ -40301,7 +40284,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.637435618273827</v>
@@ -40334,7 +40317,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.63710805400177195</v>
@@ -40367,7 +40350,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.63881684392775395</v>
@@ -40400,7 +40383,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.50640752734068095</v>
@@ -40433,7 +40416,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.50681621173814395</v>
@@ -40466,7 +40449,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.50625232093977302</v>
@@ -40499,7 +40482,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.50785001985413802</v>
@@ -40532,7 +40515,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.50892301044888899</v>
@@ -40565,7 +40548,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.44616823778757297</v>
@@ -40598,7 +40581,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.446514040639228</v>
@@ -40631,7 +40614,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.44819792458199598</v>
@@ -40664,7 +40647,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.44784695204158498</v>
@@ -40697,7 +40680,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.46278048174421499</v>
@@ -40730,7 +40713,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.462640806552163</v>
@@ -40763,7 +40746,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.46011320854201399</v>
@@ -40796,7 +40779,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.45862463304001899</v>
@@ -40829,7 +40812,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.45633044920344401</v>
@@ -40862,7 +40845,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.63450913958253796</v>
@@ -40895,7 +40878,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.63881075634968898</v>
@@ -40928,7 +40911,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.62674196745075195</v>
@@ -40961,7 +40944,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.63467017012120197</v>
@@ -40994,7 +40977,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.45802906727008902</v>
@@ -41027,7 +41010,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.45416008020874998</v>
@@ -41060,7 +41043,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.45333921684740502</v>
@@ -41093,7 +41076,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.45727624003220502</v>
@@ -41126,7 +41109,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.82368038152810197</v>
@@ -41159,7 +41142,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.82476699597329495</v>
@@ -41192,7 +41175,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.82665101638498095</v>
@@ -41225,7 +41208,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.82133444606394201</v>
@@ -41258,7 +41241,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.56522865624761698</v>
@@ -41291,7 +41274,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.57960554168950196</v>
@@ -41324,7 +41307,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.56969758016346395</v>
@@ -41357,7 +41340,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.564503459164439</v>
@@ -41425,7 +41408,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -41437,19 +41420,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -41461,7 +41444,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.70519345151260404</v>
@@ -41494,7 +41477,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.70682015319008595</v>
@@ -41527,7 +41510,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.70766317997176498</v>
@@ -41560,7 +41543,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.70639042013806796</v>
@@ -41593,7 +41576,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.77956902288334695</v>
@@ -41626,7 +41609,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.78238098592220595</v>
@@ -41659,7 +41642,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.78099170186268696</v>
@@ -41692,7 +41675,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.78011964647004395</v>
@@ -41725,7 +41708,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.73794398226964697</v>
@@ -41758,7 +41741,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.73939977856133199</v>
@@ -41791,7 +41774,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.74011438222152903</v>
@@ -41824,7 +41807,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.73872486460978004</v>
@@ -41857,7 +41840,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.74367038869316004</v>
@@ -41890,7 +41873,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.74697035482601504</v>
@@ -41923,7 +41906,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.74805175361165699</v>
@@ -41956,7 +41939,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.74768301902373702</v>
@@ -41989,7 +41972,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.75062329203715095</v>
@@ -42022,7 +42005,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.67174191701781005</v>
@@ -42055,7 +42038,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.67617684047454296</v>
@@ -42088,7 +42071,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.67346134069381303</v>
@@ -42121,7 +42104,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.67505517859581099</v>
@@ -42154,7 +42137,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.53014677124902199</v>
@@ -42187,7 +42170,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.53785465315831404</v>
@@ -42220,7 +42203,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.53844168835804096</v>
@@ -42253,7 +42236,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.532428654824873</v>
@@ -42286,7 +42269,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.53305687717259898</v>
@@ -42319,7 +42302,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.46262402291531302</v>
@@ -42352,7 +42335,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.462980740755284</v>
@@ -42385,7 +42368,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.45326715222217701</v>
@@ -42418,7 +42401,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.45835282145360501</v>
@@ -42451,7 +42434,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.47429323925907502</v>
@@ -42484,7 +42467,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.48556818000365098</v>
@@ -42517,7 +42500,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.46288590629800402</v>
@@ -42550,7 +42533,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.45521228490787302</v>
@@ -42583,7 +42566,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.47825481247629797</v>
@@ -42616,7 +42599,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.69705071112188299</v>
@@ -42649,7 +42632,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.689082878993311</v>
@@ -42682,7 +42665,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.70225181763275002</v>
@@ -42715,7 +42698,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.68834852171411598</v>
@@ -42748,7 +42731,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.52931302790409995</v>
@@ -42781,7 +42764,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.49384567475642399</v>
@@ -42814,7 +42797,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.49225064338344798</v>
@@ -42847,7 +42830,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.497766020811444</v>
@@ -42880,7 +42863,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.80075557958548105</v>
@@ -42913,7 +42896,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.80469200961092802</v>
@@ -42946,7 +42929,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.80243821286058004</v>
@@ -42979,7 +42962,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.80017721246122198</v>
@@ -43012,7 +42995,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.58650645736643803</v>
@@ -43045,7 +43028,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.58509445019053197</v>
@@ -43078,7 +43061,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.59382534602118797</v>
@@ -43111,7 +43094,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.58890663273002097</v>
@@ -43165,7 +43148,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -43177,19 +43160,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -43201,7 +43184,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.70991872084119501</v>
@@ -43234,7 +43217,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.71153982420671702</v>
@@ -43267,7 +43250,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.70479701594427302</v>
@@ -43300,7 +43283,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.70620653189579097</v>
@@ -43333,7 +43316,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.78386327602301398</v>
@@ -43366,7 +43349,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.78270838976150103</v>
@@ -43399,7 +43382,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.78379971602859</v>
@@ -43432,7 +43415,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.78359460989349805</v>
@@ -43465,7 +43448,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.74036945549340805</v>
@@ -43498,7 +43481,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.74433875871755695</v>
@@ -43531,7 +43514,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.74586045293661596</v>
@@ -43564,7 +43547,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.74684801308501902</v>
@@ -43597,7 +43580,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.747799508222173</v>
@@ -43630,7 +43613,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.74648665749792698</v>
@@ -43663,7 +43646,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.74721235076893799</v>
@@ -43696,7 +43679,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.74822968770786402</v>
@@ -43729,7 +43712,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.74971933972090599</v>
@@ -43762,7 +43745,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.67005861106159204</v>
@@ -43795,7 +43778,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.67470583126921502</v>
@@ -43828,7 +43811,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.67418238658626095</v>
@@ -43861,7 +43844,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.67651531470876203</v>
@@ -43894,7 +43877,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.536851176574351</v>
@@ -43927,7 +43910,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.53842666686547902</v>
@@ -43960,7 +43943,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.53841376045294898</v>
@@ -43993,7 +43976,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.54017027766421699</v>
@@ -44026,7 +44009,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.54111450927138305</v>
@@ -44059,7 +44042,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.45610809589312801</v>
@@ -44092,7 +44075,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.45576479760768401</v>
@@ -44125,7 +44108,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.45761877349930402</v>
@@ -44158,7 +44141,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.45791582954785598</v>
@@ -44191,7 +44174,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.49793371610857601</v>
@@ -44224,7 +44207,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.49389889913773</v>
@@ -44257,7 +44240,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.49486966834275897</v>
@@ -44290,7 +44273,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.49141429715586799</v>
@@ -44323,7 +44306,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.48687863442679202</v>
@@ -44356,7 +44339,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.68796328168312204</v>
@@ -44389,7 +44372,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.69384663033587901</v>
@@ -44422,7 +44405,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.68490241961661302</v>
@@ -44455,7 +44438,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.69225686805036601</v>
@@ -44488,7 +44471,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.54931321691820301</v>
@@ -44521,7 +44504,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.54293884875754395</v>
@@ -44554,7 +44537,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.53957761443469698</v>
@@ -44587,7 +44570,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.54560850941538797</v>
@@ -44620,7 +44603,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.78826861187192998</v>
@@ -44653,7 +44636,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.79138284756000998</v>
@@ -44686,7 +44669,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.79282008120835201</v>
@@ -44719,7 +44702,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.78817542741912305</v>
@@ -44752,7 +44735,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.59914165696812505</v>
@@ -44785,7 +44768,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.61093798799450005</v>
@@ -44818,7 +44801,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.60267877805440195</v>
@@ -44851,7 +44834,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.59631246573174901</v>
@@ -44905,7 +44888,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -44917,19 +44900,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -44938,7 +44921,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.70991872084119501</v>
@@ -44968,7 +44951,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.71153982420671702</v>
@@ -44998,7 +44981,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.70479701594427302</v>
@@ -45028,7 +45011,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.70620653189579097</v>
@@ -45058,7 +45041,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.78386327602301398</v>
@@ -45088,7 +45071,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.78270838976150103</v>
@@ -45118,7 +45101,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.78379971602859</v>
@@ -45148,7 +45131,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.78359460989349805</v>
@@ -45178,7 +45161,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.74036945549340805</v>
@@ -45208,7 +45191,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.74433875871755695</v>
@@ -45238,7 +45221,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.74586045293661596</v>
@@ -45268,7 +45251,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.74684801308501902</v>
@@ -45298,7 +45281,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.747799508222173</v>
@@ -45328,7 +45311,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.74648665749792698</v>
@@ -45358,7 +45341,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.74721235076893799</v>
@@ -45388,7 +45371,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.74822968770786402</v>
@@ -45418,7 +45401,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.74971933972090599</v>
@@ -45448,7 +45431,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.67005861106159204</v>
@@ -45478,7 +45461,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.67470583126921502</v>
@@ -45508,7 +45491,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.67418238658626095</v>
@@ -45538,7 +45521,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.67644450438746695</v>
@@ -45568,7 +45551,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.536851176574351</v>
@@ -45598,7 +45581,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.53842666686547902</v>
@@ -45628,7 +45611,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.53841376045294898</v>
@@ -45658,7 +45641,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.54017027766421699</v>
@@ -45688,7 +45671,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.54111450927138305</v>
@@ -45718,7 +45701,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.45610809589312801</v>
@@ -45748,7 +45731,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.45576479760768401</v>
@@ -45778,7 +45761,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.45761877349930402</v>
@@ -45808,7 +45791,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.45791582954785598</v>
@@ -45838,7 +45821,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.49793371610857601</v>
@@ -45868,7 +45851,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.49389889913773</v>
@@ -45898,7 +45881,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.49486966834275897</v>
@@ -45928,7 +45911,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.49141429715586799</v>
@@ -45958,7 +45941,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.48687863442679202</v>
@@ -45988,7 +45971,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.68796328168312204</v>
@@ -46018,7 +46001,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.69384663033587901</v>
@@ -46048,7 +46031,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.68490241961661302</v>
@@ -46078,7 +46061,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.69225686805036601</v>
@@ -46108,7 +46091,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.54931321691820301</v>
@@ -46138,7 +46121,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.54293884875754395</v>
@@ -46168,7 +46151,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.53957761443469698</v>
@@ -46198,7 +46181,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.54560850941538797</v>
@@ -46228,7 +46211,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.78826861187192998</v>
@@ -46258,7 +46241,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.79138284756000998</v>
@@ -46288,7 +46271,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.79282008120835201</v>
@@ -46318,7 +46301,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.78817542741912305</v>
@@ -46348,7 +46331,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.59914165696812505</v>
@@ -46378,7 +46361,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.61093798799450005</v>
@@ -46408,7 +46391,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.60267877805440195</v>
@@ -46438,7 +46421,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.59631246573174901</v>
@@ -46489,7 +46472,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -46501,19 +46484,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -46522,7 +46505,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.778107275908129</v>
@@ -46552,7 +46535,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.77899120400901301</v>
@@ -46582,7 +46565,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.77910146078613196</v>
@@ -46612,7 +46595,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.78065492080211296</v>
@@ -46642,7 +46625,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.81669665277106596</v>
@@ -46672,7 +46655,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.81800901929513004</v>
@@ -46702,7 +46685,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.81913345820074401</v>
@@ -46732,7 +46715,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.81895219778684902</v>
@@ -46762,7 +46745,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.78574046230408401</v>
@@ -46792,7 +46775,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.77985891053437495</v>
@@ -46822,7 +46805,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.77794062894560501</v>
@@ -46852,7 +46835,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.77628205491078095</v>
@@ -46882,7 +46865,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.77931830086452103</v>
@@ -46912,7 +46895,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.78307408666421996</v>
@@ -46942,7 +46925,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.78551628346954006</v>
@@ -46972,7 +46955,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.78531881970267903</v>
@@ -47002,7 +46985,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.79230476687261797</v>
@@ -47032,7 +47015,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.72659848191714105</v>
@@ -47062,7 +47045,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.72485112882659797</v>
@@ -47092,7 +47075,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.72630161677971805</v>
@@ -47122,7 +47105,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.72518386490153397</v>
@@ -47152,7 +47135,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.55646259720160196</v>
@@ -47182,7 +47165,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.56740497652986899</v>
@@ -47212,7 +47195,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.56665378909511699</v>
@@ -47242,7 +47225,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.55655566199975104</v>
@@ -47272,7 +47255,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.55973469602560799</v>
@@ -47302,7 +47285,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.50710313053012601</v>
@@ -47332,7 +47315,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.51125991592378905</v>
@@ -47362,7 +47345,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.50200696561006597</v>
@@ -47392,7 +47375,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.50408542888754304</v>
@@ -47422,7 +47405,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.53497471857068701</v>
@@ -47452,7 +47435,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.53002320228059396</v>
@@ -47482,7 +47465,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.53295381505652495</v>
@@ -47512,7 +47495,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.52148690471029302</v>
@@ -47542,7 +47525,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.53188956834775003</v>
@@ -47572,7 +47555,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.71620805986715996</v>
@@ -47602,7 +47585,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.70763577910564501</v>
@@ -47632,7 +47615,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.70678213112223098</v>
@@ -47662,7 +47645,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.69968888671418294</v>
@@ -47692,7 +47675,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.74528565980018902</v>
@@ -47722,7 +47705,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.74440106105630699</v>
@@ -47752,7 +47735,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.74736865823502396</v>
@@ -47782,7 +47765,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.74732236026203203</v>
@@ -47812,7 +47795,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.89882107589482396</v>
@@ -47842,7 +47825,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.90281061579833499</v>
@@ -47872,7 +47855,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.90302872878305196</v>
@@ -47902,7 +47885,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.90161494653459895</v>
@@ -47932,7 +47915,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.78226184391977305</v>
@@ -47962,7 +47945,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.77711116019854798</v>
@@ -47992,7 +47975,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.78351540298721001</v>
@@ -48022,7 +48005,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.78090923213499597</v>
@@ -48071,7 +48054,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -48086,13 +48069,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -48104,7 +48087,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.85562932615459197</v>
@@ -48134,7 +48117,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.8733140068977</v>
@@ -48164,7 +48147,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.59390395531113804</v>
@@ -48194,7 +48177,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.69943870288706</v>
@@ -48224,7 +48207,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.85449544472311001</v>
@@ -48254,7 +48237,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.65430410582264698</v>
@@ -48284,7 +48267,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.82730666036697098</v>
@@ -48314,7 +48297,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.855279894063666</v>
@@ -48344,7 +48327,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.65694068677371498</v>
@@ -48374,7 +48357,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.81842859241335397</v>
@@ -48404,7 +48387,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.71244426756573698</v>
@@ -48434,7 +48417,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.80912372030083901</v>
@@ -48464,7 +48447,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.61835377737108599</v>
@@ -48494,7 +48477,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.80155073436393498</v>
@@ -48524,7 +48507,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.70565391676960099</v>
@@ -48554,7 +48537,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.80889788119141304</v>
@@ -48584,7 +48567,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.77622727279477699</v>
@@ -48614,7 +48597,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.755998047393734</v>
@@ -48644,7 +48627,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.77303233623269696</v>
@@ -48674,7 +48657,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.73184077331731501</v>
@@ -48704,7 +48687,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.68147427841442698</v>
@@ -48734,7 +48717,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.23486204421290299</v>
@@ -48764,7 +48747,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.649792024199213</v>
@@ -48794,7 +48777,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.43127096835201301</v>
@@ -48824,7 +48807,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.56036181870744906</v>
@@ -48854,7 +48837,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.56514160947436098</v>
@@ -48884,7 +48867,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.35254264577519001</v>
@@ -48914,7 +48897,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.49823352111467401</v>
@@ -48944,7 +48927,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.51939259254834802</v>
@@ -48974,7 +48957,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.420164036001554</v>
@@ -49004,7 +48987,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.26941926015121798</v>
@@ -49034,7 +49017,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.41897898356218199</v>
@@ -49064,7 +49047,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.340839490498138</v>
@@ -49094,7 +49077,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.61148753905793996</v>
@@ -49124,7 +49107,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.34521860803383903</v>
@@ -49154,7 +49137,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.74491249964100903</v>
@@ -49184,7 +49167,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.64857869139987501</v>
@@ -49214,7 +49197,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.56289494090507997</v>
@@ -49244,7 +49227,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.80417009619495505</v>
@@ -49274,7 +49257,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.45219200743544302</v>
@@ -49304,7 +49287,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.76997467933660901</v>
@@ -49334,7 +49317,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.77909583725173803</v>
@@ -49364,7 +49347,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.67691615717301301</v>
@@ -49394,7 +49377,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.91657870588034895</v>
@@ -49424,7 +49407,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.88400301042698504</v>
@@ -49454,7 +49437,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.896492397589575</v>
@@ -49484,7 +49467,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.83664666036289603</v>
@@ -49514,7 +49497,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.57221367488102604</v>
@@ -49544,7 +49527,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.94500189896211295</v>
@@ -49574,7 +49557,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.592442703501882</v>
@@ -49604,7 +49587,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.78246127592158099</v>
@@ -49652,7 +49635,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -49667,13 +49650,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -49685,7 +49668,7 @@
         <v>44354.708333333336</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0.86964098666077205</v>
@@ -49715,7 +49698,7 @@
         <v>44361.416666666664</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0.88395105638707305</v>
@@ -49745,7 +49728,7 @@
         <v>44368.135416666664</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0.51289273891324605</v>
@@ -49775,7 +49758,7 @@
         <v>44376.739583333336</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>0.62569038182938796</v>
@@ -49805,7 +49788,7 @@
         <v>44384.604166666664</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>0.81180966823715395</v>
@@ -49835,7 +49818,7 @@
         <v>44391.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>0.51773263213334697</v>
@@ -49865,7 +49848,7 @@
         <v>44398.020833333336</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>0.82421172427650502</v>
@@ -49895,7 +49878,7 @@
         <v>44405.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.85505364543151796</v>
@@ -49925,7 +49908,7 @@
         <v>44412.28125</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.71151728223378496</v>
@@ -49955,7 +49938,7 @@
         <v>44418.989583333336</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0.79351643805013095</v>
@@ -49985,7 +49968,7 @@
         <v>44425.697916666664</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>0.58391380173296803</v>
@@ -50015,7 +49998,7 @@
         <v>44432.5625</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.82140344899138396</v>
@@ -50045,7 +50028,7 @@
         <v>44439.270833333336</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0.51653887341433702</v>
@@ -50075,7 +50058,7 @@
         <v>44445.979166666664</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>0.81027228574639498</v>
@@ -50105,7 +50088,7 @@
         <v>44452.708333333336</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>0.60050725800248195</v>
@@ -50135,7 +50118,7 @@
         <v>44459.416666666664</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>0.82016683077686103</v>
@@ -50165,7 +50148,7 @@
         <v>44467.0625</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>0.68581802550565296</v>
@@ -50195,7 +50178,7 @@
         <v>44473.770833333336</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.76175065365690997</v>
@@ -50225,7 +50208,7 @@
         <v>44480.479166666664</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>0.69554121009209502</v>
@@ -50255,7 +50238,7 @@
         <v>44487.1875</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0.74327205480898295</v>
@@ -50285,7 +50268,7 @@
         <v>44496.6875</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0.67518098273204696</v>
@@ -50315,7 +50298,7 @@
         <v>44503.395833333336</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>0.19448880701202101</v>
@@ -50345,7 +50328,7 @@
         <v>44510.104166666664</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>0.57151311383266801</v>
@@ -50375,7 +50358,7 @@
         <v>44516.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>0.44713663918670898</v>
@@ -50405,7 +50388,7 @@
         <v>44523.541666666664</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0.57503560259491004</v>
@@ -50435,7 +50418,7 @@
         <v>44530.25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>0.54582273079476096</v>
@@ -50465,7 +50448,7 @@
         <v>44536.96875</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>0.38915853176747101</v>
@@ -50495,7 +50478,7 @@
         <v>44543.677083333336</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.45964404156197503</v>
@@ -50525,7 +50508,7 @@
         <v>44550.385416666664</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>0.54392635761361097</v>
@@ -50555,7 +50538,7 @@
         <v>44557.114583333336</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0.423292456352452</v>
@@ -50585,7 +50568,7 @@
         <v>44563.822916666664</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>0.44243811287255103</v>
@@ -50615,7 +50598,7 @@
         <v>44570.541666666664</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <v>0.52271581006218903</v>
@@ -50645,7 +50628,7 @@
         <v>44577.25</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>0.35130708646430697</v>
@@ -50675,7 +50658,7 @@
         <v>44583.958333333336</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>0.53133595787051702</v>
@@ -50705,7 +50688,7 @@
         <v>44590.666666666664</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>0.651864191028383</v>
@@ -50735,7 +50718,7 @@
         <v>44597.375</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <v>0.78325328467882804</v>
@@ -50765,7 +50748,7 @@
         <v>44604.083333333336</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>0.62970047623565195</v>
@@ -50795,7 +50778,7 @@
         <v>44610.8125</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39">
         <v>0.76973400119186197</v>
@@ -50825,7 +50808,7 @@
         <v>44620.364583333336</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>0.84133697278119002</v>
@@ -50855,7 +50838,7 @@
         <v>44628.666666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.41770413562936198</v>
@@ -50885,7 +50868,7 @@
         <v>44636.802083333336</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>0.64011393079873702</v>
@@ -50915,7 +50898,7 @@
         <v>44643.510416666664</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43">
         <v>0.49108516909056898</v>
@@ -50945,7 +50928,7 @@
         <v>44650.21875</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>0.52440882696445301</v>
@@ -50975,7 +50958,7 @@
         <v>44656.9375</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>0.864615034243852</v>
@@ -51005,7 +50988,7 @@
         <v>44666.010416666664</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <v>0.77437333204699799</v>
@@ -51035,7 +51018,7 @@
         <v>44672.71875</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47">
         <v>0.87242792610806297</v>
@@ -51065,7 +51048,7 @@
         <v>44679.4375</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C48">
         <v>0.74996415592169896</v>
@@ -51095,7 +51078,7 @@
         <v>44686.145833333336</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49">
         <v>0.38434729099242398</v>
@@ -51125,7 +51108,7 @@
         <v>44692.854166666664</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50">
         <v>0.93248495699302802</v>
@@ -51155,7 +51138,7 @@
         <v>44699.572916666664</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>0.36471560803556402</v>
@@ -51185,7 +51168,7 @@
         <v>44706.302083333336</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>0.55758521513887405</v>

--- a/Analysis/SAM_00 summary.xlsx
+++ b/Analysis/SAM_00 summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdeline\Documents\Python Scripts\2022_Bifacial_irradiance_paper\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C051042-009A-4B67-BBE8-7955CA602EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD96A71E-4788-484E-B02D-CFC263AB040F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6360" windowWidth="29040" windowHeight="15840" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figures" sheetId="4" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="157">
   <si>
     <t>Column1</t>
   </si>
@@ -544,7 +544,22 @@
     <t>SAMTMYA01 model results - Row 2+4</t>
   </si>
   <si>
-    <t>SAMP00 model results - Row 2+4</t>
+    <t>SAMP11 (CM11 POA and monthly albedo) - row 2+4</t>
+  </si>
+  <si>
+    <t>-0.00</t>
+  </si>
+  <si>
+    <t>Method4Min</t>
+  </si>
+  <si>
+    <t>&lt;- Method 4_min</t>
+  </si>
+  <si>
+    <t>SAMP07 (CM11 POA and high freq albedo) - row 2+4</t>
+  </si>
+  <si>
+    <t>SAMP00 (RefCell POA, high frequency albedo)</t>
   </si>
 </sst>
 </file>
@@ -648,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -683,6 +698,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19640,13 +19661,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>17145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19683,7 +19704,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>439474</xdr:colOff>
+      <xdr:colOff>435664</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>73503</xdr:rowOff>
     </xdr:to>
@@ -19739,13 +19760,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>150495</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>17145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>43815</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19777,13 +19798,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>174966</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>75321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>108292</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>100086</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19815,13 +19836,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19853,13 +19874,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19891,13 +19912,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>257158</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>43082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>200996</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>70118</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19934,7 +19955,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>208390</xdr:colOff>
+      <xdr:colOff>212200</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>111084</xdr:rowOff>
     </xdr:to>
@@ -19995,9 +20016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>93675</xdr:colOff>
+      <xdr:colOff>97485</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>55908</xdr:rowOff>
+      <xdr:rowOff>59718</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20051,13 +20072,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165653</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>118028</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>65515</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20089,13 +20110,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>173935</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>256927</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>22198</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -26549,10 +26570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F8C243-CD6D-4F25-B152-197695A0DCE2}">
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26841,7 +26862,7 @@
         <v>1.84</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -26908,7 +26929,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="5">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="M12" s="5">
         <v>1.62</v>
@@ -26946,7 +26967,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="4">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="M13" s="4">
         <v>1.85</v>
@@ -26981,10 +27002,10 @@
         <v>12</v>
       </c>
       <c r="L14" s="4">
-        <v>5.68</v>
+        <v>5.88</v>
       </c>
       <c r="M14" s="4">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="N14" t="s">
         <v>19</v>
@@ -27019,7 +27040,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="4">
-        <v>-1.18</v>
+        <v>-1.01</v>
       </c>
       <c r="M15" s="4">
         <v>1.39</v>
@@ -27041,254 +27062,549 @@
         <v>12</v>
       </c>
       <c r="L16" s="8">
-        <v>-0.51</v>
+        <v>-0.32</v>
       </c>
       <c r="M16" s="4">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="N16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
+      <c r="I18" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="I20" s="1">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="I22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22">
+        <v>5.95</v>
+      </c>
+      <c r="M22">
+        <v>3.47</v>
+      </c>
+      <c r="N22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="I23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-1.01</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-    </row>
-    <row r="26" spans="1:13" ht="23.4">
-      <c r="J26" s="3" t="s">
+      <c r="I24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="4">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="I25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1.41</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="N25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="I26" s="2"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="I27" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="I29" s="1">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="I31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31">
+        <v>5.97</v>
+      </c>
+      <c r="M31">
+        <v>3.48</v>
+      </c>
+      <c r="N31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="I32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="4">
+        <v>-1.02</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14">
+      <c r="I33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="4">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="N33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14">
+      <c r="I34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34" t="s">
+        <v>153</v>
+      </c>
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="N34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="9:14">
+      <c r="I35" s="2"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="9:14">
+      <c r="I36" s="2"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="9:14">
+      <c r="I37" s="2"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="9:14">
+      <c r="I38" s="2"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="9:14">
+      <c r="I39" s="2"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="9:14">
+      <c r="I40" s="2"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="9:14" ht="23.4">
+      <c r="J41" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="10:10" ht="23.4">
-      <c r="J45" s="3" t="s">
+    <row r="60" spans="10:10" ht="23.4">
+      <c r="J60" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="10:10" ht="23.4">
-      <c r="J62" s="3" t="s">
+    <row r="77" spans="10:10" ht="23.4">
+      <c r="J77" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
-      <c r="D88" t="s">
+    <row r="103" spans="2:7">
+      <c r="D103" t="s">
         <v>144</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F103" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="15" t="s">
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C104" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D104" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E104" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F89" s="16" t="s">
+      <c r="F104" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="16" t="s">
+      <c r="G104" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="28.8">
-      <c r="B90" s="10">
+    <row r="105" spans="2:7" ht="28.8">
+      <c r="B105" s="10">
         <v>8</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C105" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D105" s="14">
         <v>0</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E105" s="11">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F105" s="14">
         <v>-0.01</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G105" s="11">
         <v>1.05</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="10">
+    <row r="106" spans="2:7">
+      <c r="B106" s="10">
         <v>4</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C106" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D106" s="11">
         <v>1.19</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E106" s="11">
         <v>2.5099999999999998</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F106" s="11">
         <v>1.69</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G106" s="11">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="10">
+    <row r="107" spans="2:7">
+      <c r="B107" s="10">
         <v>4</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C107" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D107" s="11">
         <v>-0.24</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E107" s="11">
         <v>1.71</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F107" s="11">
         <v>-0.47</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G107" s="11">
         <v>1.33</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="10">
+    <row r="108" spans="2:7">
+      <c r="B108" s="10">
         <v>4</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C108" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D108" s="12">
         <v>0.34</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E108" s="11">
         <v>0.96</v>
       </c>
-      <c r="F93" s="12">
+      <c r="F108" s="12">
         <v>0.18</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G108" s="11">
         <v>0.71</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="10">
+    <row r="109" spans="2:7">
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="10">
         <v>2</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C110" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D110" s="11">
         <v>-0.6</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E110" s="11">
         <v>1.59</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F110" s="11">
         <v>-0.23</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G110" s="11">
         <v>1.8</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
-      <c r="B96" s="10">
+    <row r="111" spans="2:7">
+      <c r="B111" s="10">
         <v>2</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D111" s="11">
         <v>-2.52</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E111" s="11">
         <v>1.23</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F111" s="11">
         <v>-2.63</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G111" s="11">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="10">
+    <row r="112" spans="2:7">
+      <c r="B112" s="10">
         <v>2</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C112" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D112" s="11">
         <v>-1.69</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E112" s="11">
         <v>1.22</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F112" s="11">
         <v>-1.75</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G112" s="11">
         <v>1.06</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="2"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
+    <row r="113" spans="2:6">
+      <c r="B113" s="2"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis/SAM_00 summary.xlsx
+++ b/Analysis/SAM_00 summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdeline\Documents\Python Scripts\2022_Bifacial_irradiance_paper\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD96A71E-4788-484E-B02D-CFC263AB040F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DD9D40-E4A9-4D55-AEAF-1C396A1160D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6360" windowWidth="29040" windowHeight="15840" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26573,7 +26573,7 @@
   <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
